--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8372DF-2CA4-8A47-893A-98902EB3017F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC3B1E0-DCDB-0743-85A8-7EA9EBEE6A8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="460" windowWidth="14120" windowHeight="16240" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Parent 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="815">
   <si>
     <t>Skill</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Civil Engineering</t>
   </si>
   <si>
-    <t>Petroleum Engineering</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
@@ -1829,6 +1826,663 @@
   </si>
   <si>
     <t>NoSQL</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>Configuration Management</t>
+  </si>
+  <si>
+    <t>Source Code Managemet</t>
+  </si>
+  <si>
+    <t>Subversion</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Mercurial</t>
+  </si>
+  <si>
+    <t>RCS</t>
+  </si>
+  <si>
+    <t>GNU Arch</t>
+  </si>
+  <si>
+    <t>LibreSource Synchronizer</t>
+  </si>
+  <si>
+    <t>Team Foundation Server</t>
+  </si>
+  <si>
+    <t>Visual Studio Team Services</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Rake</t>
+  </si>
+  <si>
+    <t>Cabal</t>
+  </si>
+  <si>
+    <t>Ant</t>
+  </si>
+  <si>
+    <t>CADES</t>
+  </si>
+  <si>
+    <t>Nant</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Final Builder</t>
+  </si>
+  <si>
+    <t>Gradle</t>
+  </si>
+  <si>
+    <t>Visual Build Pro</t>
+  </si>
+  <si>
+    <t>Yacc</t>
+  </si>
+  <si>
+    <t>Bison</t>
+  </si>
+  <si>
+    <t>Parser Creation Tool</t>
+  </si>
+  <si>
+    <t>Build Tool</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Integrated Development Environment</t>
+  </si>
+  <si>
+    <t>Text Editor</t>
+  </si>
+  <si>
+    <t>Word Processor</t>
+  </si>
+  <si>
+    <t>Programming Tool</t>
+  </si>
+  <si>
+    <t>Static Code Analysis Tool</t>
+  </si>
+  <si>
+    <t>Process and Methodology</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Heavyweight</t>
+  </si>
+  <si>
+    <t>Process Model</t>
+  </si>
+  <si>
+    <t>Metamodel</t>
+  </si>
+  <si>
+    <t>Agile Software Development</t>
+  </si>
+  <si>
+    <t>Extreme Programming</t>
+  </si>
+  <si>
+    <t>Lean Software Development</t>
+  </si>
+  <si>
+    <t>Rapid Application Development</t>
+  </si>
+  <si>
+    <t>Rational Unified Process</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>Cleanroom</t>
+  </si>
+  <si>
+    <t>ISO/IEC 12207</t>
+  </si>
+  <si>
+    <t>ISO 9000</t>
+  </si>
+  <si>
+    <t>ISO 9001</t>
+  </si>
+  <si>
+    <t>CMM</t>
+  </si>
+  <si>
+    <t>CMMI/SCAMPI</t>
+  </si>
+  <si>
+    <t>ISO 15504</t>
+  </si>
+  <si>
+    <t>ISO/IEC 24744</t>
+  </si>
+  <si>
+    <t>SPEM</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>BREW</t>
+  </si>
+  <si>
+    <t>Cray Supercomputer</t>
+  </si>
+  <si>
+    <t>DEC Minicomputer</t>
+  </si>
+  <si>
+    <t>IBM Mainframe</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Classis Mac OS</t>
+  </si>
+  <si>
+    <t>macOS</t>
+  </si>
+  <si>
+    <t>Microsoft .NET</t>
+  </si>
+  <si>
+    <t>Palm PDA</t>
+  </si>
+  <si>
+    <t>Sun Microsystems Solaris</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Symbian OS</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Parsing</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>NP Completeness</t>
+  </si>
+  <si>
+    <t>Number Representation</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Induction</t>
+  </si>
+  <si>
+    <t>Aeronautical Engineering</t>
+  </si>
+  <si>
+    <t>Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>Agricultural Science</t>
+  </si>
+  <si>
+    <t>Agricultural Engineering</t>
+  </si>
+  <si>
+    <t>Applied Engineering</t>
+  </si>
+  <si>
+    <t>Biomedical Engineering</t>
+  </si>
+  <si>
+    <t>Bioengineering</t>
+  </si>
+  <si>
+    <t>Engineering Technology</t>
+  </si>
+  <si>
+    <t>Industrial Engineering</t>
+  </si>
+  <si>
+    <t>Control Engineering</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineering</t>
+  </si>
+  <si>
+    <t>Ceramic Engineering</t>
+  </si>
+  <si>
+    <t>Language Engineering</t>
+  </si>
+  <si>
+    <t>Marine Engineering</t>
+  </si>
+  <si>
+    <t>Materials Science</t>
+  </si>
+  <si>
+    <t>Materials Engineering</t>
+  </si>
+  <si>
+    <t>Mining Engineering</t>
+  </si>
+  <si>
+    <t>Nuclear Engineering</t>
+  </si>
+  <si>
+    <t>Polymer Engineering</t>
+  </si>
+  <si>
+    <t>Engineering Physics</t>
+  </si>
+  <si>
+    <t>Security Engineering</t>
+  </si>
+  <si>
+    <t>Systems Engineering</t>
+  </si>
+  <si>
+    <t>Environmental Technology</t>
+  </si>
+  <si>
+    <t>Fisheries Science</t>
+  </si>
+  <si>
+    <t>Forensic Science</t>
+  </si>
+  <si>
+    <t>Health Science</t>
+  </si>
+  <si>
+    <t>Conservation Medicine</t>
+  </si>
+  <si>
+    <t>Dentistry</t>
+  </si>
+  <si>
+    <t>Optometry</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>Dermatology</t>
+  </si>
+  <si>
+    <t>Human Anatomy</t>
+  </si>
+  <si>
+    <t>Cardiology</t>
+  </si>
+  <si>
+    <t>Endocrinology</t>
+  </si>
+  <si>
+    <t>Gastroenterology</t>
+  </si>
+  <si>
+    <t>Gynecology</t>
+  </si>
+  <si>
+    <t>Immunology</t>
+  </si>
+  <si>
+    <t>Internal Medicine</t>
+  </si>
+  <si>
+    <t>Neurology</t>
+  </si>
+  <si>
+    <t>Ophthalmology</t>
+  </si>
+  <si>
+    <t>Pathology</t>
+  </si>
+  <si>
+    <t>Pathophysiology</t>
+  </si>
+  <si>
+    <t>Pediatrics</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Physiology</t>
+  </si>
+  <si>
+    <t>Psychiatry</t>
+  </si>
+  <si>
+    <t>Radiology</t>
+  </si>
+  <si>
+    <t>Toxicology</t>
+  </si>
+  <si>
+    <t>Urology</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>Pharmacology</t>
+  </si>
+  <si>
+    <t>Physical Therapy</t>
+  </si>
+  <si>
+    <t>Verterinary Medicine</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Outline of Management</t>
+  </si>
+  <si>
+    <t>Organizational Behaviour</t>
+  </si>
+  <si>
+    <t>Microtechnology</t>
+  </si>
+  <si>
+    <t>Military Science</t>
+  </si>
+  <si>
+    <t>Military Organization</t>
+  </si>
+  <si>
+    <t>Military Education</t>
+  </si>
+  <si>
+    <t>Military Training</t>
+  </si>
+  <si>
+    <t>Military History</t>
+  </si>
+  <si>
+    <t>Military Engineering</t>
+  </si>
+  <si>
+    <t>Military Strategy and Tactics</t>
+  </si>
+  <si>
+    <t>Applied Physics</t>
+  </si>
+  <si>
+    <t>Nanotechnology</t>
+  </si>
+  <si>
+    <t>Nuclear Technology</t>
+  </si>
+  <si>
+    <t>Astronautics</t>
+  </si>
+  <si>
+    <t>Space Exploration</t>
+  </si>
+  <si>
+    <t>Geographyc Information System</t>
+  </si>
+  <si>
+    <t>Remote Sensing</t>
+  </si>
+  <si>
+    <t>Photogrammetry</t>
+  </si>
+  <si>
+    <t>Spatial Science</t>
+  </si>
+  <si>
+    <t>Astronautical Engineering</t>
+  </si>
+  <si>
+    <t>Biological Engineering</t>
+  </si>
+  <si>
+    <t>Bionics</t>
+  </si>
+  <si>
+    <t>Genetic Engineering</t>
+  </si>
+  <si>
+    <t>Metabolic Engineering</t>
+  </si>
+  <si>
+    <t>Neural Engineering</t>
+  </si>
+  <si>
+    <t>Tissue Engineering</t>
+  </si>
+  <si>
+    <t>Environmental Engineering</t>
+  </si>
+  <si>
+    <t>Construction Engineering</t>
+  </si>
+  <si>
+    <t>Geotechnical Engineering</t>
+  </si>
+  <si>
+    <t>Transportation Engineering</t>
+  </si>
+  <si>
+    <t>Hydro Engineering</t>
+  </si>
+  <si>
+    <t>Structural Engineering</t>
+  </si>
+  <si>
+    <t>Urban Engineering</t>
+  </si>
+  <si>
+    <t>Architectonics</t>
+  </si>
+  <si>
+    <t>Molecular Engineering</t>
+  </si>
+  <si>
+    <t>Process Engineering</t>
+  </si>
+  <si>
+    <t>Electromechanical Engineering</t>
+  </si>
+  <si>
+    <t>Broadcast Engineering</t>
+  </si>
+  <si>
+    <t>Power Systems Engineering</t>
+  </si>
+  <si>
+    <t>Telecommunications Engineering</t>
+  </si>
+  <si>
+    <t>Electronic Engineering</t>
+  </si>
+  <si>
+    <t>Optical Engineering</t>
+  </si>
+  <si>
+    <t>Mechatronics</t>
+  </si>
+  <si>
+    <t>Electromechanics</t>
+  </si>
+  <si>
+    <t>Instrumentaion Engineering</t>
+  </si>
+  <si>
+    <t>Engineering Psychology</t>
+  </si>
+  <si>
+    <t>Ergonomics</t>
+  </si>
+  <si>
+    <t>Facilities Engineering</t>
+  </si>
+  <si>
+    <t>Logistic Engineering</t>
+  </si>
+  <si>
+    <t>Performance Engineering</t>
+  </si>
+  <si>
+    <t>Quality Engineering</t>
+  </si>
+  <si>
+    <t>Reliability Engineering</t>
+  </si>
+  <si>
+    <t>Safety Engineering</t>
+  </si>
+  <si>
+    <t>Support Engineering</t>
+  </si>
+  <si>
+    <t>Information Engineering</t>
+  </si>
+  <si>
+    <t>Metallurgical Engineering</t>
+  </si>
+  <si>
+    <t>Surface Engineering</t>
+  </si>
+  <si>
+    <t>Biomaterials Engineering</t>
+  </si>
+  <si>
+    <t>Crystal Engineering</t>
+  </si>
+  <si>
+    <t>Amorphous Metals</t>
+  </si>
+  <si>
+    <t>Metal Forming</t>
+  </si>
+  <si>
+    <t>Plastics Engineering</t>
+  </si>
+  <si>
+    <t>Forensic Materials Engineering</t>
+  </si>
+  <si>
+    <t>Composite Materials</t>
+  </si>
+  <si>
+    <t>Casting</t>
+  </si>
+  <si>
+    <t>Electronic Materials</t>
+  </si>
+  <si>
+    <t>Nano Materials</t>
+  </si>
+  <si>
+    <t>Corrosion Engineering</t>
+  </si>
+  <si>
+    <t>Vitreous Materials</t>
+  </si>
+  <si>
+    <t>Welding</t>
+  </si>
+  <si>
+    <t>Accoustical Engineering</t>
+  </si>
+  <si>
+    <t>Automotive Engineering</t>
+  </si>
+  <si>
+    <t>Thermal Engineering</t>
+  </si>
+  <si>
+    <t>Naval Architecture</t>
+  </si>
+  <si>
+    <t>Sports Engineering</t>
+  </si>
+  <si>
+    <t>Vacuum Engineering</t>
+  </si>
+  <si>
+    <t>Combat Engineering</t>
+  </si>
+  <si>
+    <t>Military Technology Engineering</t>
+  </si>
+  <si>
+    <t>Radiation Engineering</t>
+  </si>
+  <si>
+    <t>Radiation Protection Engineering</t>
+  </si>
+  <si>
+    <t>Computer-Aided Engineering</t>
+  </si>
+  <si>
+    <t>Knowledge Engineering</t>
+  </si>
+  <si>
+    <t>Release Engineering</t>
+  </si>
+  <si>
+    <t>Teletraffic Engineering</t>
+  </si>
+  <si>
+    <t>Usability Engineering</t>
   </si>
 </sst>
 </file>
@@ -1886,6 +2540,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FCFD10E1-5310-7346-AC41-980E95A43B73}" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
   <autoFilter ref="A1:B21" xr:uid="{70E2AE85-8354-604E-A8F5-BA1E0909D1D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E2BA32DB-C5D4-364B-8EC2-1278FE2E2992}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{276300B7-266A-BF44-A483-E89287106A2D}" name="Parent"/>
@@ -1895,10 +2552,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EC86AD1-B64A-EF4A-9E30-4E59C5D34B29}" name="Table3" displayName="Table3" ref="A1:B118" totalsRowShown="0">
-  <autoFilter ref="A1:B118" xr:uid="{2DF645BF-484A-D846-BB3C-AFD56E1950FF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B59">
-    <sortCondition descending="1" ref="B1:B59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EC86AD1-B64A-EF4A-9E30-4E59C5D34B29}" name="Table3" displayName="Table3" ref="A1:B153" totalsRowShown="0">
+  <autoFilter ref="A1:B153" xr:uid="{2DF645BF-484A-D846-BB3C-AFD56E1950FF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B153">
+    <sortCondition ref="A1:A153"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2AA2FAB0-AD3A-B641-AC7D-3FF7D9ABD081}" name="Skill"/>
@@ -1909,8 +2566,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AACC3AF-1BAD-0B4B-B16F-9E786A7C24DC}" name="Table4" displayName="Table4" ref="A1:B324" totalsRowShown="0">
-  <autoFilter ref="A1:B324" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AACC3AF-1BAD-0B4B-B16F-9E786A7C24DC}" name="Table4" displayName="Table4" ref="A1:B459" totalsRowShown="0">
+  <autoFilter ref="A1:B459" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B459">
+    <sortCondition ref="A1:A459"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E5B03D87-BD59-E94A-B8BA-AB36D580F51F}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{640887D9-35F6-764D-9E29-B13140317AC3}" name="Parent"/>
@@ -1920,8 +2580,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A3B97A6F-4C61-DD4B-B0B8-F5AFEEC7C165}" name="Table46" displayName="Table46" ref="A1:B156" totalsRowShown="0">
-  <autoFilter ref="A1:B156" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A3B97A6F-4C61-DD4B-B0B8-F5AFEEC7C165}" name="Table46" displayName="Table46" ref="A1:B196" totalsRowShown="0">
+  <autoFilter ref="A1:B196" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B196">
+    <sortCondition ref="A1:A196"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{31BC01FB-33F9-5845-8B78-0840BB5A74A4}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{31885E73-7EB1-B440-A0BD-E0E35D261B38}" name="Parent"/>
@@ -1931,8 +2594,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56BC67FE-C62B-284D-8BD9-10F23DC21D08}" name="Table467" displayName="Table467" ref="A1:B27" totalsRowShown="0">
-  <autoFilter ref="A1:B27" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56BC67FE-C62B-284D-8BD9-10F23DC21D08}" name="Table467" displayName="Table467" ref="A1:B69" totalsRowShown="0">
+  <autoFilter ref="A1:B69" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B69">
+    <sortCondition ref="A1:A69"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{384FC172-2003-9A49-A229-7F98A05AFA92}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{0D593B12-CB54-4E47-AAD6-E9C9AA410536}" name="Parent"/>
@@ -2259,114 +2925,114 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2379,10 +3045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E440C-1904-894B-9323-83431D3F77DA}">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2400,130 +3066,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>676</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>678</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>679</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>740</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>444</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2536,7 +3202,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -2544,23 +3210,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>681</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -2568,7 +3234,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -2576,58 +3242,58 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>686</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2640,55 +3306,55 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>524</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>451</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>466</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>668</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>452</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>437</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -2696,39 +3362,39 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>433</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>464</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -2736,23 +3402,23 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>443</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>462</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2760,71 +3426,71 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>465</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -2832,10 +3498,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2843,100 +3509,100 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>766</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>694</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>682</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -2944,10 +3610,10 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -2960,23 +3626,23 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>251</v>
+        <v>699</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
@@ -2984,7 +3650,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -2992,15 +3658,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -3008,31 +3674,31 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>700</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -3040,23 +3706,23 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>294</v>
+        <v>683</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
@@ -3064,23 +3730,23 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>332</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>333</v>
+        <v>784</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
@@ -3088,7 +3754,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -3096,15 +3762,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>687</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>358</v>
+        <v>55</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
@@ -3112,15 +3778,15 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>401</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -3128,7 +3794,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>402</v>
+        <v>292</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -3136,7 +3802,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>403</v>
+        <v>293</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
@@ -3144,194 +3810,474 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>407</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>408</v>
+        <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>410</v>
+        <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>431</v>
+        <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>434</v>
+        <v>688</v>
       </c>
       <c r="B99" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>435</v>
+        <v>690</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>443</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>445</v>
+        <v>170</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>452</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>453</v>
+        <v>732</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>738</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>465</v>
+        <v>733</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>464</v>
+        <v>691</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>466</v>
+        <v>31</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>463</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>467</v>
+        <v>692</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>474</v>
+        <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>439</v>
+        <v>169</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>489</v>
+        <v>34</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>525</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>463</v>
+      </c>
+      <c r="B119" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>332</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>50</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>344</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>349</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>693</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>357</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>399</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>400</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>473</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>695</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>401</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>402</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>438</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>438</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>748</v>
+      </c>
+      <c r="B145" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>407</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>406</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>696</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>488</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3344,10 +4290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F7A090-657A-7848-AF08-37C999ED8681}">
-  <dimension ref="A1:B324"/>
+  <dimension ref="A1:B459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="B320" sqref="B320:B324"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3365,1322 +4311,1322 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>583</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>729</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>675</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>675</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>678</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>677</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>789</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>541</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>411</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>763</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>431</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>584</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>749</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>743</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>485</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>801</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>542</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>672</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>477</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>787</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>680</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>751</v>
       </c>
       <c r="B46" t="s">
-        <v>178</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>618</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>767</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>432</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>545</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>547</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>546</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>528</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>794</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>690</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>200</v>
+        <v>686</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>350</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>365</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>548</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>543</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>213</v>
+        <v>385</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>551</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>806</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>738</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>549</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>222</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>520</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>467</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>793</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>478</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>668</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>486</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>479</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>239</v>
+        <v>475</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>492</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>243</v>
+        <v>437</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>244</v>
+        <v>437</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>265</v>
+        <v>482</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>266</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>253</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>285</v>
+        <v>446</v>
       </c>
       <c r="B99" t="s">
-        <v>253</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>292</v>
+        <v>810</v>
       </c>
       <c r="B100" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>295</v>
+        <v>457</v>
       </c>
       <c r="B101" t="s">
-        <v>306</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>296</v>
+        <v>164</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>297</v>
+        <v>701</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>700</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>298</v>
+        <v>757</v>
       </c>
       <c r="B104" t="s">
-        <v>306</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>299</v>
+        <v>529</v>
       </c>
       <c r="B105" t="s">
-        <v>306</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>300</v>
+        <v>684</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>683</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>301</v>
+        <v>684</v>
       </c>
       <c r="B107" t="s">
-        <v>306</v>
+        <v>766</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>302</v>
+        <v>797</v>
       </c>
       <c r="B108" t="s">
-        <v>306</v>
+        <v>690</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>306</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="B110" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>305</v>
+        <v>132</v>
       </c>
       <c r="B111" t="s">
-        <v>306</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>309</v>
+        <v>788</v>
       </c>
       <c r="B112" t="s">
-        <v>306</v>
+        <v>690</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>310</v>
+        <v>199</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>306</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="B115" t="s">
-        <v>306</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>59</v>
       </c>
       <c r="B116" t="s">
-        <v>306</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>314</v>
+        <v>550</v>
       </c>
       <c r="B117" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="B118" t="s">
-        <v>306</v>
+        <v>462</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>316</v>
+        <v>502</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>317</v>
+        <v>552</v>
       </c>
       <c r="B120" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>318</v>
+        <v>205</v>
       </c>
       <c r="B121" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>319</v>
+        <v>702</v>
       </c>
       <c r="B122" t="s">
-        <v>306</v>
+        <v>700</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="B123" t="s">
-        <v>306</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>322</v>
+        <v>387</v>
       </c>
       <c r="B125" t="s">
-        <v>306</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B126" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>324</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="B128" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>326</v>
+        <v>440</v>
       </c>
       <c r="B129" t="s">
-        <v>306</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>327</v>
+        <v>458</v>
       </c>
       <c r="B130" t="s">
-        <v>306</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>328</v>
+        <v>534</v>
       </c>
       <c r="B131" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>329</v>
+        <v>553</v>
       </c>
       <c r="B132" t="s">
-        <v>306</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="B133" t="s">
-        <v>306</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
-        <v>306</v>
+        <v>53</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="B136" t="s">
-        <v>333</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>333</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>337</v>
+        <v>216</v>
       </c>
       <c r="B138" t="s">
-        <v>333</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>338</v>
+        <v>532</v>
       </c>
       <c r="B139" t="s">
-        <v>333</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="B140" t="s">
-        <v>333</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>554</v>
       </c>
       <c r="B141" t="s">
-        <v>333</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>340</v>
+        <v>157</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>341</v>
+        <v>773</v>
       </c>
       <c r="B143" t="s">
-        <v>333</v>
+        <v>766</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>342</v>
+        <v>770</v>
       </c>
       <c r="B144" t="s">
-        <v>333</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>343</v>
+        <v>795</v>
       </c>
       <c r="B145" t="s">
-        <v>333</v>
+        <v>690</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="B146" t="s">
-        <v>333</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>346</v>
+        <v>775</v>
       </c>
       <c r="B147" t="s">
-        <v>333</v>
+        <v>683</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>347</v>
+        <v>218</v>
       </c>
       <c r="B148" t="s">
-        <v>345</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>348</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
-        <v>345</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>349</v>
+        <v>756</v>
       </c>
       <c r="B150" t="s">
-        <v>345</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="B151" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B152" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>353</v>
+        <v>697</v>
       </c>
       <c r="B153" t="s">
-        <v>350</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="B154" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>354</v>
+        <v>776</v>
       </c>
       <c r="B155" t="s">
-        <v>350</v>
+        <v>683</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>241</v>
+        <v>555</v>
       </c>
       <c r="B156" t="s">
-        <v>350</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B157" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>356</v>
+        <v>181</v>
       </c>
       <c r="B158" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>357</v>
+        <v>182</v>
       </c>
       <c r="B159" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>358</v>
+        <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>350</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="B161" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="B162" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="B163" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>386</v>
+        <v>187</v>
       </c>
       <c r="B164" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="B165" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="B166" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4693,10 +5639,10 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="B168" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4709,71 +5655,71 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>390</v>
+        <v>557</v>
       </c>
       <c r="B170" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>371</v>
+        <v>777</v>
       </c>
       <c r="B171" t="s">
-        <v>41</v>
+        <v>683</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>391</v>
+        <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>392</v>
+        <v>221</v>
       </c>
       <c r="B173" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>393</v>
+        <v>698</v>
       </c>
       <c r="B174" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="B175" t="s">
-        <v>41</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>395</v>
+        <v>310</v>
       </c>
       <c r="B176" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>396</v>
+        <v>792</v>
       </c>
       <c r="B177" t="s">
-        <v>41</v>
+        <v>690</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B178" t="s">
         <v>41</v>
@@ -4781,343 +5727,343 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="B179" t="s">
-        <v>41</v>
+        <v>409</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>438</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>399</v>
+        <v>469</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>466</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>404</v>
+        <v>556</v>
       </c>
       <c r="B182" t="s">
-        <v>403</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>352</v>
       </c>
       <c r="B183" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="B184" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>406</v>
+        <v>752</v>
       </c>
       <c r="B185" t="s">
-        <v>403</v>
+        <v>750</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>409</v>
+        <v>745</v>
       </c>
       <c r="B186" t="s">
-        <v>403</v>
+        <v>748</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="B187" t="s">
-        <v>410</v>
+        <v>305</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="B188" t="s">
-        <v>410</v>
+        <v>80</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="B189" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>421</v>
+        <v>758</v>
       </c>
       <c r="B190" t="s">
-        <v>410</v>
+        <v>49</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>422</v>
+        <v>568</v>
       </c>
       <c r="B191" t="s">
-        <v>410</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>425</v>
+        <v>673</v>
       </c>
       <c r="B192" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B193" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>432</v>
+        <v>558</v>
       </c>
       <c r="B194" t="s">
-        <v>431</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>433</v>
+        <v>666</v>
       </c>
       <c r="B195" t="s">
-        <v>431</v>
+        <v>667</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>3</v>
+        <v>572</v>
       </c>
       <c r="B196" t="s">
-        <v>434</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>5</v>
+        <v>390</v>
       </c>
       <c r="B197" t="s">
-        <v>434</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>437</v>
+        <v>222</v>
       </c>
       <c r="B198" t="s">
-        <v>434</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>438</v>
+        <v>591</v>
       </c>
       <c r="B199" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>439</v>
+        <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>434</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="B201" t="s">
-        <v>443</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="B202" t="s">
-        <v>443</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B203" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>442</v>
+        <v>265</v>
       </c>
       <c r="B204" t="s">
-        <v>443</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>69</v>
+        <v>483</v>
       </c>
       <c r="B205" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="B206" t="s">
-        <v>443</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>446</v>
+        <v>760</v>
       </c>
       <c r="B207" t="s">
-        <v>451</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
       <c r="B208" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B209" t="s">
-        <v>451</v>
+        <v>56</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>26</v>
+        <v>674</v>
       </c>
       <c r="B210" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="B211" t="s">
-        <v>451</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>450</v>
+        <v>227</v>
       </c>
       <c r="B212" t="s">
-        <v>451</v>
+        <v>53</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
       <c r="B213" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>133</v>
+        <v>455</v>
       </c>
       <c r="B215" t="s">
-        <v>452</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="B216" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>455</v>
+        <v>229</v>
       </c>
       <c r="B217" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>456</v>
+        <v>774</v>
       </c>
       <c r="B218" t="s">
-        <v>57</v>
+        <v>766</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>457</v>
+        <v>228</v>
       </c>
       <c r="B219" t="s">
-        <v>464</v>
+        <v>53</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="B220" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="B221" t="s">
         <v>466</v>
@@ -5125,615 +6071,615 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>460</v>
+        <v>559</v>
       </c>
       <c r="B222" t="s">
-        <v>463</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>461</v>
+        <v>571</v>
       </c>
       <c r="B223" t="s">
-        <v>463</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>462</v>
+        <v>811</v>
       </c>
       <c r="B224" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>468</v>
+        <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>467</v>
+        <v>53</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>472</v>
+        <v>313</v>
       </c>
       <c r="B226" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>469</v>
+        <v>687</v>
       </c>
       <c r="B227" t="s">
-        <v>24</v>
+        <v>438</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>470</v>
+        <v>560</v>
       </c>
       <c r="B228" t="s">
-        <v>467</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>471</v>
+        <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>467</v>
+        <v>53</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>85</v>
+        <v>314</v>
       </c>
       <c r="B230" t="s">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B231" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>475</v>
+        <v>315</v>
       </c>
       <c r="B232" t="s">
-        <v>142</v>
+        <v>305</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
       <c r="B233" t="s">
-        <v>142</v>
+        <v>466</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>477</v>
+        <v>664</v>
       </c>
       <c r="B234" t="s">
-        <v>142</v>
+        <v>667</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>478</v>
+        <v>196</v>
       </c>
       <c r="B235" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B236" t="s">
-        <v>142</v>
+        <v>466</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>480</v>
+        <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>142</v>
+        <v>440</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>481</v>
+        <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>439</v>
+        <v>332</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>482</v>
+        <v>778</v>
       </c>
       <c r="B239" t="s">
-        <v>439</v>
+        <v>683</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>483</v>
+        <v>26</v>
       </c>
       <c r="B240" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>484</v>
+        <v>207</v>
       </c>
       <c r="B241" t="s">
-        <v>439</v>
+        <v>53</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>485</v>
+        <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>439</v>
+        <v>53</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>486</v>
+        <v>685</v>
       </c>
       <c r="B243" t="s">
-        <v>489</v>
+        <v>683</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>77</v>
+        <v>685</v>
       </c>
       <c r="B244" t="s">
-        <v>489</v>
+        <v>48</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>487</v>
+        <v>688</v>
       </c>
       <c r="B245" t="s">
-        <v>489</v>
+        <v>48</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>488</v>
+        <v>19</v>
       </c>
       <c r="B246" t="s">
-        <v>489</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>490</v>
+        <v>690</v>
       </c>
       <c r="B247" t="s">
-        <v>451</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>491</v>
+        <v>689</v>
       </c>
       <c r="B248" t="s">
-        <v>451</v>
+        <v>690</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>492</v>
+        <v>68</v>
       </c>
       <c r="B249" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>493</v>
+        <v>68</v>
       </c>
       <c r="B250" t="s">
-        <v>451</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>503</v>
+        <v>85</v>
       </c>
       <c r="B251" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>518</v>
+        <v>88</v>
       </c>
       <c r="B252" t="s">
-        <v>451</v>
+        <v>86</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>519</v>
+        <v>90</v>
       </c>
       <c r="B253" t="s">
-        <v>451</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>520</v>
+        <v>772</v>
       </c>
       <c r="B254" t="s">
-        <v>467</v>
+        <v>766</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>521</v>
+        <v>191</v>
       </c>
       <c r="B255" t="s">
-        <v>467</v>
+        <v>177</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>522</v>
+        <v>704</v>
       </c>
       <c r="B256" t="s">
-        <v>467</v>
+        <v>700</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>523</v>
+        <v>753</v>
       </c>
       <c r="B257" t="s">
-        <v>467</v>
+        <v>750</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>524</v>
+        <v>790</v>
       </c>
       <c r="B258" t="s">
-        <v>467</v>
+        <v>690</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>526</v>
+        <v>785</v>
       </c>
       <c r="B259" t="s">
-        <v>525</v>
+        <v>690</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>527</v>
+        <v>208</v>
       </c>
       <c r="B260" t="s">
-        <v>525</v>
+        <v>53</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>528</v>
+        <v>735</v>
       </c>
       <c r="B261" t="s">
-        <v>525</v>
+        <v>733</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B262" t="s">
-        <v>525</v>
+        <v>733</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>530</v>
+        <v>737</v>
       </c>
       <c r="B263" t="s">
-        <v>525</v>
+        <v>733</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>531</v>
+        <v>734</v>
       </c>
       <c r="B264" t="s">
-        <v>57</v>
+        <v>733</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>532</v>
+        <v>739</v>
       </c>
       <c r="B265" t="s">
-        <v>57</v>
+        <v>733</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>533</v>
+        <v>807</v>
       </c>
       <c r="B266" t="s">
-        <v>57</v>
+        <v>738</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>534</v>
+        <v>736</v>
       </c>
       <c r="B267" t="s">
-        <v>57</v>
+        <v>733</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="B268" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>536</v>
+        <v>73</v>
       </c>
       <c r="B269" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>537</v>
+        <v>764</v>
       </c>
       <c r="B270" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>538</v>
+        <v>162</v>
       </c>
       <c r="B271" t="s">
-        <v>451</v>
+        <v>50</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>541</v>
+        <v>233</v>
       </c>
       <c r="B272" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>542</v>
+        <v>316</v>
       </c>
       <c r="B273" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>543</v>
+        <v>393</v>
       </c>
       <c r="B274" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="B275" t="s">
-        <v>24</v>
+        <v>462</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>545</v>
+        <v>796</v>
       </c>
       <c r="B276" t="s">
-        <v>24</v>
+        <v>690</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>546</v>
+        <v>741</v>
       </c>
       <c r="B277" t="s">
-        <v>24</v>
+        <v>740</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>547</v>
+        <v>448</v>
       </c>
       <c r="B278" t="s">
-        <v>24</v>
+        <v>450</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>548</v>
+        <v>803</v>
       </c>
       <c r="B279" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>549</v>
+        <v>234</v>
       </c>
       <c r="B280" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>550</v>
+        <v>31</v>
       </c>
       <c r="B281" t="s">
-        <v>24</v>
+        <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>551</v>
+        <v>754</v>
       </c>
       <c r="B282" t="s">
-        <v>24</v>
+        <v>750</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>552</v>
+        <v>235</v>
       </c>
       <c r="B283" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>553</v>
+        <v>317</v>
       </c>
       <c r="B284" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>554</v>
+        <v>394</v>
       </c>
       <c r="B285" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="B286" t="s">
-        <v>24</v>
+        <v>462</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>556</v>
+        <v>669</v>
       </c>
       <c r="B287" t="s">
-        <v>24</v>
+        <v>668</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>557</v>
+        <v>166</v>
       </c>
       <c r="B288" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>558</v>
+        <v>742</v>
       </c>
       <c r="B289" t="s">
-        <v>24</v>
+        <v>740</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>559</v>
+        <v>670</v>
       </c>
       <c r="B290" t="s">
-        <v>24</v>
+        <v>440</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>560</v>
+        <v>81</v>
       </c>
       <c r="B291" t="s">
-        <v>24</v>
+        <v>442</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>561</v>
+        <v>81</v>
       </c>
       <c r="B292" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>562</v>
+        <v>136</v>
       </c>
       <c r="B293" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>563</v>
+        <v>136</v>
       </c>
       <c r="B294" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>564</v>
+        <v>725</v>
       </c>
       <c r="B295" t="s">
-        <v>24</v>
+        <v>700</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>565</v>
+        <v>39</v>
       </c>
       <c r="B296" t="s">
-        <v>24</v>
+        <v>700</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="B297" t="s">
-        <v>24</v>
+        <v>462</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B298" t="s">
         <v>24</v>
@@ -5741,119 +6687,119 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>568</v>
+        <v>453</v>
       </c>
       <c r="B299" t="s">
-        <v>24</v>
+        <v>452</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>569</v>
+        <v>34</v>
       </c>
       <c r="B300" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>570</v>
+        <v>87</v>
       </c>
       <c r="B301" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>571</v>
+        <v>771</v>
       </c>
       <c r="B302" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>572</v>
+        <v>163</v>
       </c>
       <c r="B303" t="s">
-        <v>24</v>
+        <v>740</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>573</v>
+        <v>163</v>
       </c>
       <c r="B304" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>574</v>
+        <v>703</v>
       </c>
       <c r="B305" t="s">
-        <v>24</v>
+        <v>700</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>575</v>
+        <v>731</v>
       </c>
       <c r="B306" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>576</v>
+        <v>330</v>
       </c>
       <c r="B307" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>577</v>
+        <v>730</v>
       </c>
       <c r="B308" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>578</v>
+        <v>291</v>
       </c>
       <c r="B309" t="s">
-        <v>24</v>
+        <v>290</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>579</v>
+        <v>456</v>
       </c>
       <c r="B310" t="s">
-        <v>24</v>
+        <v>463</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>580</v>
+        <v>519</v>
       </c>
       <c r="B311" t="s">
-        <v>24</v>
+        <v>466</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="B312" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="B313" t="s">
         <v>24</v>
@@ -5861,23 +6807,23 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>583</v>
+        <v>779</v>
       </c>
       <c r="B314" t="s">
-        <v>24</v>
+        <v>683</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>584</v>
+        <v>198</v>
       </c>
       <c r="B315" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="B316" t="s">
         <v>24</v>
@@ -5885,66 +6831,1146 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>586</v>
+        <v>429</v>
       </c>
       <c r="B317" t="s">
-        <v>24</v>
+        <v>409</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>587</v>
+        <v>395</v>
       </c>
       <c r="B318" t="s">
-        <v>439</v>
+        <v>41</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>592</v>
+        <v>726</v>
       </c>
       <c r="B319" t="s">
-        <v>463</v>
+        <v>700</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>593</v>
+        <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>463</v>
+        <v>305</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>567</v>
+        <v>345</v>
       </c>
       <c r="B321" t="s">
-        <v>463</v>
+        <v>332</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>594</v>
+        <v>334</v>
       </c>
       <c r="B322" t="s">
-        <v>463</v>
+        <v>332</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>595</v>
+        <v>343</v>
       </c>
       <c r="B323" t="s">
-        <v>463</v>
+        <v>332</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>596</v>
+        <v>339</v>
       </c>
       <c r="B324" t="s">
-        <v>463</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>340</v>
+      </c>
+      <c r="B325" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>335</v>
+      </c>
+      <c r="B326" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>319</v>
+      </c>
+      <c r="B327" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>320</v>
+      </c>
+      <c r="B328" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>747</v>
+      </c>
+      <c r="B329" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>158</v>
+      </c>
+      <c r="B330" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>564</v>
+      </c>
+      <c r="B331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>321</v>
+      </c>
+      <c r="B332" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>192</v>
+      </c>
+      <c r="B333" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>253</v>
+      </c>
+      <c r="B334" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>727</v>
+      </c>
+      <c r="B335" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>565</v>
+      </c>
+      <c r="B336" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>791</v>
+      </c>
+      <c r="B337" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>647</v>
+      </c>
+      <c r="B338" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>240</v>
+      </c>
+      <c r="B339" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>240</v>
+      </c>
+      <c r="B340" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>354</v>
+      </c>
+      <c r="B341" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>336</v>
+      </c>
+      <c r="B342" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>533</v>
+      </c>
+      <c r="B343" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>768</v>
+      </c>
+      <c r="B344" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>322</v>
+      </c>
+      <c r="B345" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>27</v>
+      </c>
+      <c r="B346" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>627</v>
+      </c>
+      <c r="B347" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>765</v>
+      </c>
+      <c r="B348" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>765</v>
+      </c>
+      <c r="B349" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>471</v>
+      </c>
+      <c r="B350" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>468</v>
+      </c>
+      <c r="B351" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>586</v>
+      </c>
+      <c r="B352" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>625</v>
+      </c>
+      <c r="B353" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>567</v>
+      </c>
+      <c r="B354" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>74</v>
+      </c>
+      <c r="B355" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>535</v>
+      </c>
+      <c r="B356" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>323</v>
+      </c>
+      <c r="B358" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>193</v>
+      </c>
+      <c r="B359" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>396</v>
+      </c>
+      <c r="B360" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>378</v>
+      </c>
+      <c r="B361" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>397</v>
+      </c>
+      <c r="B362" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>357</v>
+      </c>
+      <c r="B363" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>237</v>
+      </c>
+      <c r="B364" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>236</v>
+      </c>
+      <c r="B365" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>573</v>
+      </c>
+      <c r="B366" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>780</v>
+      </c>
+      <c r="B367" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>487</v>
+      </c>
+      <c r="B368" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>160</v>
+      </c>
+      <c r="B369" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>808</v>
+      </c>
+      <c r="B370" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>809</v>
+      </c>
+      <c r="B371" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>238</v>
+      </c>
+      <c r="B372" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>284</v>
+      </c>
+      <c r="B373" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>348</v>
+      </c>
+      <c r="B374" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>459</v>
+      </c>
+      <c r="B375" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>159</v>
+      </c>
+      <c r="B376" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>812</v>
+      </c>
+      <c r="B377" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>781</v>
+      </c>
+      <c r="B378" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>746</v>
+      </c>
+      <c r="B379" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>484</v>
+      </c>
+      <c r="B380" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>449</v>
+      </c>
+      <c r="B381" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>536</v>
+      </c>
+      <c r="B382" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>574</v>
+      </c>
+      <c r="B383" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>405</v>
+      </c>
+      <c r="B384" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>569</v>
+      </c>
+      <c r="B385" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>782</v>
+      </c>
+      <c r="B386" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>575</v>
+      </c>
+      <c r="B387" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>576</v>
+      </c>
+      <c r="B388" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>585</v>
+      </c>
+      <c r="B389" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>660</v>
+      </c>
+      <c r="B390" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>695</v>
+      </c>
+      <c r="B391" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>328</v>
+      </c>
+      <c r="B392" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>398</v>
+      </c>
+      <c r="B393" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>671</v>
+      </c>
+      <c r="B394" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>75</v>
+      </c>
+      <c r="B395" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>537</v>
+      </c>
+      <c r="B396" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>577</v>
+      </c>
+      <c r="B397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>341</v>
+      </c>
+      <c r="B398" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>241</v>
+      </c>
+      <c r="B399" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>324</v>
+      </c>
+      <c r="B400" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>447</v>
+      </c>
+      <c r="B401" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>438</v>
+      </c>
+      <c r="B402" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>58</v>
+      </c>
+      <c r="B403" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>661</v>
+      </c>
+      <c r="B404" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>744</v>
+      </c>
+      <c r="B405" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>531</v>
+      </c>
+      <c r="B406" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>298</v>
+      </c>
+      <c r="B407" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>325</v>
+      </c>
+      <c r="B408" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>804</v>
+      </c>
+      <c r="B409" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>566</v>
+      </c>
+      <c r="B410" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>566</v>
+      </c>
+      <c r="B411" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>491</v>
+      </c>
+      <c r="B412" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>156</v>
+      </c>
+      <c r="B413" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>28</v>
+      </c>
+      <c r="B414" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>761</v>
+      </c>
+      <c r="B415" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>460</v>
+      </c>
+      <c r="B416" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>326</v>
+      </c>
+      <c r="B417" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>783</v>
+      </c>
+      <c r="B418" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>786</v>
+      </c>
+      <c r="B419" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>408</v>
+      </c>
+      <c r="B420" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>570</v>
+      </c>
+      <c r="B421" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>69</v>
+      </c>
+      <c r="B422" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>489</v>
+      </c>
+      <c r="B423" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>474</v>
+      </c>
+      <c r="B424" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>70</v>
+      </c>
+      <c r="B425" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>327</v>
+      </c>
+      <c r="B426" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>579</v>
+      </c>
+      <c r="B427" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>578</v>
+      </c>
+      <c r="B428" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>769</v>
+      </c>
+      <c r="B429" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>813</v>
+      </c>
+      <c r="B430" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>802</v>
+      </c>
+      <c r="B431" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>155</v>
+      </c>
+      <c r="B432" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>755</v>
+      </c>
+      <c r="B433" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>83</v>
+      </c>
+      <c r="B434" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>242</v>
+      </c>
+      <c r="B435" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>759</v>
+      </c>
+      <c r="B436" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>665</v>
+      </c>
+      <c r="B437" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>470</v>
+      </c>
+      <c r="B438" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>762</v>
+      </c>
+      <c r="B439" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>347</v>
+      </c>
+      <c r="B440" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>404</v>
+      </c>
+      <c r="B441" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>814</v>
+      </c>
+      <c r="B442" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>805</v>
+      </c>
+      <c r="B443" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>580</v>
+      </c>
+      <c r="B444" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>728</v>
+      </c>
+      <c r="B445" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>581</v>
+      </c>
+      <c r="B446" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>517</v>
+      </c>
+      <c r="B447" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>518</v>
+      </c>
+      <c r="B448" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>197</v>
+      </c>
+      <c r="B449" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>582</v>
+      </c>
+      <c r="B450" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>798</v>
+      </c>
+      <c r="B451" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>527</v>
+      </c>
+      <c r="B452" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>356</v>
+      </c>
+      <c r="B453" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>799</v>
+      </c>
+      <c r="B454" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>239</v>
+      </c>
+      <c r="B455" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>329</v>
+      </c>
+      <c r="B456" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>593</v>
+      </c>
+      <c r="B457" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>617</v>
+      </c>
+      <c r="B458" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>194</v>
+      </c>
+      <c r="B459" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5957,10 +7983,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1E01E-01C2-7844-B628-8E09C0C92859}">
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B196"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5978,263 +8004,263 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>628</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>705</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>587</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>648</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>620</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>708</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>503</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>653</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>512</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>366</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -6242,111 +8268,111 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>597</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>649</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>414</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>513</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>650</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>647</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>706</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
@@ -6354,170 +8380,170 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>514</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="B57" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>256</v>
+        <v>621</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>625</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>257</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>259</v>
+        <v>709</v>
       </c>
       <c r="B61" t="s">
-        <v>254</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>515</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>261</v>
+        <v>516</v>
       </c>
       <c r="B65" t="s">
-        <v>254</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>264</v>
+        <v>498</v>
       </c>
       <c r="B68" t="s">
-        <v>254</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -6525,695 +8551,1015 @@
         <v>268</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>215</v>
+        <v>426</v>
       </c>
       <c r="B72" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="B74" t="s">
-        <v>266</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>272</v>
+        <v>588</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>415</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>274</v>
+        <v>710</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>704</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>282</v>
+        <v>711</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>704</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>283</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>307</v>
+        <v>629</v>
       </c>
       <c r="B88" t="s">
-        <v>303</v>
+        <v>627</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="B89" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>273</v>
+        <v>416</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
       <c r="B91" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="B93" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>361</v>
+        <v>651</v>
       </c>
       <c r="B94" t="s">
-        <v>358</v>
+        <v>647</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>365</v>
+        <v>454</v>
       </c>
       <c r="B95" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>366</v>
+        <v>454</v>
       </c>
       <c r="B96" t="s">
-        <v>364</v>
+        <v>537</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>367</v>
+        <v>712</v>
       </c>
       <c r="B97" t="s">
-        <v>364</v>
+        <v>704</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>369</v>
+        <v>148</v>
       </c>
       <c r="B99" t="s">
-        <v>364</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>370</v>
+        <v>495</v>
       </c>
       <c r="B100" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>371</v>
+        <v>713</v>
       </c>
       <c r="B101" t="s">
-        <v>364</v>
+        <v>704</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B102" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>373</v>
+        <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>364</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>374</v>
+        <v>261</v>
       </c>
       <c r="B104" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="B105" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>376</v>
+        <v>504</v>
       </c>
       <c r="B106" t="s">
-        <v>364</v>
+        <v>448</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B107" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>378</v>
+        <v>652</v>
       </c>
       <c r="B108" t="s">
-        <v>364</v>
+        <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B109" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="B110" t="s">
-        <v>364</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>380</v>
+        <v>654</v>
       </c>
       <c r="B111" t="s">
-        <v>364</v>
+        <v>647</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="B112" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="B113" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>383</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
-        <v>364</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>413</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s">
-        <v>410</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>414</v>
+        <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>410</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="B117" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>416</v>
+        <v>631</v>
       </c>
       <c r="B118" t="s">
-        <v>420</v>
+        <v>627</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>417</v>
+        <v>170</v>
       </c>
       <c r="B119" t="s">
-        <v>420</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>418</v>
+        <v>655</v>
       </c>
       <c r="B120" t="s">
-        <v>420</v>
+        <v>647</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>419</v>
+        <v>275</v>
       </c>
       <c r="B121" t="s">
-        <v>420</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="B122" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>424</v>
+        <v>73</v>
       </c>
       <c r="B123" t="s">
-        <v>422</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="B124" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>428</v>
+        <v>505</v>
       </c>
       <c r="B125" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>473</v>
+        <v>714</v>
       </c>
       <c r="B126" t="s">
-        <v>472</v>
+        <v>704</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="B127" t="s">
-        <v>493</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>495</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>493</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="B129" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="B130" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="B131" t="s">
-        <v>447</v>
+        <v>586</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>498</v>
+        <v>376</v>
       </c>
       <c r="B132" t="s">
-        <v>447</v>
+        <v>363</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>499</v>
+        <v>169</v>
       </c>
       <c r="B133" t="s">
-        <v>447</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="B134" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>505</v>
+        <v>715</v>
       </c>
       <c r="B135" t="s">
-        <v>449</v>
+        <v>704</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B136" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>507</v>
+        <v>110</v>
       </c>
       <c r="B137" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>508</v>
+        <v>262</v>
       </c>
       <c r="B138" t="s">
-        <v>449</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>509</v>
+        <v>656</v>
       </c>
       <c r="B139" t="s">
-        <v>449</v>
+        <v>647</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>510</v>
+        <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>449</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>511</v>
+        <v>377</v>
       </c>
       <c r="B141" t="s">
-        <v>449</v>
+        <v>363</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>512</v>
+        <v>716</v>
       </c>
       <c r="B142" t="s">
-        <v>450</v>
+        <v>704</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>513</v>
+        <v>717</v>
       </c>
       <c r="B143" t="s">
-        <v>450</v>
+        <v>704</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>514</v>
+        <v>718</v>
       </c>
       <c r="B144" t="s">
-        <v>450</v>
+        <v>704</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>515</v>
+        <v>719</v>
       </c>
       <c r="B145" t="s">
-        <v>450</v>
+        <v>704</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>516</v>
+        <v>720</v>
       </c>
       <c r="B146" t="s">
-        <v>450</v>
+        <v>704</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>517</v>
+        <v>272</v>
       </c>
       <c r="B147" t="s">
-        <v>450</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>455</v>
+        <v>272</v>
       </c>
       <c r="B148" t="s">
-        <v>538</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>539</v>
+        <v>354</v>
       </c>
       <c r="B149" t="s">
-        <v>538</v>
+        <v>363</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>540</v>
+        <v>113</v>
       </c>
       <c r="B150" t="s">
-        <v>538</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>500</v>
+        <v>277</v>
       </c>
       <c r="B151" t="s">
-        <v>538</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>473</v>
+        <v>72</v>
       </c>
       <c r="B152" t="s">
-        <v>587</v>
+        <v>70</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>588</v>
+        <v>134</v>
       </c>
       <c r="B153" t="s">
-        <v>587</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="B154" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>590</v>
+        <v>74</v>
       </c>
       <c r="B155" t="s">
-        <v>587</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>591</v>
+        <v>71</v>
       </c>
       <c r="B156" t="s">
-        <v>587</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>721</v>
+      </c>
+      <c r="B157" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>364</v>
+      </c>
+      <c r="B158" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>378</v>
+      </c>
+      <c r="B159" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>42</v>
+      </c>
+      <c r="B160" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>358</v>
+      </c>
+      <c r="B161" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>509</v>
+      </c>
+      <c r="B162" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>722</v>
+      </c>
+      <c r="B163" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>115</v>
+      </c>
+      <c r="B164" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>590</v>
+      </c>
+      <c r="B165" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>379</v>
+      </c>
+      <c r="B166" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>510</v>
+      </c>
+      <c r="B167" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>418</v>
+      </c>
+      <c r="B168" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>75</v>
+      </c>
+      <c r="B169" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>75</v>
+      </c>
+      <c r="B170" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>423</v>
+      </c>
+      <c r="B171" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>278</v>
+      </c>
+      <c r="B172" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>223</v>
+      </c>
+      <c r="B173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>259</v>
+      </c>
+      <c r="B174" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>598</v>
+      </c>
+      <c r="B175" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>494</v>
+      </c>
+      <c r="B176" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>538</v>
+      </c>
+      <c r="B177" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>493</v>
+      </c>
+      <c r="B178" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>380</v>
+      </c>
+      <c r="B179" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>626</v>
+      </c>
+      <c r="B180" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>508</v>
+      </c>
+      <c r="B181" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>276</v>
+      </c>
+      <c r="B182" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>589</v>
+      </c>
+      <c r="B183" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>657</v>
+      </c>
+      <c r="B184" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>659</v>
+      </c>
+      <c r="B185" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>70</v>
+      </c>
+      <c r="B186" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>381</v>
+      </c>
+      <c r="B187" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>539</v>
+      </c>
+      <c r="B188" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>271</v>
+      </c>
+      <c r="B189" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>282</v>
+      </c>
+      <c r="B190" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>723</v>
+      </c>
+      <c r="B191" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>104</v>
+      </c>
+      <c r="B193" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>283</v>
+      </c>
+      <c r="B194" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>724</v>
+      </c>
+      <c r="B195" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>658</v>
+      </c>
+      <c r="B196" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -7226,10 +9572,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE85406E-B187-E14D-8DA8-2AAAAED9B666}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7247,98 +9593,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>632</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>610</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>501</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>618</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>609</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>611</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>638</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>642</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>643</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -7346,111 +9692,447 @@
         <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>596</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>633</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>614</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>600</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>603</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>429</v>
+        <v>615</v>
       </c>
       <c r="B24" t="s">
-        <v>428</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>501</v>
+        <v>707</v>
       </c>
       <c r="B26" t="s">
-        <v>498</v>
+        <v>705</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="B27" t="s">
-        <v>498</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>622</v>
+      </c>
+      <c r="B29" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>644</v>
+      </c>
+      <c r="B31" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>640</v>
+      </c>
+      <c r="B32" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>641</v>
+      </c>
+      <c r="B33" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>639</v>
+      </c>
+      <c r="B34" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>645</v>
+      </c>
+      <c r="B35" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>634</v>
+      </c>
+      <c r="B36" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>604</v>
+      </c>
+      <c r="B37" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>607</v>
+      </c>
+      <c r="B38" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>613</v>
+      </c>
+      <c r="B40" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>601</v>
+      </c>
+      <c r="B41" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>612</v>
+      </c>
+      <c r="B43" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>500</v>
+      </c>
+      <c r="B48" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>608</v>
+      </c>
+      <c r="B51" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>635</v>
+      </c>
+      <c r="B52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>636</v>
+      </c>
+      <c r="B53" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>602</v>
+      </c>
+      <c r="B54" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>637</v>
+      </c>
+      <c r="B57" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>646</v>
+      </c>
+      <c r="B58" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>599</v>
+      </c>
+      <c r="B61" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>605</v>
+      </c>
+      <c r="B62" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>605</v>
+      </c>
+      <c r="B63" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>623</v>
+      </c>
+      <c r="B64" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>616</v>
+      </c>
+      <c r="B65" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>606</v>
+      </c>
+      <c r="B66" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>606</v>
+      </c>
+      <c r="B67" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>624</v>
+      </c>
+      <c r="B68" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>617</v>
+      </c>
+      <c r="B69" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC3B1E0-DCDB-0743-85A8-7EA9EBEE6A8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B679C5F5-2B61-B345-B355-1778A5881402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="13860" yWindow="460" windowWidth="14940" windowHeight="16220" activeTab="3" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Parent 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="808">
   <si>
     <t>Skill</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>Algorithms</t>
-  </si>
-  <si>
     <t>Computer Security</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>Complex Analysis</t>
   </si>
   <si>
-    <t>Analytical Number Theory</t>
-  </si>
-  <si>
     <t>Abstract Algebra</t>
   </si>
   <si>
@@ -919,9 +913,6 @@
     <t>Library Science</t>
   </si>
   <si>
-    <t>Lingustics</t>
-  </si>
-  <si>
     <t>Anthropolocial Linguistics</t>
   </si>
   <si>
@@ -1120,9 +1111,6 @@
     <t>Local Government Studies</t>
   </si>
   <si>
-    <t>Internation Politics</t>
-  </si>
-  <si>
     <t>International Relations Theory</t>
   </si>
   <si>
@@ -1315,9 +1303,6 @@
     <t>Horticulture</t>
   </si>
   <si>
-    <t>Holticulture</t>
-  </si>
-  <si>
     <t>Floriculture</t>
   </si>
   <si>
@@ -1367,12 +1352,6 @@
   </si>
   <si>
     <t>Mathematical Foundations</t>
-  </si>
-  <si>
-    <t>Data Structures</t>
-  </si>
-  <si>
-    <t>Artifical Intelligance</t>
   </si>
   <si>
     <t>Automated Reasoning</t>
@@ -2566,10 +2545,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AACC3AF-1BAD-0B4B-B16F-9E786A7C24DC}" name="Table4" displayName="Table4" ref="A1:B459" totalsRowShown="0">
-  <autoFilter ref="A1:B459" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B459">
-    <sortCondition ref="A1:A459"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AACC3AF-1BAD-0B4B-B16F-9E786A7C24DC}" name="Table4" displayName="Table4" ref="A1:B461" totalsRowShown="0">
+  <autoFilter ref="A1:B461" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B460">
+    <sortCondition ref="A1:A460"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E5B03D87-BD59-E94A-B8BA-AB36D580F51F}" name="Skill"/>
@@ -2580,10 +2559,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A3B97A6F-4C61-DD4B-B0B8-F5AFEEC7C165}" name="Table46" displayName="Table46" ref="A1:B196" totalsRowShown="0">
-  <autoFilter ref="A1:B196" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B196">
-    <sortCondition ref="A1:A196"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A3B97A6F-4C61-DD4B-B0B8-F5AFEEC7C165}" name="Table46" displayName="Table46" ref="A1:B198" totalsRowShown="0">
+  <autoFilter ref="A1:B198" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B198">
+    <sortCondition ref="A1:A198"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{31BC01FB-33F9-5845-8B78-0840BB5A74A4}" name="Skill"/>
@@ -2597,7 +2576,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56BC67FE-C62B-284D-8BD9-10F23DC21D08}" name="Table467" displayName="Table467" ref="A1:B69" totalsRowShown="0">
   <autoFilter ref="A1:B69" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B69">
-    <sortCondition ref="A1:A69"/>
+    <sortCondition ref="B1:B69"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{384FC172-2003-9A49-A229-7F98A05AFA92}" name="Skill"/>
@@ -2925,12 +2904,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2950,7 +2929,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2960,7 +2939,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2978,7 +2957,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2993,7 +2972,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3001,7 +2980,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3011,17 +2990,17 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -3029,7 +3008,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -3048,7 +3027,7 @@
   <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3066,7 +3045,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3074,7 +3053,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3082,7 +3061,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3090,15 +3069,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -3106,7 +3085,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3114,7 +3093,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -3122,7 +3101,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3130,23 +3109,23 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -3154,23 +3133,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -3178,7 +3157,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -3186,7 +3165,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -3194,7 +3173,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -3202,7 +3181,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -3210,7 +3189,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -3218,7 +3197,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -3226,7 +3205,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -3234,7 +3213,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -3266,7 +3245,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -3274,7 +3253,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -3282,7 +3261,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -3290,7 +3269,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -3298,7 +3277,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -3306,7 +3285,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -3314,7 +3293,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -3322,7 +3301,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -3330,7 +3309,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -3338,7 +3317,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -3346,7 +3325,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -3354,7 +3333,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -3362,7 +3341,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -3370,15 +3349,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -3386,7 +3365,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -3394,7 +3373,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -3402,7 +3381,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -3410,7 +3389,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>443</v>
+        <v>660</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -3418,7 +3397,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -3426,7 +3405,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -3434,15 +3413,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -3450,7 +3429,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -3458,7 +3437,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -3466,7 +3445,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -3474,7 +3453,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -3482,7 +3461,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -3490,7 +3469,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -3498,7 +3477,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
@@ -3506,15 +3485,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -3522,7 +3501,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -3530,7 +3509,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -3538,18 +3517,18 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -3557,12 +3536,12 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -3570,7 +3549,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -3586,15 +3565,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -3602,7 +3581,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -3618,7 +3597,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -3626,15 +3605,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
@@ -3642,7 +3621,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
@@ -3650,7 +3629,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -3658,7 +3637,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -3666,7 +3645,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -3674,7 +3653,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -3682,15 +3661,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -3698,7 +3677,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -3706,7 +3685,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -3714,7 +3693,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -3722,7 +3701,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
@@ -3730,7 +3709,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
@@ -3738,7 +3717,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -3746,7 +3725,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
@@ -3754,7 +3733,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -3762,7 +3741,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -3770,7 +3749,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
@@ -3786,7 +3765,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -3794,7 +3773,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -3802,7 +3781,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
@@ -3810,7 +3789,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
@@ -3821,7 +3800,7 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -3842,7 +3821,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -3858,7 +3837,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -3866,7 +3845,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -3874,7 +3853,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
@@ -3882,7 +3861,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -3890,7 +3869,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
@@ -3898,7 +3877,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -3906,7 +3885,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -3914,15 +3893,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -3930,15 +3909,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -3946,7 +3925,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -3954,15 +3933,15 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -3970,7 +3949,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3978,7 +3957,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -3986,7 +3965,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -3994,7 +3973,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -4002,7 +3981,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -4010,7 +3989,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -4018,7 +3997,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -4026,7 +4005,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4034,7 +4013,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -4042,7 +4021,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -4050,7 +4029,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
@@ -4058,7 +4037,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
@@ -4066,7 +4045,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -4074,7 +4053,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -4082,7 +4061,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -4090,7 +4069,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -4098,7 +4077,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -4106,7 +4085,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -4114,7 +4093,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
@@ -4122,7 +4101,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -4130,7 +4109,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -4138,7 +4117,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -4146,7 +4125,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -4154,7 +4133,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
@@ -4162,7 +4141,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
@@ -4170,7 +4149,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -4178,7 +4157,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -4186,7 +4165,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -4194,15 +4173,15 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -4210,15 +4189,15 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B145" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B146" t="s">
         <v>4</v>
@@ -4226,7 +4205,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -4234,7 +4213,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -4242,7 +4221,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
@@ -4250,7 +4229,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
@@ -4258,7 +4237,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -4266,7 +4245,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -4274,7 +4253,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
@@ -4290,10 +4269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F7A090-657A-7848-AF08-37C999ED8681}">
-  <dimension ref="A1:B459"/>
+  <dimension ref="A1:B461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A367" sqref="A367"/>
+    <sheetView topLeftCell="A303" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4311,15 +4290,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -4327,378 +4306,378 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B6" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B9" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B10" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B14" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B27" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B30" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B34" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B35" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B44" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B45" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B46" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B48" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B50" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -4711,207 +4690,207 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B55" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B57" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B58" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B61" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B65" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B66" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B69" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B73" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B75" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
@@ -4919,154 +4898,154 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B78" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B79" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B80" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B87" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B92" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B93" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B96" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -5074,244 +5053,244 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B99" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B100" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>450</v>
+      </c>
+      <c r="B101" t="s">
         <v>457</v>
-      </c>
-      <c r="B101" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B103" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B105" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B106" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B107" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B108" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B112" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B118" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B121" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B122" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>299</v>
+      </c>
+      <c r="B124" t="s">
         <v>302</v>
-      </c>
-      <c r="B124" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B126" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B127" t="s">
         <v>19</v>
@@ -5319,354 +5298,354 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B129" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>451</v>
+      </c>
+      <c r="B130" t="s">
         <v>458</v>
-      </c>
-      <c r="B130" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B133" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B143" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B145" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B147" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B151" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B152" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B154" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B155" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B157" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B159" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B160" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B161" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B162" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B163" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B164" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B166" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B171" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -5679,330 +5658,330 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B175" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B176" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B177" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B179" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B180" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B181" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B183" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B184" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B185" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B186" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B187" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>78</v>
+      </c>
+      <c r="B188" t="s">
         <v>79</v>
-      </c>
-      <c r="B188" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B189" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B192" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B193" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B195" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B198" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B199" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B201" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B202" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B203" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B204" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B205" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B208" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B210" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B213" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -6010,183 +5989,183 @@
         <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B216" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B217" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B218" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B219" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B220" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B221" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B224" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B226" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B227" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B228" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B230" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B231" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B232" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B233" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B234" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B235" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B236" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -6194,7 +6173,7 @@
         <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -6202,63 +6181,63 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B239" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B240" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B241" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B242" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B243" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B244" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B245" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -6271,1706 +6250,1722 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B247" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B248" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B249" t="s">
-        <v>442</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B250" t="s">
-        <v>80</v>
+        <v>437</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B251" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B252" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B253" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>772</v>
+        <v>89</v>
       </c>
       <c r="B254" t="s">
-        <v>766</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>191</v>
+        <v>765</v>
       </c>
       <c r="B255" t="s">
-        <v>177</v>
+        <v>759</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>704</v>
+        <v>189</v>
       </c>
       <c r="B256" t="s">
-        <v>700</v>
+        <v>175</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>753</v>
+        <v>697</v>
       </c>
       <c r="B257" t="s">
-        <v>750</v>
+        <v>693</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="B258" t="s">
-        <v>690</v>
+        <v>743</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B259" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>208</v>
+        <v>778</v>
       </c>
       <c r="B260" t="s">
-        <v>53</v>
+        <v>683</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>735</v>
+        <v>206</v>
       </c>
       <c r="B261" t="s">
-        <v>733</v>
+        <v>52</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B262" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B263" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B264" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="B265" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>807</v>
+        <v>732</v>
       </c>
       <c r="B266" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>736</v>
+        <v>800</v>
       </c>
       <c r="B267" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>561</v>
+        <v>729</v>
       </c>
       <c r="B268" t="s">
-        <v>24</v>
+        <v>726</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>73</v>
+        <v>554</v>
       </c>
       <c r="B269" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>764</v>
+        <v>72</v>
       </c>
       <c r="B270" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>162</v>
+        <v>757</v>
       </c>
       <c r="B271" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="B272" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="B273" t="s">
-        <v>305</v>
+        <v>52</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="B274" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>594</v>
+        <v>389</v>
       </c>
       <c r="B275" t="s">
-        <v>462</v>
+        <v>40</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>796</v>
+        <v>587</v>
       </c>
       <c r="B276" t="s">
-        <v>690</v>
+        <v>455</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="B277" t="s">
-        <v>740</v>
+        <v>683</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>448</v>
+        <v>734</v>
       </c>
       <c r="B278" t="s">
-        <v>450</v>
+        <v>733</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>803</v>
+        <v>441</v>
       </c>
       <c r="B279" t="s">
-        <v>48</v>
+        <v>443</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>234</v>
+        <v>796</v>
       </c>
       <c r="B280" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="B281" t="s">
-        <v>451</v>
+        <v>52</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>754</v>
+        <v>30</v>
       </c>
       <c r="B282" t="s">
-        <v>750</v>
+        <v>444</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>235</v>
+        <v>747</v>
       </c>
       <c r="B283" t="s">
-        <v>53</v>
+        <v>743</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="B284" t="s">
-        <v>305</v>
+        <v>52</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="B285" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>595</v>
+        <v>390</v>
       </c>
       <c r="B286" t="s">
-        <v>462</v>
+        <v>40</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>669</v>
+        <v>588</v>
       </c>
       <c r="B287" t="s">
-        <v>668</v>
+        <v>455</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>166</v>
+        <v>662</v>
       </c>
       <c r="B288" t="s">
-        <v>50</v>
+        <v>661</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>742</v>
+        <v>164</v>
       </c>
       <c r="B289" t="s">
-        <v>740</v>
+        <v>49</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>670</v>
+        <v>735</v>
       </c>
       <c r="B290" t="s">
-        <v>440</v>
+        <v>733</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>81</v>
+        <v>663</v>
       </c>
       <c r="B291" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B292" t="s">
-        <v>80</v>
+        <v>437</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B293" t="s">
-        <v>663</v>
+        <v>79</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B294" t="s">
-        <v>141</v>
+        <v>656</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>725</v>
+        <v>134</v>
       </c>
       <c r="B295" t="s">
-        <v>700</v>
+        <v>139</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>39</v>
+        <v>718</v>
       </c>
       <c r="B296" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>592</v>
+        <v>38</v>
       </c>
       <c r="B297" t="s">
-        <v>462</v>
+        <v>693</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="B298" t="s">
-        <v>24</v>
+        <v>455</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>453</v>
+        <v>555</v>
       </c>
       <c r="B299" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>34</v>
+        <v>446</v>
       </c>
       <c r="B300" t="s">
-        <v>18</v>
+        <v>445</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B301" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>771</v>
+        <v>86</v>
       </c>
       <c r="B302" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>163</v>
+        <v>764</v>
       </c>
       <c r="B303" t="s">
-        <v>740</v>
+        <v>43</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B304" t="s">
-        <v>50</v>
+        <v>733</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>703</v>
+        <v>161</v>
       </c>
       <c r="B305" t="s">
-        <v>700</v>
+        <v>49</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="B306" t="s">
-        <v>18</v>
+        <v>693</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>330</v>
+        <v>724</v>
       </c>
       <c r="B307" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>730</v>
+        <v>327</v>
       </c>
       <c r="B308" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>291</v>
+        <v>723</v>
       </c>
       <c r="B309" t="s">
-        <v>290</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>456</v>
+        <v>289</v>
       </c>
       <c r="B310" t="s">
-        <v>463</v>
+        <v>288</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>519</v>
+        <v>449</v>
       </c>
       <c r="B311" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>662</v>
+        <v>512</v>
       </c>
       <c r="B312" t="s">
-        <v>663</v>
+        <v>459</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>544</v>
+        <v>655</v>
       </c>
       <c r="B313" t="s">
-        <v>24</v>
+        <v>656</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>779</v>
+        <v>537</v>
       </c>
       <c r="B314" t="s">
-        <v>683</v>
+        <v>23</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>198</v>
+        <v>772</v>
       </c>
       <c r="B315" t="s">
-        <v>62</v>
+        <v>676</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>563</v>
+        <v>196</v>
       </c>
       <c r="B316" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>429</v>
+        <v>556</v>
       </c>
       <c r="B317" t="s">
-        <v>409</v>
+        <v>23</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="B318" t="s">
-        <v>41</v>
+        <v>405</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>726</v>
+        <v>391</v>
       </c>
       <c r="B319" t="s">
-        <v>700</v>
+        <v>40</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>318</v>
+        <v>719</v>
       </c>
       <c r="B320" t="s">
-        <v>305</v>
+        <v>693</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="B321" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B322" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B323" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B324" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B325" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B326" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B327" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B328" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>747</v>
+        <v>317</v>
       </c>
       <c r="B329" t="s">
-        <v>748</v>
+        <v>302</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>158</v>
+        <v>740</v>
       </c>
       <c r="B330" t="s">
-        <v>50</v>
+        <v>741</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>564</v>
+        <v>156</v>
       </c>
       <c r="B331" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>321</v>
+        <v>557</v>
       </c>
       <c r="B332" t="s">
-        <v>305</v>
+        <v>23</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="B333" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="B334" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>727</v>
+        <v>251</v>
       </c>
       <c r="B335" t="s">
-        <v>700</v>
+        <v>250</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>565</v>
+        <v>720</v>
       </c>
       <c r="B336" t="s">
-        <v>24</v>
+        <v>693</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>791</v>
+        <v>558</v>
       </c>
       <c r="B337" t="s">
-        <v>690</v>
+        <v>23</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>647</v>
+        <v>784</v>
       </c>
       <c r="B338" t="s">
-        <v>438</v>
+        <v>683</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="B339" t="s">
-        <v>53</v>
+        <v>433</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B340" t="s">
-        <v>349</v>
+        <v>52</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="B341" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="B342" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="B343" t="s">
-        <v>56</v>
+        <v>329</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>768</v>
+        <v>526</v>
       </c>
       <c r="B344" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>322</v>
+        <v>761</v>
       </c>
       <c r="B345" t="s">
-        <v>305</v>
+        <v>43</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="B346" t="s">
-        <v>86</v>
+        <v>302</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>627</v>
+        <v>26</v>
       </c>
       <c r="B347" t="s">
-        <v>438</v>
+        <v>85</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>765</v>
+        <v>620</v>
       </c>
       <c r="B348" t="s">
-        <v>47</v>
+        <v>433</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B349" t="s">
-        <v>683</v>
+        <v>46</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>471</v>
+        <v>758</v>
       </c>
       <c r="B350" t="s">
-        <v>24</v>
+        <v>676</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B351" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>586</v>
+        <v>461</v>
       </c>
       <c r="B352" t="s">
-        <v>438</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>625</v>
+        <v>579</v>
       </c>
       <c r="B353" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="B354" t="s">
-        <v>24</v>
+        <v>433</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>74</v>
+        <v>560</v>
       </c>
       <c r="B355" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>535</v>
+        <v>73</v>
       </c>
       <c r="B356" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>355</v>
+        <v>528</v>
       </c>
       <c r="B357" t="s">
-        <v>349</v>
+        <v>30</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="B358" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>193</v>
+        <v>320</v>
       </c>
       <c r="B359" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>396</v>
+        <v>191</v>
       </c>
       <c r="B360" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B361" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="B362" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="B363" t="s">
-        <v>349</v>
+        <v>40</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>237</v>
+        <v>354</v>
       </c>
       <c r="B364" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B365" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>573</v>
+        <v>234</v>
       </c>
       <c r="B366" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>780</v>
+        <v>566</v>
       </c>
       <c r="B367" t="s">
-        <v>683</v>
+        <v>23</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>487</v>
+        <v>773</v>
       </c>
       <c r="B368" t="s">
-        <v>488</v>
+        <v>676</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="B369" t="s">
-        <v>50</v>
+        <v>481</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>808</v>
+        <v>158</v>
       </c>
       <c r="B370" t="s">
-        <v>692</v>
+        <v>49</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B371" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>238</v>
+        <v>802</v>
       </c>
       <c r="B372" t="s">
-        <v>53</v>
+        <v>685</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="B373" t="s">
-        <v>252</v>
+        <v>52</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="B374" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>459</v>
+        <v>345</v>
       </c>
       <c r="B375" t="s">
-        <v>462</v>
+        <v>341</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>159</v>
+        <v>452</v>
       </c>
       <c r="B376" t="s">
-        <v>50</v>
+        <v>455</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>812</v>
+        <v>157</v>
       </c>
       <c r="B377" t="s">
-        <v>438</v>
+        <v>49</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="B378" t="s">
-        <v>683</v>
+        <v>433</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>746</v>
+        <v>774</v>
       </c>
       <c r="B379" t="s">
-        <v>748</v>
+        <v>676</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>484</v>
+        <v>739</v>
       </c>
       <c r="B380" t="s">
-        <v>438</v>
+        <v>741</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="B381" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>536</v>
+        <v>442</v>
       </c>
       <c r="B382" t="s">
-        <v>31</v>
+        <v>443</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
       <c r="B383" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>405</v>
+        <v>567</v>
       </c>
       <c r="B384" t="s">
-        <v>402</v>
+        <v>23</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>569</v>
+        <v>401</v>
       </c>
       <c r="B385" t="s">
-        <v>24</v>
+        <v>398</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>782</v>
+        <v>562</v>
       </c>
       <c r="B386" t="s">
-        <v>683</v>
+        <v>23</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="B387" t="s">
-        <v>24</v>
+        <v>676</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B388" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="B389" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>660</v>
+        <v>578</v>
       </c>
       <c r="B390" t="s">
-        <v>663</v>
+        <v>23</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="B391" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>328</v>
+        <v>688</v>
       </c>
       <c r="B392" t="s">
-        <v>305</v>
+        <v>676</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>398</v>
+        <v>325</v>
       </c>
       <c r="B393" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>671</v>
+        <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>440</v>
+        <v>40</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>75</v>
+        <v>664</v>
       </c>
       <c r="B395" t="s">
-        <v>68</v>
+        <v>435</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>537</v>
+        <v>74</v>
       </c>
       <c r="B396" t="s">
-        <v>450</v>
+        <v>67</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="B397" t="s">
-        <v>24</v>
+        <v>443</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>341</v>
+        <v>570</v>
       </c>
       <c r="B398" t="s">
-        <v>332</v>
+        <v>23</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="B399" t="s">
-        <v>53</v>
+        <v>329</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="B400" t="s">
-        <v>305</v>
+        <v>52</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>447</v>
+        <v>321</v>
       </c>
       <c r="B401" t="s">
-        <v>450</v>
+        <v>302</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B402" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>58</v>
+        <v>433</v>
       </c>
       <c r="B403" t="s">
-        <v>23</v>
+        <v>428</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>661</v>
+        <v>57</v>
       </c>
       <c r="B404" t="s">
-        <v>663</v>
+        <v>22</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>744</v>
+        <v>654</v>
       </c>
       <c r="B405" t="s">
-        <v>171</v>
+        <v>656</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>531</v>
+        <v>737</v>
       </c>
       <c r="B406" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>298</v>
+        <v>524</v>
       </c>
       <c r="B407" t="s">
-        <v>305</v>
+        <v>55</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B408" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>804</v>
+        <v>322</v>
       </c>
       <c r="B409" t="s">
-        <v>48</v>
+        <v>302</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>566</v>
+        <v>797</v>
       </c>
       <c r="B410" t="s">
-        <v>462</v>
+        <v>47</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B411" t="s">
-        <v>24</v>
+        <v>455</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>491</v>
+        <v>559</v>
       </c>
       <c r="B412" t="s">
-        <v>450</v>
+        <v>23</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>156</v>
+        <v>484</v>
       </c>
       <c r="B413" t="s">
-        <v>50</v>
+        <v>443</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="B414" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>761</v>
+        <v>27</v>
       </c>
       <c r="B415" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>460</v>
+        <v>754</v>
       </c>
       <c r="B416" t="s">
-        <v>462</v>
+        <v>48</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>326</v>
+        <v>453</v>
       </c>
       <c r="B417" t="s">
-        <v>305</v>
+        <v>455</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>783</v>
+        <v>323</v>
       </c>
       <c r="B418" t="s">
-        <v>683</v>
+        <v>302</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="B419" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>408</v>
+        <v>779</v>
       </c>
       <c r="B420" t="s">
-        <v>402</v>
+        <v>683</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>570</v>
+        <v>404</v>
       </c>
       <c r="B421" t="s">
-        <v>24</v>
+        <v>398</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>69</v>
+        <v>563</v>
       </c>
       <c r="B422" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>489</v>
+        <v>68</v>
       </c>
       <c r="B423" t="s">
-        <v>450</v>
+        <v>66</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B424" t="s">
-        <v>141</v>
+        <v>443</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>70</v>
+        <v>467</v>
       </c>
       <c r="B425" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>327</v>
+        <v>69</v>
       </c>
       <c r="B426" t="s">
-        <v>305</v>
+        <v>66</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>579</v>
+        <v>324</v>
       </c>
       <c r="B427" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B428" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>769</v>
+        <v>571</v>
       </c>
       <c r="B429" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>813</v>
+        <v>762</v>
       </c>
       <c r="B430" t="s">
-        <v>438</v>
+        <v>43</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="B431" t="s">
-        <v>48</v>
+        <v>433</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>155</v>
+        <v>795</v>
       </c>
       <c r="B432" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>755</v>
+        <v>153</v>
       </c>
       <c r="B433" t="s">
-        <v>750</v>
+        <v>49</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>83</v>
+        <v>748</v>
       </c>
       <c r="B434" t="s">
-        <v>80</v>
+        <v>743</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="B435" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>759</v>
+        <v>240</v>
       </c>
       <c r="B436" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="B437" t="s">
-        <v>667</v>
+        <v>48</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>470</v>
+        <v>658</v>
       </c>
       <c r="B438" t="s">
-        <v>466</v>
+        <v>660</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>762</v>
+        <v>463</v>
       </c>
       <c r="B439" t="s">
-        <v>49</v>
+        <v>459</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>347</v>
+        <v>755</v>
       </c>
       <c r="B440" t="s">
-        <v>344</v>
+        <v>48</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="B441" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>814</v>
+        <v>400</v>
       </c>
       <c r="B442" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B443" t="s">
-        <v>48</v>
+        <v>433</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>580</v>
+        <v>798</v>
       </c>
       <c r="B444" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>728</v>
+        <v>573</v>
       </c>
       <c r="B445" t="s">
-        <v>700</v>
+        <v>23</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>581</v>
+        <v>721</v>
       </c>
       <c r="B446" t="s">
-        <v>24</v>
+        <v>693</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="B447" t="s">
-        <v>450</v>
+        <v>23</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B448" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>197</v>
+        <v>511</v>
       </c>
       <c r="B449" t="s">
-        <v>62</v>
+        <v>443</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>582</v>
+        <v>195</v>
       </c>
       <c r="B450" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>798</v>
+        <v>575</v>
       </c>
       <c r="B451" t="s">
-        <v>690</v>
+        <v>23</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>527</v>
+        <v>791</v>
       </c>
       <c r="B452" t="s">
-        <v>524</v>
+        <v>683</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>356</v>
+        <v>520</v>
       </c>
       <c r="B453" t="s">
-        <v>349</v>
+        <v>517</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>799</v>
+        <v>353</v>
       </c>
       <c r="B454" t="s">
-        <v>690</v>
+        <v>346</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>239</v>
+        <v>792</v>
       </c>
       <c r="B455" t="s">
-        <v>53</v>
+        <v>683</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>329</v>
+        <v>237</v>
       </c>
       <c r="B456" t="s">
-        <v>305</v>
+        <v>52</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>593</v>
+        <v>326</v>
       </c>
       <c r="B457" t="s">
-        <v>462</v>
+        <v>302</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="B458" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>194</v>
+        <v>610</v>
       </c>
       <c r="B459" t="s">
-        <v>177</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>192</v>
+      </c>
+      <c r="B460" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>21</v>
+      </c>
+      <c r="B461" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7983,10 +7978,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1E01E-01C2-7844-B628-8E09C0C92859}">
-  <dimension ref="A1:B196"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8004,1562 +7999,1570 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B3" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B9" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B13" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B17" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B18" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B19" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B20" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B23" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B27" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B30" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B35" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
         <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B40" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B44" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B45" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B46" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B47" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B50" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B58" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B59" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B61" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B64" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B65" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B68" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B75" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>411</v>
+      </c>
+      <c r="B76" t="s">
         <v>415</v>
-      </c>
-      <c r="B76" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B77" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B81" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B85" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B86" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B88" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B89" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B90" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B92" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B94" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B95" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B96" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B97" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B98" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B100" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B101" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B102" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B103" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B104" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B105" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B106" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B107" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B108" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B109" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B110" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B111" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B112" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B113" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B117" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B118" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B120" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B121" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B122" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B124" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B125" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B126" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B129" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B130" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B131" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B132" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B134" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B135" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B136" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B138" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B139" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>612</v>
       </c>
       <c r="B140" t="s">
-        <v>85</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>377</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>363</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>716</v>
+        <v>373</v>
       </c>
       <c r="B142" t="s">
-        <v>704</v>
+        <v>359</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B143" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="B144" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B145" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B146" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>272</v>
+        <v>713</v>
       </c>
       <c r="B147" t="s">
-        <v>265</v>
+        <v>697</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B148" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="B149" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>113</v>
+        <v>351</v>
       </c>
       <c r="B150" t="s">
-        <v>78</v>
+        <v>359</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>111</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="B152" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>630</v>
+        <v>132</v>
       </c>
       <c r="B154" t="s">
-        <v>627</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>74</v>
+        <v>623</v>
       </c>
       <c r="B155" t="s">
-        <v>90</v>
+        <v>620</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B156" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>721</v>
+        <v>70</v>
       </c>
       <c r="B157" t="s">
-        <v>704</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>364</v>
+        <v>714</v>
       </c>
       <c r="B158" t="s">
-        <v>363</v>
+        <v>697</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B159" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>42</v>
+        <v>374</v>
       </c>
       <c r="B160" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>358</v>
+        <v>41</v>
       </c>
       <c r="B161" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>509</v>
+        <v>355</v>
       </c>
       <c r="B162" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>722</v>
+        <v>502</v>
       </c>
       <c r="B163" t="s">
-        <v>704</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>115</v>
+        <v>715</v>
       </c>
       <c r="B164" t="s">
-        <v>78</v>
+        <v>697</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>590</v>
+        <v>113</v>
       </c>
       <c r="B165" t="s">
-        <v>586</v>
+        <v>77</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>379</v>
+        <v>583</v>
       </c>
       <c r="B166" t="s">
-        <v>363</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>510</v>
+        <v>375</v>
       </c>
       <c r="B167" t="s">
-        <v>448</v>
+        <v>359</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>418</v>
+        <v>503</v>
       </c>
       <c r="B168" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>75</v>
+        <v>414</v>
       </c>
       <c r="B169" t="s">
-        <v>90</v>
+        <v>415</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B170" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>423</v>
+        <v>74</v>
       </c>
       <c r="B171" t="s">
-        <v>421</v>
+        <v>89</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>278</v>
+        <v>419</v>
       </c>
       <c r="B172" t="s">
-        <v>265</v>
+        <v>417</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="B173" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="B174" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>598</v>
+        <v>257</v>
       </c>
       <c r="B175" t="s">
-        <v>625</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>494</v>
+        <v>591</v>
       </c>
       <c r="B176" t="s">
-        <v>492</v>
+        <v>618</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="B177" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="B178" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>380</v>
+        <v>486</v>
       </c>
       <c r="B179" t="s">
-        <v>363</v>
+        <v>485</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>626</v>
+        <v>376</v>
       </c>
       <c r="B180" t="s">
-        <v>625</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>508</v>
+        <v>619</v>
       </c>
       <c r="B181" t="s">
-        <v>448</v>
+        <v>618</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>276</v>
+        <v>501</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>441</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>589</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
-        <v>586</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>657</v>
+        <v>582</v>
       </c>
       <c r="B184" t="s">
-        <v>647</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B185" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>70</v>
+        <v>652</v>
       </c>
       <c r="B186" t="s">
-        <v>90</v>
+        <v>640</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>381</v>
+        <v>69</v>
       </c>
       <c r="B187" t="s">
-        <v>363</v>
+        <v>89</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>539</v>
+        <v>377</v>
       </c>
       <c r="B188" t="s">
-        <v>537</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>271</v>
+        <v>532</v>
       </c>
       <c r="B189" t="s">
-        <v>265</v>
+        <v>530</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B190" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>723</v>
+        <v>280</v>
       </c>
       <c r="B191" t="s">
-        <v>704</v>
+        <v>263</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>382</v>
+        <v>716</v>
       </c>
       <c r="B192" t="s">
-        <v>363</v>
+        <v>697</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>104</v>
+        <v>378</v>
       </c>
       <c r="B193" t="s">
-        <v>81</v>
+        <v>359</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>283</v>
+        <v>103</v>
       </c>
       <c r="B194" t="s">
-        <v>265</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>724</v>
+        <v>281</v>
       </c>
       <c r="B195" t="s">
-        <v>704</v>
+        <v>263</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>658</v>
+        <v>717</v>
       </c>
       <c r="B196" t="s">
-        <v>647</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>651</v>
+      </c>
+      <c r="B197" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -9574,8 +9577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE85406E-B187-E14D-8DA8-2AAAAED9B666}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9593,58 +9596,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>625</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B3" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="B4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>628</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="B6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="B7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>611</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>620</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -9652,404 +9655,404 @@
         <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>638</v>
+        <v>700</v>
       </c>
       <c r="B10" t="s">
-        <v>629</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>642</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>630</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>643</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>630</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>596</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>597</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="B19" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B20" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>604</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="B22" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B23" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="B24" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>499</v>
+        <v>606</v>
       </c>
       <c r="B25" t="s">
-        <v>497</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>707</v>
+        <v>605</v>
       </c>
       <c r="B26" t="s">
-        <v>705</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>428</v>
+        <v>601</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>598</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="B29" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>599</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="B31" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>640</v>
+        <v>593</v>
       </c>
       <c r="B32" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>641</v>
+        <v>596</v>
       </c>
       <c r="B33" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="B34" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>645</v>
+        <v>594</v>
       </c>
       <c r="B35" t="s">
-        <v>631</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>634</v>
+        <v>595</v>
       </c>
       <c r="B36" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B37" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B38" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>246</v>
+        <v>599</v>
       </c>
       <c r="B39" t="s">
-        <v>245</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>613</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>620</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>601</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>597</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>612</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>620</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>615</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>616</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="B48" t="s">
-        <v>497</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>631</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>633</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="B51" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B52" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>636</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s">
-        <v>628</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>602</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s">
-        <v>597</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>638</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>639</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>637</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>628</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>646</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>631</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
         <v>134</v>
@@ -10057,82 +10060,82 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>599</v>
+        <v>494</v>
       </c>
       <c r="B61" t="s">
-        <v>597</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>605</v>
+        <v>492</v>
       </c>
       <c r="B62" t="s">
-        <v>597</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>605</v>
+        <v>493</v>
       </c>
       <c r="B63" t="s">
-        <v>620</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B64" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B65" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>606</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>597</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>606</v>
+        <v>635</v>
       </c>
       <c r="B67" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="B68" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="B69" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B679C5F5-2B61-B345-B355-1778A5881402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7E3A6-C7EC-B140-A62F-E3AA1B7A728F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="460" windowWidth="14940" windowHeight="16220" activeTab="3" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="13860" yWindow="460" windowWidth="14940" windowHeight="16140" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Parent 1" sheetId="1" r:id="rId1"/>
@@ -2534,7 +2534,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EC86AD1-B64A-EF4A-9E30-4E59C5D34B29}" name="Table3" displayName="Table3" ref="A1:B153" totalsRowShown="0">
   <autoFilter ref="A1:B153" xr:uid="{2DF645BF-484A-D846-BB3C-AFD56E1950FF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B153">
-    <sortCondition ref="A1:A153"/>
+    <sortCondition ref="B1:B153"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2AA2FAB0-AD3A-B641-AC7D-3FF7D9ABD081}" name="Skill"/>
@@ -3026,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E440C-1904-894B-9323-83431D3F77DA}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3045,31 +3045,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>671</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>733</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -3077,39 +3077,39 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>656</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>672</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>430</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -3125,15 +3125,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>733</v>
+        <v>692</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>693</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -3149,87 +3149,87 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>443</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>725</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>726</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>741</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>674</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>743</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
         <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -3245,50 +3245,50 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>679</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>656</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>443</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3333,15 +3333,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>432</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>457</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -3349,15 +3349,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>428</v>
+        <v>660</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -3365,31 +3365,31 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>202</v>
+        <v>435</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>458</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>437</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>660</v>
+        <v>456</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>455</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -3405,31 +3405,31 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>466</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>204</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -3437,71 +3437,71 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>435</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>458</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>669</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>671</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>672</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>759</v>
+        <v>674</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -3517,31 +3517,31 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>429</v>
+        <v>743</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>430</v>
+        <v>679</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
         <v>11</v>
-      </c>
-      <c r="B63" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>687</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>675</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -3557,303 +3557,303 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>759</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>687</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>247</v>
+        <v>675</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>676</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>248</v>
+        <v>777</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>681</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>249</v>
+        <v>683</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>731</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>684</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>685</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>688</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>284</v>
+        <v>433</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>689</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>676</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>777</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>287</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>680</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="B91" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>288</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>681</v>
+        <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>683</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>437</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
@@ -3861,103 +3861,103 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>435</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>725</v>
+        <v>79</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>731</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>726</v>
+        <v>42</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>684</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>685</v>
+        <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -3965,39 +3965,39 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>456</v>
+        <v>175</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>329</v>
+        <v>2</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -4005,15 +4005,15 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>341</v>
+        <v>202</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>346</v>
+        <v>203</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
@@ -4029,39 +4029,39 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>686</v>
+        <v>204</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>354</v>
+        <v>249</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -4077,23 +4077,23 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>395</v>
+        <v>284</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>396</v>
+        <v>285</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
@@ -4109,31 +4109,31 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>466</v>
+        <v>286</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>688</v>
+        <v>54</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>397</v>
+        <v>288</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
@@ -4149,79 +4149,79 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>433</v>
+        <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>433</v>
+        <v>328</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="B143" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>741</v>
+        <v>346</v>
       </c>
       <c r="B145" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>32</v>
+        <v>354</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B149" t="s">
         <v>12</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
@@ -4237,26 +4237,26 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>689</v>
+        <v>398</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>481</v>
+        <v>403</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>173</v>
+        <v>402</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7980,7 +7980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1E01E-01C2-7844-B628-8E09C0C92859}">
   <dimension ref="A1:B197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7E3A6-C7EC-B140-A62F-E3AA1B7A728F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A4435F-8098-8A49-A078-20D855C0590B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="460" windowWidth="14940" windowHeight="16140" activeTab="1" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="15200" yWindow="460" windowWidth="13600" windowHeight="16220" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Parent 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Parent 3" sheetId="4" r:id="rId3"/>
     <sheet name="Parent 4" sheetId="5" r:id="rId4"/>
     <sheet name="Parent 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Courses" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="1249">
   <si>
     <t>Skill</t>
   </si>
@@ -2462,16 +2463,1346 @@
   </si>
   <si>
     <t>Usability Engineering</t>
+  </si>
+  <si>
+    <t>Microsoft Office</t>
+  </si>
+  <si>
+    <t>Software Application</t>
+  </si>
+  <si>
+    <t>Microsoft Excel</t>
+  </si>
+  <si>
+    <t>Pivot Table</t>
+  </si>
+  <si>
+    <t>Formula Function</t>
+  </si>
+  <si>
+    <t>Formatting</t>
+  </si>
+  <si>
+    <t>Microsoft Word</t>
+  </si>
+  <si>
+    <t>Page Setup</t>
+  </si>
+  <si>
+    <t>Template Building</t>
+  </si>
+  <si>
+    <t>SmartArt</t>
+  </si>
+  <si>
+    <t>Text Box</t>
+  </si>
+  <si>
+    <t>Track Changes</t>
+  </si>
+  <si>
+    <t>Microsoft PowerPoint</t>
+  </si>
+  <si>
+    <t>Custom Slide</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Data Storytelling</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Chart</t>
+  </si>
+  <si>
+    <t>Data Visualizaton</t>
+  </si>
+  <si>
+    <t>Bar Chart</t>
+  </si>
+  <si>
+    <t>Line Chart</t>
+  </si>
+  <si>
+    <t>Stacked Bar Chart</t>
+  </si>
+  <si>
+    <t>Pie Chart</t>
+  </si>
+  <si>
+    <t>Area Map</t>
+  </si>
+  <si>
+    <t>Impact Metric</t>
+  </si>
+  <si>
+    <t>Scatter Plot</t>
+  </si>
+  <si>
+    <t>Heat Map</t>
+  </si>
+  <si>
+    <t>Xenographic</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Repetition</t>
+  </si>
+  <si>
+    <t>Flowchart</t>
+  </si>
+  <si>
+    <t>Pseudocode</t>
+  </si>
+  <si>
+    <t>Data Strucutre</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>NumPy</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+  </si>
+  <si>
+    <t>Seaborn</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Tidyverse</t>
+  </si>
+  <si>
+    <t>R Shiny</t>
+  </si>
+  <si>
+    <t>Database Management System</t>
+  </si>
+  <si>
+    <t>Relational Database Management System</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis</t>
+  </si>
+  <si>
+    <t>Measure of Central Tendency</t>
+  </si>
+  <si>
+    <t>Measure of Variability</t>
+  </si>
+  <si>
+    <t>Measure of Dispersion</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Normal Distribution</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Uniform Distribution</t>
+  </si>
+  <si>
+    <t>Poisson Distribution</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Command-Line Interface</t>
+  </si>
+  <si>
+    <t>Command-Line Interpreter</t>
+  </si>
+  <si>
+    <t>Unix Shell</t>
+  </si>
+  <si>
+    <t>Command Language</t>
+  </si>
+  <si>
+    <t>Bash</t>
+  </si>
+  <si>
+    <t>Integrated Development Environment (IDE)</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Vim</t>
+  </si>
+  <si>
+    <t>NetBeans</t>
+  </si>
+  <si>
+    <t>Oracle Developer Studio</t>
+  </si>
+  <si>
+    <t>Visual Studio Community</t>
+  </si>
+  <si>
+    <t>Xcode</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>PyCharm</t>
+  </si>
+  <si>
+    <t>PyDev</t>
+  </si>
+  <si>
+    <t>Spyder</t>
+  </si>
+  <si>
+    <t>Visual Studio Code</t>
+  </si>
+  <si>
+    <t>Rstudio</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>Revision Control</t>
+  </si>
+  <si>
+    <t>Source Control</t>
+  </si>
+  <si>
+    <t>Source Code Management</t>
+  </si>
+  <si>
+    <t>Version Control System</t>
+  </si>
+  <si>
+    <t>Subversoin</t>
+  </si>
+  <si>
+    <t>CVSNT</t>
+  </si>
+  <si>
+    <t>QVCS</t>
+  </si>
+  <si>
+    <t>GNU Bazaar</t>
+  </si>
+  <si>
+    <t>BitKeeper</t>
+  </si>
+  <si>
+    <t>Software Tool</t>
+  </si>
+  <si>
+    <t>apt-build</t>
+  </si>
+  <si>
+    <t>Homebrew</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>Anaconda</t>
+  </si>
+  <si>
+    <t>NuGet</t>
+  </si>
+  <si>
+    <t>vcpkg</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Package Manager</t>
+  </si>
+  <si>
+    <t>PyPI</t>
+  </si>
+  <si>
+    <t>conda</t>
+  </si>
+  <si>
+    <t>PyPM</t>
+  </si>
+  <si>
+    <t>Enthought Canopy</t>
+  </si>
+  <si>
+    <t>RubyGems</t>
+  </si>
+  <si>
+    <t>JupyterLab</t>
+  </si>
+  <si>
+    <t>Jupyter Notebook</t>
+  </si>
+  <si>
+    <t>Infrastructure as a Service (IaaS)</t>
+  </si>
+  <si>
+    <t>Xen</t>
+  </si>
+  <si>
+    <t>Oracle VirtualBox</t>
+  </si>
+  <si>
+    <t>Oracle VM</t>
+  </si>
+  <si>
+    <t>Kernel-based Virtual Machine (KVM)</t>
+  </si>
+  <si>
+    <t>Vmware ESXi</t>
+  </si>
+  <si>
+    <t>Hyper-V</t>
+  </si>
+  <si>
+    <t>Platform as a Service (PaaS)</t>
+  </si>
+  <si>
+    <t>Software as a Service (SaaS)</t>
+  </si>
+  <si>
+    <t>Cloud Platform</t>
+  </si>
+  <si>
+    <t>Cloud Application</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Dropbox</t>
+  </si>
+  <si>
+    <t>Google Workspace</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>HP Cloud</t>
+  </si>
+  <si>
+    <t>IBM Cloud</t>
+  </si>
+  <si>
+    <t>Microsoft Office 365</t>
+  </si>
+  <si>
+    <t>Microsoft OneDrive</t>
+  </si>
+  <si>
+    <t>Oracle Cloud</t>
+  </si>
+  <si>
+    <t>Rackspace</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>Workday</t>
+  </si>
+  <si>
+    <t>Zoho</t>
+  </si>
+  <si>
+    <t>Alibaba Cloud</t>
+  </si>
+  <si>
+    <t>Amazon Web Services</t>
+  </si>
+  <si>
+    <t>AppScale</t>
+  </si>
+  <si>
+    <t>Bluemix</t>
+  </si>
+  <si>
+    <t>CloudBolt</t>
+  </si>
+  <si>
+    <t>Cloud Foundry</t>
+  </si>
+  <si>
+    <t>Cocaine</t>
+  </si>
+  <si>
+    <t>Creatio</t>
+  </si>
+  <si>
+    <t>Engine Yard</t>
+  </si>
+  <si>
+    <t>Helion</t>
+  </si>
+  <si>
+    <t>Google App Engine</t>
+  </si>
+  <si>
+    <t>GE Predix</t>
+  </si>
+  <si>
+    <t>GreenQloud</t>
+  </si>
+  <si>
+    <t>Heroku</t>
+  </si>
+  <si>
+    <t>Inktank</t>
+  </si>
+  <si>
+    <t>Jelastic</t>
+  </si>
+  <si>
+    <t>Mendix</t>
+  </si>
+  <si>
+    <t>Microsoft Azure</t>
+  </si>
+  <si>
+    <t>MindSphere</t>
+  </si>
+  <si>
+    <t>Netlify</t>
+  </si>
+  <si>
+    <t>OutSystems</t>
+  </si>
+  <si>
+    <t>openQRM</t>
+  </si>
+  <si>
+    <t>OpenShift</t>
+  </si>
+  <si>
+    <t>RightScale</t>
+  </si>
+  <si>
+    <t>PythonAnywhere</t>
+  </si>
+  <si>
+    <t>Scalr</t>
+  </si>
+  <si>
+    <t>Force.com</t>
+  </si>
+  <si>
+    <t>SAP Cloud Platform</t>
+  </si>
+  <si>
+    <t>Vmware vCloud Air</t>
+  </si>
+  <si>
+    <t>WaveMaker</t>
+  </si>
+  <si>
+    <t>Abiquo Enterprise Edition</t>
+  </si>
+  <si>
+    <t>CloudStack</t>
+  </si>
+  <si>
+    <t>Critix Cloud</t>
+  </si>
+  <si>
+    <t>CtrlS</t>
+  </si>
+  <si>
+    <t>DigitalOcean</t>
+  </si>
+  <si>
+    <t>EMC Atmos</t>
+  </si>
+  <si>
+    <t>Eucalyptus</t>
+  </si>
+  <si>
+    <t>Fujitsu</t>
+  </si>
+  <si>
+    <t>GoGrid</t>
+  </si>
+  <si>
+    <t>Google Cloud Platform</t>
+  </si>
+  <si>
+    <t>GreenButton</t>
+  </si>
+  <si>
+    <t>iland</t>
+  </si>
+  <si>
+    <t>Joyent</t>
+  </si>
+  <si>
+    <t>Linode</t>
+  </si>
+  <si>
+    <t>Lunacloud</t>
+  </si>
+  <si>
+    <t>Mirantis</t>
+  </si>
+  <si>
+    <t>Nimbula</t>
+  </si>
+  <si>
+    <t>Nimbus</t>
+  </si>
+  <si>
+    <t>OpenIO</t>
+  </si>
+  <si>
+    <t>OpenNebula</t>
+  </si>
+  <si>
+    <t>OpenStack</t>
+  </si>
+  <si>
+    <t>OrionVM</t>
+  </si>
+  <si>
+    <t>Rackspace Cloud</t>
+  </si>
+  <si>
+    <t>Safe Swiss Cloud</t>
+  </si>
+  <si>
+    <t>SoftLayer</t>
+  </si>
+  <si>
+    <t>Zadara Storage</t>
+  </si>
+  <si>
+    <t>libvirt</t>
+  </si>
+  <si>
+    <t>libguestfs</t>
+  </si>
+  <si>
+    <t>Ovirt</t>
+  </si>
+  <si>
+    <t>Virtual Machine Manager</t>
+  </si>
+  <si>
+    <t>Wakame-vdc</t>
+  </si>
+  <si>
+    <t>Virtual Private Cloud OnDemand</t>
+  </si>
+  <si>
+    <t>Probability Distribution</t>
+  </si>
+  <si>
+    <t>Inference</t>
+  </si>
+  <si>
+    <t>Hypothesis Testing</t>
+  </si>
+  <si>
+    <t>User Experience Research Methodology</t>
+  </si>
+  <si>
+    <t>A/B Testing</t>
+  </si>
+  <si>
+    <t>Financial Data Storytelling</t>
+  </si>
+  <si>
+    <t>Regression Analysis</t>
+  </si>
+  <si>
+    <t>Statistical Modelling</t>
+  </si>
+  <si>
+    <t>Mathematical Modelling</t>
+  </si>
+  <si>
+    <t>Regression Modelling</t>
+  </si>
+  <si>
+    <t>Statistical Theory</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Sampling Distribution</t>
+  </si>
+  <si>
+    <t>Statistical Model</t>
+  </si>
+  <si>
+    <t>Frequentist Inference</t>
+  </si>
+  <si>
+    <t>Point Estimation</t>
+  </si>
+  <si>
+    <t>Interval Estimation</t>
+  </si>
+  <si>
+    <t>Testing Hypothesis</t>
+  </si>
+  <si>
+    <t>Parametric Test</t>
+  </si>
+  <si>
+    <t>Z-test</t>
+  </si>
+  <si>
+    <t>F-test</t>
+  </si>
+  <si>
+    <t>Student's t-test</t>
+  </si>
+  <si>
+    <t>Bayesian Inference</t>
+  </si>
+  <si>
+    <t>Bayesian Probability</t>
+  </si>
+  <si>
+    <t>Bayesian Estimator</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Errors and Residuals</t>
+  </si>
+  <si>
+    <t>Regression Validation</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Simple Linear Regression</t>
+  </si>
+  <si>
+    <t>Ordinary Least Squares</t>
+  </si>
+  <si>
+    <t>General Linear Model</t>
+  </si>
+  <si>
+    <t>Bayesian Regression</t>
+  </si>
+  <si>
+    <t>Nonlinear Regression</t>
+  </si>
+  <si>
+    <t>Generalized Linear Model</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Bernoulli Regression</t>
+  </si>
+  <si>
+    <t>Binomial Regression</t>
+  </si>
+  <si>
+    <t>Poisson Regression</t>
+  </si>
+  <si>
+    <t>Analysis of Variance (ANOVA)</t>
+  </si>
+  <si>
+    <t>Analysis of Covariance</t>
+  </si>
+  <si>
+    <t>Degree of Freedom</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>Time Series Analysis</t>
+  </si>
+  <si>
+    <t>Time Series Forecasting</t>
+  </si>
+  <si>
+    <t>Exploratory Analysis</t>
+  </si>
+  <si>
+    <t>Spectral Analysis</t>
+  </si>
+  <si>
+    <t>Trend Estimation</t>
+  </si>
+  <si>
+    <t>Decomposition of Time Series</t>
+  </si>
+  <si>
+    <t>Autocorrelation (ACF)</t>
+  </si>
+  <si>
+    <t>Partial Autocorrelation (PACF)</t>
+  </si>
+  <si>
+    <t>Time Series Model</t>
+  </si>
+  <si>
+    <t>Autoregressive (AR) Model</t>
+  </si>
+  <si>
+    <t>Autoregressive-Moving-Average (ARMA) Model</t>
+  </si>
+  <si>
+    <t>Autoregressive Integrated Moving Average (ARIMA) Model</t>
+  </si>
+  <si>
+    <t>Exponential Smoothing</t>
+  </si>
+  <si>
+    <t>Granger Causality</t>
+  </si>
+  <si>
+    <t>Vector Autoregression (VAR)</t>
+  </si>
+  <si>
+    <t>Moving Average</t>
+  </si>
+  <si>
+    <t>Supervised Learning</t>
+  </si>
+  <si>
+    <t>Supervised Machine Learning</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>Unsupervised Machine Learning</t>
+  </si>
+  <si>
+    <t>Classfication</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Bagging</t>
+  </si>
+  <si>
+    <t>Boosting</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>k-Nearest Neighbour (kNN)</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>Artificial Neural Network</t>
+  </si>
+  <si>
+    <t>Perceptron</t>
+  </si>
+  <si>
+    <t>Relevance Vector Machine (RVM)</t>
+  </si>
+  <si>
+    <t>Support Vector Machine (SVM)</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>Dimensionality Reduction</t>
+  </si>
+  <si>
+    <t>Structured Prediction</t>
+  </si>
+  <si>
+    <t>Anomaly Detection</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Balanced Iterative Reducing and Clustering using Hierarchies (BIRCH)</t>
+  </si>
+  <si>
+    <t>Clustering Using Representatives (CURE)</t>
+  </si>
+  <si>
+    <t>k-means Clustering</t>
+  </si>
+  <si>
+    <t>Ordering Points To Identify the Clustering Structure (OPTICS)</t>
+  </si>
+  <si>
+    <t>Density-Based Spatial Clustering of Applications with Noise (DBSCAN)</t>
+  </si>
+  <si>
+    <t>Expectation-Maximization (EM)</t>
+  </si>
+  <si>
+    <t>Mean Shift</t>
+  </si>
+  <si>
+    <t>Hierarchical Clustering</t>
+  </si>
+  <si>
+    <t>Agglomerative Clustering</t>
+  </si>
+  <si>
+    <t>Divisive Clustering</t>
+  </si>
+  <si>
+    <t>Factor Analysis</t>
+  </si>
+  <si>
+    <t>Canonical-Correlation Analysis (CCA)</t>
+  </si>
+  <si>
+    <t>Independent Component Analysis (ICA)</t>
+  </si>
+  <si>
+    <t>Linear Discriminant Analysis (LDA)</t>
+  </si>
+  <si>
+    <t>Non-negative Matrix Factorization (NMF)</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis (PCA)</t>
+  </si>
+  <si>
+    <t>Proper Generalized Decomposition (PGD)</t>
+  </si>
+  <si>
+    <t>t-distributed Stochastic Neighbour Embedding (t-SNE)</t>
+  </si>
+  <si>
+    <t>Graphical Model</t>
+  </si>
+  <si>
+    <t>Bayes Network</t>
+  </si>
+  <si>
+    <t>Hidden Markov Model (HMM)</t>
+  </si>
+  <si>
+    <t>Conditional Random Field (CRF)</t>
+  </si>
+  <si>
+    <t>Autoencoder</t>
+  </si>
+  <si>
+    <t>DeepDream</t>
+  </si>
+  <si>
+    <t>Multilayer Perceptron</t>
+  </si>
+  <si>
+    <t>Recurrent Neural Network (RNN)</t>
+  </si>
+  <si>
+    <t>Feedback Neural Network (FNN)</t>
+  </si>
+  <si>
+    <t>Gated Recurrent Unit (GRU)</t>
+  </si>
+  <si>
+    <t>Echo State Network (ESN)</t>
+  </si>
+  <si>
+    <t>Long Short-Term Memory (LSTM)</t>
+  </si>
+  <si>
+    <t>Restricted Boltzmann Machine (RBM)</t>
+  </si>
+  <si>
+    <t>Generative Adversarial Network (GAN)</t>
+  </si>
+  <si>
+    <t>Self-Organizing Map (SOM)</t>
+  </si>
+  <si>
+    <t>Self-Organizing Feature Map (SOFM)</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Network (CNN)</t>
+  </si>
+  <si>
+    <t>Convolutional Neural Network (ConvNet)</t>
+  </si>
+  <si>
+    <t>Shift Invariant Artificial Neural Network (SIANN)</t>
+  </si>
+  <si>
+    <t>Space Invariant Artificial Neural Network (SIANN)</t>
+  </si>
+  <si>
+    <t>U-Net</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Natural Language Processing (NLP)</t>
+  </si>
+  <si>
+    <t>Q-learning</t>
+  </si>
+  <si>
+    <t>State-Action-Reward-State-Action (SARSA)</t>
+  </si>
+  <si>
+    <t>Temporal Difference (TD) Learning</t>
+  </si>
+  <si>
+    <t>Bag-of-words</t>
+  </si>
+  <si>
+    <t>n-gram</t>
+  </si>
+  <si>
+    <t>Bigram</t>
+  </si>
+  <si>
+    <t>Trigram</t>
+  </si>
+  <si>
+    <t>Stopwords</t>
+  </si>
+  <si>
+    <t>Text Analysis</t>
+  </si>
+  <si>
+    <t>Concept Mining</t>
+  </si>
+  <si>
+    <t>Collocation Extraction</t>
+  </si>
+  <si>
+    <t>Compound Term Processing</t>
+  </si>
+  <si>
+    <t>Coreference Resolution</t>
+  </si>
+  <si>
+    <t>Lemmatization</t>
+  </si>
+  <si>
+    <t>Named-Entity Recognition</t>
+  </si>
+  <si>
+    <t>Onthology Learning</t>
+  </si>
+  <si>
+    <t>Part-of-speech (POS) Tagging</t>
+  </si>
+  <si>
+    <t>Semantic Similarity</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>Stemming</t>
+  </si>
+  <si>
+    <t>Terminology Extraction</t>
+  </si>
+  <si>
+    <t>Text Chunking</t>
+  </si>
+  <si>
+    <t>Text Segmentation</t>
+  </si>
+  <si>
+    <t>Sentence Segmentation</t>
+  </si>
+  <si>
+    <t>Word Segmentation</t>
+  </si>
+  <si>
+    <t>Textual Entailment</t>
+  </si>
+  <si>
+    <t>Truecasing</t>
+  </si>
+  <si>
+    <t>Word-sense Disambiguation</t>
+  </si>
+  <si>
+    <t>Automatic Summarization</t>
+  </si>
+  <si>
+    <t>Machine Translation</t>
+  </si>
+  <si>
+    <t>Automatic Identification</t>
+  </si>
+  <si>
+    <t>Computer-Assisted Reviewing</t>
+  </si>
+  <si>
+    <t>Multi-document Summarization</t>
+  </si>
+  <si>
+    <t>Sentence Extraction</t>
+  </si>
+  <si>
+    <t>Text Simplification</t>
+  </si>
+  <si>
+    <t>Computer-Assisted Translation (CAT)</t>
+  </si>
+  <si>
+    <t>Example-Based Machine Translation (EBMT)</t>
+  </si>
+  <si>
+    <t>Neural Machine Translation (NMT)</t>
+  </si>
+  <si>
+    <t>Rule-based Machine Translation</t>
+  </si>
+  <si>
+    <t>Speech Segmentation</t>
+  </si>
+  <si>
+    <t>Speech Synthesis</t>
+  </si>
+  <si>
+    <t>Natural Language Generation</t>
+  </si>
+  <si>
+    <t>Latent Dirichlet Allocation (LDA)</t>
+  </si>
+  <si>
+    <t>Latent Semantic Analysis</t>
+  </si>
+  <si>
+    <t>Pachinko Allocation</t>
+  </si>
+  <si>
+    <t>Automated Essay Scoring (AES)</t>
+  </si>
+  <si>
+    <t>Concordancer</t>
+  </si>
+  <si>
+    <t>Grammar Checker</t>
+  </si>
+  <si>
+    <t>Predictive Text</t>
+  </si>
+  <si>
+    <t>Spell Checker</t>
+  </si>
+  <si>
+    <t>Syntax Guessing</t>
+  </si>
+  <si>
+    <t>Chatbot</t>
+  </si>
+  <si>
+    <t>Interactive Fiction</t>
+  </si>
+  <si>
+    <t>Virtual Assistant</t>
+  </si>
+  <si>
+    <t>Voice User Interface</t>
+  </si>
+  <si>
+    <t>Topic Model</t>
+  </si>
+  <si>
+    <t>Digital Geometry</t>
+  </si>
+  <si>
+    <t>Feature Detection</t>
+  </si>
+  <si>
+    <t>Image Sensor Technology</t>
+  </si>
+  <si>
+    <t>Motion Analysis</t>
+  </si>
+  <si>
+    <t>Noise Reduction</t>
+  </si>
+  <si>
+    <t>Augmented Reality (AR)</t>
+  </si>
+  <si>
+    <t>Autonomous Vehicle</t>
+  </si>
+  <si>
+    <t>Face Recognition</t>
+  </si>
+  <si>
+    <t>Image Search</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Printed Circuit Board</t>
+  </si>
+  <si>
+    <t>Peripheral</t>
+  </si>
+  <si>
+    <t>Integrated Circuit</t>
+  </si>
+  <si>
+    <t>Very Large Scale Integratoin</t>
+  </si>
+  <si>
+    <t>Systems on Chip (SoCs)</t>
+  </si>
+  <si>
+    <t>Energy Consumption</t>
+  </si>
+  <si>
+    <t>Electronic Design Automation</t>
+  </si>
+  <si>
+    <t>Hardware Acceleration</t>
+  </si>
+  <si>
+    <t>Computer Systems Organization</t>
+  </si>
+  <si>
+    <t>Embedded System</t>
+  </si>
+  <si>
+    <t>Real-time Computing</t>
+  </si>
+  <si>
+    <t>Dependability</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Network Architecture</t>
+  </si>
+  <si>
+    <t>Network Protocol</t>
+  </si>
+  <si>
+    <t>Network Component</t>
+  </si>
+  <si>
+    <t>Network Scheduler</t>
+  </si>
+  <si>
+    <t>Network Performance Evaluation</t>
+  </si>
+  <si>
+    <t>Network Service</t>
+  </si>
+  <si>
+    <t>Concurrent Computing</t>
+  </si>
+  <si>
+    <t>Parallel computing</t>
+  </si>
+  <si>
+    <t>Multithreading</t>
+  </si>
+  <si>
+    <t>Multiprocessing</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Rendering</t>
+  </si>
+  <si>
+    <t>Image Manipulation</t>
+  </si>
+  <si>
+    <t>Graphics Processing Unit (GPU)</t>
+  </si>
+  <si>
+    <t>Mixed Reality</t>
+  </si>
+  <si>
+    <t>Virtual Reality (VR)</t>
+  </si>
+  <si>
+    <t>Image Compression</t>
+  </si>
+  <si>
+    <t>Solid Modelling</t>
+  </si>
+  <si>
+    <t>Multi-task Learning</t>
+  </si>
+  <si>
+    <t>Cross-validation</t>
+  </si>
+  <si>
+    <t>Human-Computer Interaction (HCI)</t>
+  </si>
+  <si>
+    <t>Interaction Design</t>
+  </si>
+  <si>
+    <t>Social Computing</t>
+  </si>
+  <si>
+    <t>Ubiquitous Computing</t>
+  </si>
+  <si>
+    <t>Computer Accessibility</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>Cryptogrpahy</t>
+  </si>
+  <si>
+    <t>Formal Method</t>
+  </si>
+  <si>
+    <t>Intrusion Detection System</t>
+  </si>
+  <si>
+    <t>Hardware Security</t>
+  </si>
+  <si>
+    <t>Network Security</t>
+  </si>
+  <si>
+    <t>Application Security</t>
+  </si>
+  <si>
+    <t>Information Security</t>
+  </si>
+  <si>
+    <t>Information System</t>
+  </si>
+  <si>
+    <t>Information Storage System</t>
+  </si>
+  <si>
+    <t>Enterprise Information System</t>
+  </si>
+  <si>
+    <t>Social Information System</t>
+  </si>
+  <si>
+    <t>Geographic Information System</t>
+  </si>
+  <si>
+    <t>Decision Support System</t>
+  </si>
+  <si>
+    <t>Process Control System</t>
+  </si>
+  <si>
+    <t>Multimedia Information System</t>
+  </si>
+  <si>
+    <t>Digital Library</t>
+  </si>
+  <si>
+    <t>Computing Platform</t>
+  </si>
+  <si>
+    <t>Digital marketing</t>
+  </si>
+  <si>
+    <t>World Wide Web (WWW)</t>
+  </si>
+  <si>
+    <t>Information Retrieval</t>
+  </si>
+  <si>
+    <t>Software Organization</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Virtual Machine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2485,7 +3816,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2493,12 +3824,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2581,6 +3936,20 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{384FC172-2003-9A49-A229-7F98A05AFA92}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{0D593B12-CB54-4E47-AAD6-E9C9AA410536}" name="Parent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{248852D6-3F35-494B-9944-FC51E409EC9C}" name="Table4673" displayName="Table4673" ref="A1:B535" totalsRowShown="0">
+  <autoFilter ref="A1:B535" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2">
+    <sortCondition ref="B1:B2"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{687768A8-8DBB-9F45-92E7-9BBC4D09CCE4}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{3B21D5F2-32A1-EA46-BBD5-DC9CCE7B177C}" name="Parent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3026,8 +4395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E440C-1904-894B-9323-83431D3F77DA}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10144,4 +11513,4305 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0B0656-AA58-F348-86C4-3D0196DCA86E}">
+  <dimension ref="A1:B535"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="B535" sqref="B535"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="48.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>812</v>
+      </c>
+      <c r="B6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>814</v>
+      </c>
+      <c r="B8" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>813</v>
+      </c>
+      <c r="B9" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>815</v>
+      </c>
+      <c r="B10" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>817</v>
+      </c>
+      <c r="B13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>819</v>
+      </c>
+      <c r="B15" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>820</v>
+      </c>
+      <c r="B16" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>821</v>
+      </c>
+      <c r="B17" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>822</v>
+      </c>
+      <c r="B18" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>523</v>
+      </c>
+      <c r="B19" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>823</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>824</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>824</v>
+      </c>
+      <c r="B22" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B23" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>827</v>
+      </c>
+      <c r="B24" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>828</v>
+      </c>
+      <c r="B25" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>829</v>
+      </c>
+      <c r="B26" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>830</v>
+      </c>
+      <c r="B27" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>831</v>
+      </c>
+      <c r="B28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>832</v>
+      </c>
+      <c r="B29" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>833</v>
+      </c>
+      <c r="B30" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>834</v>
+      </c>
+      <c r="B31" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>835</v>
+      </c>
+      <c r="B32" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>836</v>
+      </c>
+      <c r="B33" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>837</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>838</v>
+      </c>
+      <c r="B35" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>838</v>
+      </c>
+      <c r="B36" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>656</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>839</v>
+      </c>
+      <c r="B38" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>840</v>
+      </c>
+      <c r="B39" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>841</v>
+      </c>
+      <c r="B40" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>842</v>
+      </c>
+      <c r="B41" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>843</v>
+      </c>
+      <c r="B42" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>844</v>
+      </c>
+      <c r="B43" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>845</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>846</v>
+      </c>
+      <c r="B45" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>847</v>
+      </c>
+      <c r="B46" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>847</v>
+      </c>
+      <c r="B47" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>566</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>848</v>
+      </c>
+      <c r="B49" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>848</v>
+      </c>
+      <c r="B50" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>849</v>
+      </c>
+      <c r="B51" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>850</v>
+      </c>
+      <c r="B52" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>849</v>
+      </c>
+      <c r="B53" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>850</v>
+      </c>
+      <c r="B54" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>851</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>852</v>
+      </c>
+      <c r="B56" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>853</v>
+      </c>
+      <c r="B57" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>455</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>854</v>
+      </c>
+      <c r="B59" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>855</v>
+      </c>
+      <c r="B60" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>559</v>
+      </c>
+      <c r="B61" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>559</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>856</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>857</v>
+      </c>
+      <c r="B66" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>859</v>
+      </c>
+      <c r="B67" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>858</v>
+      </c>
+      <c r="B68" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>860</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>861</v>
+      </c>
+      <c r="B70" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>862</v>
+      </c>
+      <c r="B71" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>863</v>
+      </c>
+      <c r="B72" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>864</v>
+      </c>
+      <c r="B73" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>865</v>
+      </c>
+      <c r="B74" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>866</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>867</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>868</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>869</v>
+      </c>
+      <c r="B78" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>869</v>
+      </c>
+      <c r="B79" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>869</v>
+      </c>
+      <c r="B80" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>578</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>870</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>871</v>
+      </c>
+      <c r="B83" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>872</v>
+      </c>
+      <c r="B84" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>873</v>
+      </c>
+      <c r="B85" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>874</v>
+      </c>
+      <c r="B86" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>875</v>
+      </c>
+      <c r="B87" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>876</v>
+      </c>
+      <c r="B88" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>879</v>
+      </c>
+      <c r="B89" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>878</v>
+      </c>
+      <c r="B90" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>880</v>
+      </c>
+      <c r="B91" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>881</v>
+      </c>
+      <c r="B92" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>882</v>
+      </c>
+      <c r="B93" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>883</v>
+      </c>
+      <c r="B94" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>877</v>
+      </c>
+      <c r="B95" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>884</v>
+      </c>
+      <c r="B96" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>885</v>
+      </c>
+      <c r="B97" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>886</v>
+      </c>
+      <c r="B98" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>887</v>
+      </c>
+      <c r="B99" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>888</v>
+      </c>
+      <c r="B100" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>889</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>593</v>
+      </c>
+      <c r="B102" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>890</v>
+      </c>
+      <c r="B103" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>589</v>
+      </c>
+      <c r="B104" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>891</v>
+      </c>
+      <c r="B105" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>892</v>
+      </c>
+      <c r="B106" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>594</v>
+      </c>
+      <c r="B107" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>893</v>
+      </c>
+      <c r="B108" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>894</v>
+      </c>
+      <c r="B109" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>895</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>895</v>
+      </c>
+      <c r="B111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>809</v>
+      </c>
+      <c r="B112" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>903</v>
+      </c>
+      <c r="B113" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>896</v>
+      </c>
+      <c r="B114" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>896</v>
+      </c>
+      <c r="B115" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>897</v>
+      </c>
+      <c r="B116" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>897</v>
+      </c>
+      <c r="B117" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>897</v>
+      </c>
+      <c r="B118" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>898</v>
+      </c>
+      <c r="B119" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>898</v>
+      </c>
+      <c r="B120" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>899</v>
+      </c>
+      <c r="B121" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>900</v>
+      </c>
+      <c r="B122" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>608</v>
+      </c>
+      <c r="B123" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>901</v>
+      </c>
+      <c r="B124" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>606</v>
+      </c>
+      <c r="B125" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>902</v>
+      </c>
+      <c r="B126" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>608</v>
+      </c>
+      <c r="B127" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>904</v>
+      </c>
+      <c r="B128" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>898</v>
+      </c>
+      <c r="B129" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>905</v>
+      </c>
+      <c r="B130" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>906</v>
+      </c>
+      <c r="B131" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>907</v>
+      </c>
+      <c r="B132" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>899</v>
+      </c>
+      <c r="B133" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>900</v>
+      </c>
+      <c r="B134" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>608</v>
+      </c>
+      <c r="B135" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>901</v>
+      </c>
+      <c r="B136" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>606</v>
+      </c>
+      <c r="B137" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>902</v>
+      </c>
+      <c r="B138" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>608</v>
+      </c>
+      <c r="B139" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>904</v>
+      </c>
+      <c r="B140" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>898</v>
+      </c>
+      <c r="B141" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>905</v>
+      </c>
+      <c r="B142" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>906</v>
+      </c>
+      <c r="B143" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>907</v>
+      </c>
+      <c r="B144" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>908</v>
+      </c>
+      <c r="B145" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>908</v>
+      </c>
+      <c r="B146" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>909</v>
+      </c>
+      <c r="B147" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>910</v>
+      </c>
+      <c r="B148" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>909</v>
+      </c>
+      <c r="B149" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>910</v>
+      </c>
+      <c r="B150" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>28</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>911</v>
+      </c>
+      <c r="B152" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>912</v>
+      </c>
+      <c r="B153" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>913</v>
+      </c>
+      <c r="B154" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>914</v>
+      </c>
+      <c r="B155" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>915</v>
+      </c>
+      <c r="B156" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>916</v>
+      </c>
+      <c r="B157" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>917</v>
+      </c>
+      <c r="B158" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>918</v>
+      </c>
+      <c r="B159" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>919</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>920</v>
+      </c>
+      <c r="B161" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>921</v>
+      </c>
+      <c r="B162" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>920</v>
+      </c>
+      <c r="B163" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>921</v>
+      </c>
+      <c r="B164" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>922</v>
+      </c>
+      <c r="B165" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>923</v>
+      </c>
+      <c r="B166" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>924</v>
+      </c>
+      <c r="B167" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>925</v>
+      </c>
+      <c r="B168" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>926</v>
+      </c>
+      <c r="B169" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>927</v>
+      </c>
+      <c r="B170" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>928</v>
+      </c>
+      <c r="B171" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>929</v>
+      </c>
+      <c r="B172" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>930</v>
+      </c>
+      <c r="B173" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>931</v>
+      </c>
+      <c r="B174" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>932</v>
+      </c>
+      <c r="B175" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>933</v>
+      </c>
+      <c r="B176" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>934</v>
+      </c>
+      <c r="B177" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>935</v>
+      </c>
+      <c r="B178" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>936</v>
+      </c>
+      <c r="B179" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>937</v>
+      </c>
+      <c r="B180" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>935</v>
+      </c>
+      <c r="B181" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>936</v>
+      </c>
+      <c r="B182" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>922</v>
+      </c>
+      <c r="B183" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>938</v>
+      </c>
+      <c r="B184" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>939</v>
+      </c>
+      <c r="B185" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>940</v>
+      </c>
+      <c r="B186" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>941</v>
+      </c>
+      <c r="B187" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>942</v>
+      </c>
+      <c r="B188" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>943</v>
+      </c>
+      <c r="B189" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>944</v>
+      </c>
+      <c r="B190" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>946</v>
+      </c>
+      <c r="B191" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>945</v>
+      </c>
+      <c r="B192" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>947</v>
+      </c>
+      <c r="B193" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>948</v>
+      </c>
+      <c r="B194" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>927</v>
+      </c>
+      <c r="B195" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>949</v>
+      </c>
+      <c r="B196" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>950</v>
+      </c>
+      <c r="B197" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>951</v>
+      </c>
+      <c r="B198" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>952</v>
+      </c>
+      <c r="B199" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>953</v>
+      </c>
+      <c r="B200" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>954</v>
+      </c>
+      <c r="B201" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>930</v>
+      </c>
+      <c r="B202" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>955</v>
+      </c>
+      <c r="B203" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>956</v>
+      </c>
+      <c r="B204" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>957</v>
+      </c>
+      <c r="B205" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>959</v>
+      </c>
+      <c r="B206" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>958</v>
+      </c>
+      <c r="B207" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>960</v>
+      </c>
+      <c r="B208" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>961</v>
+      </c>
+      <c r="B209" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>962</v>
+      </c>
+      <c r="B210" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>963</v>
+      </c>
+      <c r="B211" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>964</v>
+      </c>
+      <c r="B212" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>965</v>
+      </c>
+      <c r="B213" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>966</v>
+      </c>
+      <c r="B214" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>967</v>
+      </c>
+      <c r="B215" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>968</v>
+      </c>
+      <c r="B216" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>969</v>
+      </c>
+      <c r="B217" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>970</v>
+      </c>
+      <c r="B218" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>971</v>
+      </c>
+      <c r="B219" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>972</v>
+      </c>
+      <c r="B220" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>973</v>
+      </c>
+      <c r="B221" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>974</v>
+      </c>
+      <c r="B222" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>975</v>
+      </c>
+      <c r="B223" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>947</v>
+      </c>
+      <c r="B224" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>927</v>
+      </c>
+      <c r="B225" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>976</v>
+      </c>
+      <c r="B226" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>977</v>
+      </c>
+      <c r="B227" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>978</v>
+      </c>
+      <c r="B228" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>979</v>
+      </c>
+      <c r="B229" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>952</v>
+      </c>
+      <c r="B230" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>980</v>
+      </c>
+      <c r="B231" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>954</v>
+      </c>
+      <c r="B232" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>981</v>
+      </c>
+      <c r="B233" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>982</v>
+      </c>
+      <c r="B234" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>983</v>
+      </c>
+      <c r="B235" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>984</v>
+      </c>
+      <c r="B236" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>985</v>
+      </c>
+      <c r="B237" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>930</v>
+      </c>
+      <c r="B238" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>986</v>
+      </c>
+      <c r="B239" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>987</v>
+      </c>
+      <c r="B240" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>988</v>
+      </c>
+      <c r="B241" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>989</v>
+      </c>
+      <c r="B242" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>990</v>
+      </c>
+      <c r="B243" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>991</v>
+      </c>
+      <c r="B244" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>992</v>
+      </c>
+      <c r="B245" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>993</v>
+      </c>
+      <c r="B246" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>994</v>
+      </c>
+      <c r="B247" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>995</v>
+      </c>
+      <c r="B248" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>996</v>
+      </c>
+      <c r="B249" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>146</v>
+      </c>
+      <c r="B250" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>132</v>
+      </c>
+      <c r="B251" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>997</v>
+      </c>
+      <c r="B252" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>998</v>
+      </c>
+      <c r="B253" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>999</v>
+      </c>
+      <c r="B254" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>132</v>
+      </c>
+      <c r="B255" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>997</v>
+      </c>
+      <c r="B256" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B258" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>24</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B260" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B265" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>997</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B270" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B275" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B276" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B277" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B278" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B298" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>25</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B317" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B319" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B337" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B338" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B339" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B362" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>495</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B365" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>439</v>
+      </c>
+      <c r="B368" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B369" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B378" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B380" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B384" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B386" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B387" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B388" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>25</v>
+      </c>
+      <c r="B389" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>655</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>498</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>486</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>493</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B446" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B447" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>502</v>
+      </c>
+      <c r="B448" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B449" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B450" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B451" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B452" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>78</v>
+      </c>
+      <c r="B453" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B454" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B455" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B456" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B457" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B458" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B459" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B460" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>493</v>
+      </c>
+      <c r="B461" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>739</v>
+      </c>
+      <c r="B462" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B463" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B473" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>445</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B478" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>450</v>
+      </c>
+      <c r="B485" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B486" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B487" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>451</v>
+      </c>
+      <c r="B488" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B489" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B490" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B491" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>523</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B500" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B501" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B502" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>31</v>
+      </c>
+      <c r="B508" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B509" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B510" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B511" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B512" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B513" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B514" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B515" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>854</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>454</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B531" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>514</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9892D6BC-8942-9348-860A-B42274A92A47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A98C58-15C1-0942-8A44-6884177A3720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="2" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="15200" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Parent 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="1638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1645">
   <si>
     <t>Skill</t>
   </si>
@@ -4953,6 +4953,27 @@
   </si>
   <si>
     <t>Mathematical Modeling</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>Basic Calculus</t>
+  </si>
+  <si>
+    <t>Cloud Technology</t>
+  </si>
+  <si>
+    <t>Data Cleansing</t>
+  </si>
+  <si>
+    <t>Data Preparation</t>
+  </si>
+  <si>
+    <t>Data Engineering</t>
+  </si>
+  <si>
+    <t>Extract Transform Load (ETL)</t>
   </si>
 </sst>
 </file>
@@ -5126,10 +5147,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{248852D6-3F35-494B-9944-FC51E409EC9C}" name="Table4673" displayName="Table4673" ref="A1:B687" totalsRowShown="0">
-  <autoFilter ref="A1:B687" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B687">
-    <sortCondition ref="B1:B687"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{248852D6-3F35-494B-9944-FC51E409EC9C}" name="Table4673" displayName="Table4673" ref="A1:B696" totalsRowShown="0">
+  <autoFilter ref="A1:B696" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B696">
+    <sortCondition ref="A1:A696"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{687768A8-8DBB-9F45-92E7-9BBC4D09CCE4}" name="Skill"/>
@@ -6944,7 +6965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F7A090-657A-7848-AF08-37C999ED8681}">
   <dimension ref="A1:B619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -15717,10 +15738,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0B0656-AA58-F348-86C4-3D0196DCA86E}">
-  <dimension ref="A1:B687"/>
+  <dimension ref="A1:B696"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="B377" sqref="B377"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15738,655 +15759,655 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>899</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>838</v>
+        <v>964</v>
       </c>
       <c r="B3" t="s">
-        <v>656</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>839</v>
+        <v>1085</v>
       </c>
       <c r="B4" t="s">
-        <v>656</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>840</v>
+        <v>1283</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>841</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
-        <v>656</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>842</v>
+        <v>934</v>
       </c>
       <c r="B7" t="s">
-        <v>656</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>843</v>
+        <v>934</v>
       </c>
       <c r="B8" t="s">
-        <v>656</v>
+        <v>917</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1328</v>
+        <v>1337</v>
       </c>
       <c r="B9" t="s">
-        <v>1329</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1320</v>
+        <v>935</v>
       </c>
       <c r="B10" t="s">
-        <v>1329</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1330</v>
+        <v>935</v>
       </c>
       <c r="B11" t="s">
-        <v>1329</v>
+        <v>917</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1322</v>
+        <v>898</v>
       </c>
       <c r="B12" t="s">
-        <v>1320</v>
+        <v>902</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1324</v>
+        <v>898</v>
       </c>
       <c r="B13" t="s">
-        <v>1320</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1325</v>
+        <v>1036</v>
       </c>
       <c r="B14" t="s">
-        <v>1320</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1326</v>
+        <v>1035</v>
       </c>
       <c r="B15" t="s">
-        <v>1320</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1327</v>
+        <v>523</v>
       </c>
       <c r="B16" t="s">
-        <v>1320</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>1117</v>
+      <c r="A17" t="s">
+        <v>523</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1099</v>
+        <v>1330</v>
       </c>
       <c r="B19" t="s">
-        <v>1068</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>1330</v>
       </c>
       <c r="B20" t="s">
-        <v>1068</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1101</v>
+        <v>1320</v>
       </c>
       <c r="B21" t="s">
-        <v>1068</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1102</v>
+        <v>1320</v>
       </c>
       <c r="B22" t="s">
-        <v>1068</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1107</v>
+        <v>1276</v>
       </c>
       <c r="B23" t="s">
-        <v>1068</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1108</v>
+        <v>1328</v>
       </c>
       <c r="B24" t="s">
-        <v>1068</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1109</v>
+        <v>1315</v>
       </c>
       <c r="B25" t="s">
-        <v>1068</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1110</v>
+        <v>1315</v>
       </c>
       <c r="B26" t="s">
-        <v>1068</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1046</v>
+        <v>534</v>
       </c>
       <c r="B27" t="s">
-        <v>1045</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>486</v>
+        <v>1229</v>
       </c>
       <c r="B28" t="s">
-        <v>1148</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1157</v>
+        <v>936</v>
       </c>
       <c r="B29" t="s">
-        <v>1148</v>
+        <v>917</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1158</v>
+        <v>895</v>
       </c>
       <c r="B30" t="s">
-        <v>1148</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1159</v>
+        <v>895</v>
       </c>
       <c r="B31" t="s">
-        <v>1148</v>
+        <v>902</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>493</v>
+        <v>830</v>
       </c>
       <c r="B32" t="s">
-        <v>1148</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1150</v>
+        <v>845</v>
       </c>
       <c r="B33" t="s">
-        <v>1146</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1151</v>
+        <v>1068</v>
       </c>
       <c r="B34" t="s">
-        <v>1146</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1152</v>
+        <v>1068</v>
       </c>
       <c r="B35" t="s">
-        <v>1146</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>828</v>
+        <v>1284</v>
       </c>
       <c r="B36" t="s">
-        <v>826</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1019</v>
+        <v>1179</v>
       </c>
       <c r="B37" t="s">
-        <v>1018</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1020</v>
+        <v>1045</v>
       </c>
       <c r="B38" t="s">
-        <v>1018</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1313</v>
+        <v>1099</v>
       </c>
       <c r="B39" t="s">
-        <v>1314</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1321</v>
+        <v>1163</v>
       </c>
       <c r="B40" t="s">
-        <v>1314</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>837</v>
-      </c>
-      <c r="B41" t="s">
-        <v>836</v>
+        <v>1148</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>608</v>
-      </c>
-      <c r="B42" t="s">
-        <v>539</v>
+        <v>1146</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>900</v>
+        <v>1180</v>
       </c>
       <c r="B43" t="s">
-        <v>539</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1294</v>
+        <v>1048</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1295</v>
+        <v>1050</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1296</v>
+        <v>1049</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1297</v>
+        <v>1345</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>826</v>
+        <v>1345</v>
       </c>
       <c r="B48" t="s">
-        <v>825</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>827</v>
+        <v>1121</v>
       </c>
       <c r="B49" t="s">
-        <v>825</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>829</v>
+        <v>1063</v>
       </c>
       <c r="B50" t="s">
-        <v>825</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>921</v>
+        <v>1077</v>
       </c>
       <c r="B51" t="s">
-        <v>920</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>922</v>
+        <v>826</v>
       </c>
       <c r="B52" t="s">
-        <v>920</v>
+        <v>825</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>923</v>
+        <v>870</v>
       </c>
       <c r="B53" t="s">
-        <v>920</v>
+        <v>868</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>924</v>
+        <v>1285</v>
       </c>
       <c r="B54" t="s">
-        <v>920</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>925</v>
+        <v>1639</v>
       </c>
       <c r="B55" t="s">
-        <v>920</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>926</v>
+        <v>1096</v>
       </c>
       <c r="B56" t="s">
-        <v>920</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>927</v>
+        <v>1020</v>
       </c>
       <c r="B57" t="s">
-        <v>920</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>928</v>
+        <v>1018</v>
       </c>
       <c r="B58" t="s">
-        <v>920</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>929</v>
+        <v>1019</v>
       </c>
       <c r="B59" t="s">
-        <v>920</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>930</v>
+        <v>1028</v>
       </c>
       <c r="B60" t="s">
-        <v>920</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>931</v>
+        <v>1032</v>
       </c>
       <c r="B61" t="s">
-        <v>920</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>932</v>
+        <v>1316</v>
       </c>
       <c r="B62" t="s">
-        <v>920</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>933</v>
-      </c>
-      <c r="B63" t="s">
-        <v>920</v>
+        <v>1123</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>910</v>
+        <v>1033</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>888</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>917</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>919</v>
+        <v>1064</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>921</v>
+      </c>
+      <c r="B68" t="s">
         <v>920</v>
-      </c>
-      <c r="B68" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1315</v>
+        <v>921</v>
       </c>
       <c r="B69" t="s">
-        <v>1313</v>
+        <v>917</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1077</v>
+        <v>836</v>
       </c>
       <c r="B70" t="s">
-        <v>1072</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1078</v>
+        <v>538</v>
       </c>
       <c r="B71" t="s">
-        <v>1072</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1079</v>
+        <v>540</v>
       </c>
       <c r="B72" t="s">
-        <v>1072</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1081</v>
+        <v>539</v>
       </c>
       <c r="B73" t="s">
-        <v>1072</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1080</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>1072</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="B75" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1083</v>
+        <v>1278</v>
       </c>
       <c r="B76" t="s">
-        <v>1072</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1084</v>
+        <v>1293</v>
       </c>
       <c r="B77" t="s">
-        <v>1072</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>868</v>
+        <v>825</v>
       </c>
       <c r="B78" t="s">
-        <v>869</v>
+        <v>824</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>868</v>
+        <v>1169</v>
       </c>
       <c r="B79" t="s">
-        <v>867</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>656</v>
+        <v>1059</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>844</v>
+        <v>920</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>455</v>
+        <v>920</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>918</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>866</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -16394,423 +16415,423 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>867</v>
+        <v>1263</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>853</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" t="s">
-        <v>3</v>
+        <v>939</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>439</v>
+        <v>919</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>1117</v>
+      <c r="A87" t="s">
+        <v>919</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>917</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1184</v>
+        <v>1640</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1193</v>
+        <v>938</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>917</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1197</v>
+        <v>965</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>910</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>450</v>
+        <v>1313</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1208</v>
+        <v>1072</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1218</v>
+        <v>1078</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>536</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3</v>
+        <v>940</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>445</v>
+        <v>1128</v>
       </c>
       <c r="B96" t="s">
-        <v>1193</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1194</v>
+        <v>1259</v>
       </c>
       <c r="B97" t="s">
-        <v>1193</v>
+        <v>853</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1195</v>
+        <v>869</v>
       </c>
       <c r="B98" t="s">
-        <v>1193</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1196</v>
+        <v>866</v>
       </c>
       <c r="B99" t="s">
-        <v>1193</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1100</v>
+        <v>867</v>
       </c>
       <c r="B100" t="s">
-        <v>439</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>439</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1175</v>
+        <v>1222</v>
       </c>
       <c r="B102" t="s">
-        <v>439</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="B103" t="s">
-        <v>439</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1176</v>
+        <v>1193</v>
       </c>
       <c r="B104" t="s">
-        <v>439</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1177</v>
+        <v>439</v>
       </c>
       <c r="B105" t="s">
-        <v>439</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B106" t="s">
-        <v>439</v>
+        <v>1149</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1179</v>
+        <v>1153</v>
       </c>
       <c r="B107" t="s">
-        <v>439</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1180</v>
+        <v>1240</v>
       </c>
       <c r="B108" t="s">
-        <v>439</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1181</v>
+        <v>1127</v>
       </c>
       <c r="B109" t="s">
-        <v>439</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="B110" t="s">
-        <v>439</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="B111" t="s">
-        <v>439</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>739</v>
+        <v>1204</v>
       </c>
       <c r="B112" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1183</v>
+        <v>904</v>
       </c>
       <c r="B113" t="s">
-        <v>439</v>
+        <v>902</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1163</v>
+        <v>904</v>
       </c>
       <c r="B114" t="s">
-        <v>1149</v>
+        <v>566</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1164</v>
+        <v>1098</v>
       </c>
       <c r="B115" t="s">
-        <v>1149</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1165</v>
+        <v>1111</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>1149</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1166</v>
+        <v>1111</v>
       </c>
       <c r="B117" t="s">
-        <v>1149</v>
+        <v>495</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1167</v>
+        <v>1112</v>
       </c>
       <c r="B118" t="s">
-        <v>1149</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1168</v>
+        <v>1130</v>
       </c>
       <c r="B119" t="s">
-        <v>1149</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1231</v>
+        <v>1021</v>
       </c>
       <c r="B120" t="s">
-        <v>1149</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1204</v>
+        <v>1275</v>
       </c>
       <c r="B121" t="s">
-        <v>450</v>
+        <v>588</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1205</v>
+        <v>941</v>
       </c>
       <c r="B122" t="s">
-        <v>450</v>
+        <v>917</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>451</v>
+        <v>966</v>
       </c>
       <c r="B123" t="s">
-        <v>450</v>
+        <v>910</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="B124" t="s">
-        <v>450</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1207</v>
+        <v>1224</v>
       </c>
       <c r="B125" t="s">
-        <v>450</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1112</v>
+        <v>967</v>
       </c>
       <c r="B126" t="s">
-        <v>1111</v>
+        <v>910</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1113</v>
+        <v>821</v>
       </c>
       <c r="B127" t="s">
-        <v>1111</v>
+        <v>820</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1114</v>
+        <v>589</v>
       </c>
       <c r="B128" t="s">
-        <v>1111</v>
+        <v>888</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1115</v>
+        <v>890</v>
       </c>
       <c r="B129" t="s">
-        <v>1111</v>
+        <v>888</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1002</v>
+        <v>1303</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>824</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>823</v>
+        <v>1303</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>564</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>824</v>
+        <v>1308</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>837</v>
+      </c>
+      <c r="B133" t="s">
         <v>836</v>
-      </c>
-      <c r="B133" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>27</v>
+        <v>837</v>
       </c>
       <c r="B134" t="s">
-        <v>4</v>
+        <v>824</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>837</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1038</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -16818,15 +16839,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>25</v>
+        <v>1641</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1301</v>
+        <v>1643</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
@@ -16834,23 +16855,23 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1331</v>
+        <v>454</v>
       </c>
       <c r="B139" t="s">
-        <v>1344</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1334</v>
+        <v>1642</v>
       </c>
       <c r="B140" t="s">
-        <v>1344</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
       <c r="B141" t="s">
         <v>1344</v>
@@ -16858,71 +16879,71 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1336</v>
+        <v>823</v>
       </c>
       <c r="B142" t="s">
-        <v>1344</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1337</v>
+        <v>844</v>
       </c>
       <c r="B143" t="s">
-        <v>1344</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1338</v>
+        <v>824</v>
       </c>
       <c r="B144" t="s">
-        <v>1344</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1339</v>
+        <v>824</v>
       </c>
       <c r="B145" t="s">
-        <v>1344</v>
+        <v>823</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1340</v>
+        <v>1301</v>
       </c>
       <c r="B146" t="s">
-        <v>1344</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1341</v>
+        <v>455</v>
       </c>
       <c r="B147" t="s">
-        <v>1344</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1342</v>
+        <v>853</v>
       </c>
       <c r="B148" t="s">
-        <v>1344</v>
+        <v>455</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1343</v>
+        <v>853</v>
       </c>
       <c r="B149" t="s">
-        <v>1344</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="B150" t="s">
         <v>1344</v>
@@ -16930,207 +16951,207 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="B151" t="s">
-        <v>1344</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1346</v>
+        <v>1305</v>
       </c>
       <c r="B152" t="s">
-        <v>1344</v>
+        <v>824</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1348</v>
+        <v>1236</v>
       </c>
       <c r="B153" t="s">
-        <v>1344</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1349</v>
+        <v>1061</v>
       </c>
       <c r="B154" t="s">
-        <v>1344</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1350</v>
+        <v>1044</v>
       </c>
       <c r="B155" t="s">
-        <v>1344</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1352</v>
+        <v>495</v>
       </c>
       <c r="B156" t="s">
-        <v>1344</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>824</v>
+        <v>1100</v>
       </c>
       <c r="B157" t="s">
-        <v>823</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1001</v>
+        <v>1100</v>
       </c>
       <c r="B158" t="s">
-        <v>823</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>845</v>
+        <v>1037</v>
       </c>
       <c r="B159" t="s">
-        <v>660</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>846</v>
+        <v>1081</v>
       </c>
       <c r="B160" t="s">
-        <v>660</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>847</v>
+        <v>1196</v>
       </c>
       <c r="B161" t="s">
-        <v>660</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="B162" t="s">
-        <v>824</v>
+        <v>105</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1303</v>
+        <v>145</v>
       </c>
       <c r="B163" t="s">
-        <v>824</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1304</v>
+        <v>1174</v>
       </c>
       <c r="B164" t="s">
-        <v>824</v>
+        <v>78</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1305</v>
+        <v>1239</v>
       </c>
       <c r="B165" t="s">
-        <v>824</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1306</v>
+        <v>1241</v>
       </c>
       <c r="B166" t="s">
-        <v>824</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1307</v>
+        <v>968</v>
       </c>
       <c r="B167" t="s">
-        <v>824</v>
+        <v>910</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1309</v>
+        <v>1073</v>
       </c>
       <c r="B168" t="s">
-        <v>824</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1310</v>
+        <v>451</v>
       </c>
       <c r="B169" t="s">
-        <v>824</v>
+        <v>450</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1311</v>
+        <v>859</v>
       </c>
       <c r="B170" t="s">
-        <v>824</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1318</v>
+        <v>1086</v>
       </c>
       <c r="B171" t="s">
-        <v>824</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>825</v>
-      </c>
-      <c r="B172" t="s">
-        <v>824</v>
+        <v>1253</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>830</v>
+        <v>1260</v>
       </c>
       <c r="B173" t="s">
-        <v>824</v>
+        <v>853</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>831</v>
+        <v>1298</v>
       </c>
       <c r="B174" t="s">
-        <v>824</v>
+        <v>433</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>832</v>
+        <v>922</v>
       </c>
       <c r="B175" t="s">
-        <v>824</v>
+        <v>920</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>833</v>
+        <v>1306</v>
       </c>
       <c r="B176" t="s">
         <v>824</v>
@@ -17138,191 +17159,191 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>834</v>
+        <v>1105</v>
       </c>
       <c r="B177" t="s">
-        <v>824</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>835</v>
+        <v>872</v>
       </c>
       <c r="B178" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>837</v>
+        <v>525</v>
       </c>
       <c r="B179" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>848</v>
+        <v>1191</v>
       </c>
       <c r="B180" t="s">
-        <v>824</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>849</v>
+        <v>1194</v>
       </c>
       <c r="B181" t="s">
-        <v>824</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>853</v>
+        <v>969</v>
       </c>
       <c r="B182" t="s">
-        <v>455</v>
+        <v>910</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>854</v>
+        <v>1190</v>
       </c>
       <c r="B183" t="s">
-        <v>853</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>588</v>
+        <v>942</v>
       </c>
       <c r="B184" t="s">
-        <v>853</v>
+        <v>917</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1257</v>
+        <v>1062</v>
       </c>
       <c r="B185" t="s">
-        <v>853</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1258</v>
+        <v>1233</v>
       </c>
       <c r="B186" t="s">
-        <v>853</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>1259</v>
+      <c r="A187" s="4" t="s">
+        <v>906</v>
       </c>
       <c r="B187" t="s">
-        <v>853</v>
+        <v>902</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1260</v>
+        <v>906</v>
       </c>
       <c r="B188" t="s">
-        <v>853</v>
+        <v>566</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1261</v>
+        <v>548</v>
       </c>
       <c r="B189" t="s">
-        <v>853</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1262</v>
+        <v>1022</v>
       </c>
       <c r="B190" t="s">
-        <v>853</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1263</v>
+        <v>970</v>
       </c>
       <c r="B191" t="s">
-        <v>853</v>
+        <v>910</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1269</v>
+        <v>1154</v>
       </c>
       <c r="B192" t="s">
-        <v>853</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1271</v>
+        <v>1082</v>
       </c>
       <c r="B193" t="s">
-        <v>853</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1100</v>
+        <v>1041</v>
       </c>
       <c r="B194" t="s">
-        <v>495</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1111</v>
+        <v>855</v>
       </c>
       <c r="B195" t="s">
-        <v>495</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1116</v>
+        <v>1051</v>
       </c>
       <c r="B196" t="s">
-        <v>495</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>855</v>
+        <v>1644</v>
       </c>
       <c r="B197" t="s">
-        <v>145</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1087</v>
+        <v>1016</v>
       </c>
       <c r="B198" t="s">
-        <v>1073</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1088</v>
+        <v>1181</v>
       </c>
       <c r="B199" t="s">
-        <v>1073</v>
+        <v>439</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B200" t="s">
         <v>1073</v>
@@ -17330,655 +17351,655 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1090</v>
+        <v>1175</v>
       </c>
       <c r="B201" t="s">
-        <v>1073</v>
+        <v>439</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1091</v>
+        <v>1342</v>
       </c>
       <c r="B202" t="s">
-        <v>1073</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
       <c r="B203" t="s">
-        <v>1073</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1093</v>
+        <v>1001</v>
       </c>
       <c r="B204" t="s">
-        <v>1073</v>
+        <v>823</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1094</v>
+        <v>1300</v>
       </c>
       <c r="B205" t="s">
-        <v>1073</v>
+        <v>433</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1322</v>
+        <v>842</v>
       </c>
       <c r="B206" t="s">
-        <v>1323</v>
+        <v>656</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>860</v>
-      </c>
-      <c r="B207" t="s">
-        <v>859</v>
+        <v>960</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>861</v>
+        <v>1225</v>
       </c>
       <c r="B208" t="s">
-        <v>859</v>
+        <v>31</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>862</v>
+        <v>813</v>
       </c>
       <c r="B209" t="s">
-        <v>859</v>
+        <v>810</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>863</v>
+      <c r="A210" s="4" t="s">
+        <v>813</v>
       </c>
       <c r="B210" t="s">
-        <v>859</v>
+        <v>814</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>864</v>
+        <v>812</v>
       </c>
       <c r="B211" t="s">
-        <v>859</v>
+        <v>810</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1264</v>
+        <v>1286</v>
       </c>
       <c r="B212" t="s">
-        <v>1260</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1045</v>
+        <v>549</v>
       </c>
       <c r="B213" t="s">
-        <v>1041</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1042</v>
+        <v>1010</v>
       </c>
       <c r="B214" t="s">
-        <v>1041</v>
+        <v>146</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1043</v>
+        <v>971</v>
       </c>
       <c r="B215" t="s">
-        <v>1041</v>
+        <v>910</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1044</v>
+        <v>1310</v>
       </c>
       <c r="B216" t="s">
-        <v>1041</v>
+        <v>824</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>856</v>
+        <v>1310</v>
       </c>
       <c r="B217" t="s">
-        <v>855</v>
+        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>858</v>
+        <v>1104</v>
       </c>
       <c r="B218" t="s">
-        <v>855</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>857</v>
+        <v>945</v>
       </c>
       <c r="B219" t="s">
-        <v>855</v>
+        <v>917</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="B220" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1012</v>
+        <v>1030</v>
       </c>
       <c r="B221" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1013</v>
+        <v>1108</v>
       </c>
       <c r="B222" t="s">
-        <v>1010</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1014</v>
+        <v>1235</v>
       </c>
       <c r="B223" t="s">
-        <v>1010</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1174</v>
+        <v>78</v>
       </c>
       <c r="B224" t="s">
-        <v>78</v>
+        <v>439</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1251</v>
+        <v>1318</v>
       </c>
       <c r="B225" t="s">
-        <v>561</v>
+        <v>824</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1280</v>
+        <v>1318</v>
       </c>
       <c r="B226" t="s">
-        <v>1261</v>
+        <v>850</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1281</v>
+        <v>593</v>
       </c>
       <c r="B227" t="s">
-        <v>1261</v>
+        <v>888</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1096</v>
+        <v>892</v>
       </c>
       <c r="B228" t="s">
-        <v>1095</v>
+        <v>888</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1098</v>
+        <v>561</v>
       </c>
       <c r="B229" t="s">
-        <v>1095</v>
+        <v>23</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1097</v>
+        <v>561</v>
       </c>
       <c r="B230" t="s">
-        <v>1095</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>523</v>
+        <v>972</v>
       </c>
       <c r="B231" t="s">
-        <v>1208</v>
+        <v>910</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1209</v>
+        <v>1251</v>
       </c>
       <c r="B232" t="s">
-        <v>1208</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1210</v>
+        <v>944</v>
       </c>
       <c r="B233" t="s">
-        <v>1208</v>
+        <v>917</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1211</v>
+        <v>973</v>
       </c>
       <c r="B234" t="s">
-        <v>1208</v>
+        <v>910</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1212</v>
+        <v>924</v>
       </c>
       <c r="B235" t="s">
-        <v>1208</v>
+        <v>920</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1213</v>
+        <v>1350</v>
       </c>
       <c r="B236" t="s">
-        <v>1208</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1214</v>
+        <v>923</v>
       </c>
       <c r="B237" t="s">
-        <v>1208</v>
+        <v>920</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1215</v>
+        <v>1297</v>
       </c>
       <c r="B238" t="s">
-        <v>1208</v>
+        <v>105</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1185</v>
+        <v>608</v>
       </c>
       <c r="B239" t="s">
-        <v>1184</v>
+        <v>539</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1186</v>
+        <v>608</v>
       </c>
       <c r="B240" t="s">
-        <v>1184</v>
+        <v>552</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1187</v>
+        <v>608</v>
       </c>
       <c r="B241" t="s">
-        <v>1184</v>
+        <v>902</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1188</v>
+        <v>608</v>
       </c>
       <c r="B242" t="s">
-        <v>1184</v>
+        <v>902</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1184</v>
+        <v>1165</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1190</v>
+        <v>1052</v>
       </c>
       <c r="B244" t="s">
-        <v>1184</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1191</v>
+        <v>1255</v>
       </c>
       <c r="B245" t="s">
-        <v>1184</v>
+        <v>588</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1192</v>
+        <v>1261</v>
       </c>
       <c r="B246" t="s">
-        <v>1184</v>
+        <v>853</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1085</v>
+        <v>436</v>
       </c>
       <c r="B247" t="s">
-        <v>1084</v>
+        <v>435</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1086</v>
+        <v>1095</v>
       </c>
       <c r="B248" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="B249" t="s">
-        <v>1218</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="B250" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1221</v>
+        <v>974</v>
       </c>
       <c r="B251" t="s">
-        <v>1218</v>
+        <v>910</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1222</v>
+        <v>946</v>
       </c>
       <c r="B252" t="s">
-        <v>1218</v>
+        <v>910</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1223</v>
+        <v>946</v>
       </c>
       <c r="B253" t="s">
-        <v>1218</v>
+        <v>917</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>132</v>
+        <v>1324</v>
       </c>
       <c r="B254" t="s">
-        <v>146</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>996</v>
+        <v>1322</v>
       </c>
       <c r="B255" t="s">
-        <v>146</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>997</v>
+        <v>1322</v>
       </c>
       <c r="B256" t="s">
-        <v>146</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>998</v>
+        <v>1326</v>
       </c>
       <c r="B257" t="s">
-        <v>146</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1006</v>
+        <v>1326</v>
       </c>
       <c r="B258" t="s">
-        <v>146</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1010</v>
+        <v>1327</v>
       </c>
       <c r="B259" t="s">
-        <v>146</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1015</v>
+        <v>1325</v>
       </c>
       <c r="B260" t="s">
-        <v>146</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1016</v>
+        <v>1184</v>
       </c>
       <c r="B261" t="s">
-        <v>146</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1017</v>
+        <v>1192</v>
       </c>
       <c r="B262" t="s">
-        <v>146</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1018</v>
+        <v>1227</v>
       </c>
       <c r="B263" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>853</v>
+        <v>565</v>
       </c>
       <c r="B264" t="s">
-        <v>1231</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1232</v>
+        <v>833</v>
       </c>
       <c r="B265" t="s">
-        <v>1231</v>
+        <v>824</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1233</v>
+        <v>943</v>
       </c>
       <c r="B266" t="s">
-        <v>1231</v>
+        <v>917</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1234</v>
+        <v>947</v>
       </c>
       <c r="B267" t="s">
-        <v>1231</v>
+        <v>917</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1235</v>
+        <v>1097</v>
       </c>
       <c r="B268" t="s">
-        <v>1231</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1236</v>
+        <v>1084</v>
       </c>
       <c r="B269" t="s">
-        <v>1231</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1237</v>
+        <v>1311</v>
       </c>
       <c r="B270" t="s">
-        <v>1231</v>
+        <v>824</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1238</v>
+        <v>896</v>
       </c>
       <c r="B271" t="s">
-        <v>1231</v>
+        <v>645</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>454</v>
+        <v>896</v>
       </c>
       <c r="B272" t="s">
-        <v>1231</v>
+        <v>647</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1239</v>
+        <v>896</v>
       </c>
       <c r="B273" t="s">
-        <v>1231</v>
+        <v>902</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1240</v>
+        <v>925</v>
       </c>
       <c r="B274" t="s">
-        <v>1231</v>
+        <v>920</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1241</v>
+        <v>1218</v>
       </c>
       <c r="B275" t="s">
-        <v>1231</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1242</v>
+        <v>916</v>
       </c>
       <c r="B276" t="s">
-        <v>1231</v>
+        <v>910</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1243</v>
+        <v>998</v>
       </c>
       <c r="B277" t="s">
-        <v>1231</v>
+        <v>146</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>809</v>
+        <v>926</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>920</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>894</v>
+        <v>926</v>
       </c>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>910</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>911</v>
+        <v>926</v>
       </c>
       <c r="B280" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>912</v>
+        <v>1269</v>
       </c>
       <c r="B281" t="s">
-        <v>910</v>
+        <v>853</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>913</v>
+        <v>975</v>
       </c>
       <c r="B282" t="s">
         <v>910</v>
@@ -17986,231 +18007,231 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>914</v>
+        <v>1214</v>
       </c>
       <c r="B283" t="s">
-        <v>910</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>915</v>
+        <v>1210</v>
       </c>
       <c r="B284" t="s">
-        <v>910</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>916</v>
+        <v>1182</v>
       </c>
       <c r="B285" t="s">
-        <v>910</v>
+        <v>439</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>934</v>
+        <v>1176</v>
       </c>
       <c r="B286" t="s">
-        <v>910</v>
+        <v>439</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>935</v>
+        <v>831</v>
       </c>
       <c r="B287" t="s">
-        <v>910</v>
+        <v>824</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>964</v>
+        <v>1089</v>
       </c>
       <c r="B288" t="s">
-        <v>910</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>965</v>
+        <v>997</v>
       </c>
       <c r="B289" t="s">
-        <v>910</v>
+        <v>146</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>966</v>
+        <v>146</v>
       </c>
       <c r="B290" t="s">
-        <v>910</v>
+        <v>27</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>967</v>
+        <v>1281</v>
       </c>
       <c r="B291" t="s">
-        <v>910</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>968</v>
+        <v>1280</v>
       </c>
       <c r="B292" t="s">
-        <v>910</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>969</v>
+        <v>1243</v>
       </c>
       <c r="B293" t="s">
-        <v>910</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>970</v>
+        <v>1230</v>
       </c>
       <c r="B294" t="s">
-        <v>910</v>
+        <v>31</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>971</v>
+        <v>1232</v>
       </c>
       <c r="B295" t="s">
-        <v>910</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>972</v>
+        <v>1231</v>
       </c>
       <c r="B296" t="s">
-        <v>910</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>973</v>
+        <v>910</v>
       </c>
       <c r="B297" t="s">
-        <v>910</v>
+        <v>28</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>974</v>
+        <v>948</v>
       </c>
       <c r="B298" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>946</v>
+        <v>1187</v>
       </c>
       <c r="B299" t="s">
-        <v>910</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>926</v>
+        <v>871</v>
       </c>
       <c r="B300" t="s">
-        <v>910</v>
+        <v>809</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>975</v>
+        <v>1219</v>
       </c>
       <c r="B301" t="s">
-        <v>910</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>976</v>
+        <v>1170</v>
       </c>
       <c r="B302" t="s">
-        <v>910</v>
+        <v>498</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>977</v>
+        <v>514</v>
       </c>
       <c r="B303" t="s">
-        <v>910</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>978</v>
+        <v>1012</v>
       </c>
       <c r="B304" t="s">
-        <v>910</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>951</v>
+        <v>1226</v>
       </c>
       <c r="B305" t="s">
-        <v>910</v>
+        <v>31</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>979</v>
+        <v>901</v>
       </c>
       <c r="B306" t="s">
-        <v>910</v>
+        <v>552</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>953</v>
+        <v>901</v>
       </c>
       <c r="B307" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>980</v>
+        <v>552</v>
       </c>
       <c r="B308" t="s">
-        <v>910</v>
+        <v>23</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>981</v>
+        <v>564</v>
       </c>
       <c r="B309" t="s">
-        <v>910</v>
+        <v>23</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>982</v>
+        <v>949</v>
       </c>
       <c r="B310" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B311" t="s">
         <v>910</v>
@@ -18218,95 +18239,95 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>984</v>
+        <v>1333</v>
       </c>
       <c r="B312" t="s">
-        <v>910</v>
+        <v>23</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>929</v>
+        <v>1352</v>
       </c>
       <c r="B313" t="s">
-        <v>910</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>985</v>
+        <v>1352</v>
       </c>
       <c r="B314" t="s">
-        <v>910</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>986</v>
+        <v>1352</v>
       </c>
       <c r="B315" t="s">
-        <v>910</v>
+        <v>566</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>987</v>
+        <v>1352</v>
       </c>
       <c r="B316" t="s">
-        <v>910</v>
+        <v>850</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>988</v>
+        <v>909</v>
       </c>
       <c r="B317" t="s">
-        <v>910</v>
+        <v>566</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>989</v>
+        <v>909</v>
       </c>
       <c r="B318" t="s">
-        <v>910</v>
+        <v>809</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>990</v>
+        <v>908</v>
       </c>
       <c r="B319" t="s">
-        <v>910</v>
+        <v>566</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>991</v>
+        <v>908</v>
       </c>
       <c r="B320" t="s">
-        <v>910</v>
+        <v>809</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>992</v>
+        <v>1079</v>
       </c>
       <c r="B321" t="s">
-        <v>910</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>993</v>
+        <v>1066</v>
       </c>
       <c r="B322" t="s">
-        <v>910</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>994</v>
+        <v>914</v>
       </c>
       <c r="B323" t="s">
         <v>910</v>
@@ -18314,655 +18335,655 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>995</v>
-      </c>
-      <c r="B324" t="s">
-        <v>910</v>
+        <v>1252</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>872</v>
+        <v>1258</v>
       </c>
       <c r="B325" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>873</v>
+        <v>1287</v>
       </c>
       <c r="B326" t="s">
-        <v>871</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="B327" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>875</v>
+        <v>1160</v>
       </c>
       <c r="B328" t="s">
-        <v>871</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>878</v>
+        <v>1161</v>
       </c>
       <c r="B329" t="s">
-        <v>871</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>877</v>
+        <v>1131</v>
       </c>
       <c r="B330" t="s">
-        <v>871</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>879</v>
+        <v>991</v>
       </c>
       <c r="B331" t="s">
-        <v>871</v>
+        <v>910</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>880</v>
+        <v>990</v>
       </c>
       <c r="B332" t="s">
-        <v>871</v>
+        <v>910</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>881</v>
+        <v>827</v>
       </c>
       <c r="B333" t="s">
-        <v>871</v>
+        <v>825</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>882</v>
+        <v>1638</v>
       </c>
       <c r="B334" t="s">
-        <v>871</v>
+        <v>77</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>876</v>
+        <v>1090</v>
       </c>
       <c r="B335" t="s">
-        <v>871</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>883</v>
+        <v>1024</v>
       </c>
       <c r="B336" t="s">
-        <v>871</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>606</v>
+        <v>1024</v>
       </c>
       <c r="B337" t="s">
-        <v>552</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>901</v>
+        <v>977</v>
       </c>
       <c r="B338" t="s">
-        <v>552</v>
+        <v>910</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>608</v>
+        <v>1288</v>
       </c>
       <c r="B339" t="s">
-        <v>552</v>
+        <v>23</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1319</v>
+        <v>1031</v>
       </c>
       <c r="B340" t="s">
-        <v>552</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1330</v>
+        <v>1031</v>
       </c>
       <c r="B341" t="s">
-        <v>552</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1303</v>
+        <v>1106</v>
       </c>
       <c r="B342" t="s">
-        <v>564</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1310</v>
+        <v>1341</v>
       </c>
       <c r="B343" t="s">
-        <v>564</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1352</v>
+        <v>978</v>
       </c>
       <c r="B344" t="s">
-        <v>1333</v>
+        <v>910</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1279</v>
+        <v>25</v>
       </c>
       <c r="B345" t="s">
-        <v>1258</v>
+        <v>443</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1025</v>
+        <v>25</v>
       </c>
       <c r="B346" t="s">
-        <v>1024</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1024</v>
+        <v>1147</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1027</v>
+        <v>1321</v>
       </c>
       <c r="B348" t="s">
-        <v>1024</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1028</v>
+        <v>1272</v>
       </c>
       <c r="B349" t="s">
-        <v>1024</v>
+        <v>854</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1117</v>
+        <v>1004</v>
       </c>
       <c r="B350" t="s">
-        <v>302</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>895</v>
+        <v>1317</v>
       </c>
       <c r="B351" t="s">
-        <v>645</v>
+        <v>87</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>896</v>
+        <v>1317</v>
       </c>
       <c r="B352" t="s">
-        <v>645</v>
+        <v>809</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1056</v>
+        <v>848</v>
       </c>
       <c r="B353" t="s">
-        <v>25</v>
+        <v>824</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1058</v>
+        <v>848</v>
       </c>
       <c r="B354" t="s">
-        <v>25</v>
+        <v>566</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1074</v>
+        <v>606</v>
       </c>
       <c r="B355" t="s">
-        <v>25</v>
+        <v>552</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1075</v>
+        <v>606</v>
       </c>
       <c r="B356" t="s">
-        <v>25</v>
+        <v>902</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="B357" t="s">
-        <v>25</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1068</v>
+        <v>856</v>
       </c>
       <c r="B358" t="s">
-        <v>25</v>
+        <v>855</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1216</v>
+        <v>858</v>
       </c>
       <c r="B359" t="s">
-        <v>25</v>
+        <v>855</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1217</v>
+        <v>857</v>
       </c>
       <c r="B360" t="s">
-        <v>25</v>
+        <v>855</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1316</v>
+        <v>950</v>
       </c>
       <c r="B361" t="s">
-        <v>25</v>
+        <v>917</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1319</v>
+        <v>594</v>
       </c>
       <c r="B362" t="s">
-        <v>25</v>
+        <v>888</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>1336</v>
+        <v>951</v>
       </c>
       <c r="B363" t="s">
-        <v>25</v>
+        <v>910</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1345</v>
+        <v>951</v>
       </c>
       <c r="B364" t="s">
-        <v>25</v>
+        <v>917</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>1346</v>
+        <v>810</v>
       </c>
       <c r="B365" t="s">
-        <v>25</v>
+        <v>808</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>1348</v>
+        <v>808</v>
       </c>
       <c r="B366" t="s">
-        <v>25</v>
+        <v>809</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1153</v>
+        <v>927</v>
       </c>
       <c r="B367" t="s">
-        <v>1147</v>
+        <v>920</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>1154</v>
+        <v>928</v>
       </c>
       <c r="B368" t="s">
-        <v>1147</v>
+        <v>920</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1156</v>
+        <v>1304</v>
       </c>
       <c r="B369" t="s">
-        <v>1147</v>
+        <v>824</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>1155</v>
+        <v>820</v>
       </c>
       <c r="B370" t="s">
-        <v>1147</v>
+        <v>808</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>896</v>
+        <v>814</v>
       </c>
       <c r="B371" t="s">
-        <v>647</v>
+        <v>808</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1320</v>
+        <v>1245</v>
       </c>
       <c r="B372" t="s">
-        <v>1321</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1326</v>
+        <v>952</v>
       </c>
       <c r="B373" t="s">
-        <v>1321</v>
+        <v>917</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1003</v>
+        <v>979</v>
       </c>
       <c r="B374" t="s">
-        <v>1004</v>
+        <v>910</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1004</v>
+        <v>1212</v>
       </c>
       <c r="B375" t="s">
-        <v>8</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>105</v>
+        <v>554</v>
       </c>
       <c r="B376" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1317</v>
+        <v>1343</v>
       </c>
       <c r="B377" t="s">
-        <v>87</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>811</v>
+        <v>1348</v>
       </c>
       <c r="B378" t="s">
-        <v>810</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>812</v>
+        <v>1348</v>
       </c>
       <c r="B379" t="s">
-        <v>810</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>813</v>
+        <v>1264</v>
       </c>
       <c r="B380" t="s">
-        <v>810</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>810</v>
+        <v>1267</v>
       </c>
       <c r="B381" t="s">
-        <v>808</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>814</v>
+        <v>1265</v>
       </c>
       <c r="B382" t="s">
-        <v>808</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>820</v>
+        <v>1266</v>
       </c>
       <c r="B383" t="s">
-        <v>808</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>821</v>
+        <v>1177</v>
       </c>
       <c r="B384" t="s">
-        <v>820</v>
+        <v>439</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>822</v>
+        <v>1054</v>
       </c>
       <c r="B385" t="s">
-        <v>820</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>523</v>
+        <v>1271</v>
       </c>
       <c r="B386" t="s">
-        <v>820</v>
+        <v>853</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>813</v>
+        <v>1150</v>
       </c>
       <c r="B387" t="s">
-        <v>814</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>815</v>
+        <v>1262</v>
       </c>
       <c r="B388" t="s">
-        <v>814</v>
+        <v>853</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>816</v>
+        <v>1216</v>
       </c>
       <c r="B389" t="s">
-        <v>814</v>
+        <v>25</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
-        <v>525</v>
+      <c r="A390" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="B390" t="s">
-        <v>814</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>817</v>
+      <c r="A391" s="4" t="s">
+        <v>1238</v>
       </c>
       <c r="B391" t="s">
-        <v>814</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>818</v>
+        <v>1207</v>
       </c>
       <c r="B392" t="s">
-        <v>814</v>
+        <v>450</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>819</v>
+        <v>1206</v>
       </c>
       <c r="B393" t="s">
-        <v>814</v>
+        <v>450</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1265</v>
+        <v>1295</v>
       </c>
       <c r="B394" t="s">
-        <v>1264</v>
+        <v>105</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1266</v>
+        <v>1274</v>
       </c>
       <c r="B395" t="s">
-        <v>1264</v>
+        <v>854</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1267</v>
+        <v>1122</v>
       </c>
       <c r="B396" t="s">
-        <v>1264</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1123</v>
+        <v>1067</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1122</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1116</v>
+        <v>1159</v>
       </c>
       <c r="B399" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B400" t="s">
+      <c r="B400" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1117</v>
+      <c r="B401" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B402" s="1" t="s">
         <v>1117</v>
+      </c>
+      <c r="B402" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B403" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B403" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>1117</v>
+        <v>1351</v>
+      </c>
+      <c r="B404" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>1147</v>
+        <v>498</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>1117</v>
@@ -18970,199 +18991,199 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>1117</v>
+        <v>874</v>
+      </c>
+      <c r="B406" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>1117</v>
+        <v>953</v>
+      </c>
+      <c r="B407" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>1117</v>
+        <v>953</v>
+      </c>
+      <c r="B408" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>498</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>1117</v>
+        <v>1197</v>
+      </c>
+      <c r="B409" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>1351</v>
+        <v>1198</v>
       </c>
       <c r="B410" t="s">
-        <v>1117</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1169</v>
+        <v>1200</v>
       </c>
       <c r="B411" t="s">
-        <v>498</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B412" t="s">
-        <v>498</v>
+        <v>1202</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>502</v>
+        <v>1199</v>
       </c>
       <c r="B413" t="s">
-        <v>498</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B414" t="s">
-        <v>498</v>
+        <v>1201</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>1172</v>
+        <v>1228</v>
       </c>
       <c r="B415" t="s">
-        <v>498</v>
+        <v>31</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B416" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B416" s="4" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>1199</v>
+        <v>1155</v>
       </c>
       <c r="B417" t="s">
-        <v>1197</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1200</v>
+        <v>980</v>
       </c>
       <c r="B418" t="s">
-        <v>1197</v>
+        <v>910</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1201</v>
+        <v>981</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1197</v>
+        <v>910</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>1202</v>
+        <v>1249</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>1197</v>
+        <v>23</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>1203</v>
+        <v>1178</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>1197</v>
+        <v>439</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1252</v>
+        <v>1091</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>588</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>1253</v>
+        <v>1029</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>588</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1254</v>
+        <v>860</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>588</v>
+        <v>859</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B425" t="s">
         <v>588</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>585</v>
-      </c>
-      <c r="B426" t="s">
-        <v>588</v>
+        <v>899</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B427" t="s">
-        <v>588</v>
+        <v>899</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1275</v>
+        <v>846</v>
       </c>
       <c r="B428" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1276</v>
+        <v>846</v>
       </c>
       <c r="B429" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1277</v>
+        <v>585</v>
       </c>
       <c r="B430" t="s">
         <v>588</v>
@@ -19170,207 +19191,207 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1278</v>
+        <v>1257</v>
       </c>
       <c r="B431" t="s">
-        <v>588</v>
+        <v>853</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1268</v>
+        <v>1299</v>
       </c>
       <c r="B432" t="s">
-        <v>1257</v>
+        <v>433</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1273</v>
+        <v>1289</v>
       </c>
       <c r="B433" t="s">
-        <v>1257</v>
+        <v>23</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1277</v>
+        <v>1133</v>
       </c>
       <c r="B434" t="s">
-        <v>1268</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>895</v>
+        <v>982</v>
       </c>
       <c r="B435" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>896</v>
+        <v>983</v>
       </c>
       <c r="B436" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>897</v>
+        <v>955</v>
       </c>
       <c r="B437" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>898</v>
+        <v>956</v>
       </c>
       <c r="B438" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>899</v>
+        <v>984</v>
       </c>
       <c r="B439" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>608</v>
+        <v>1246</v>
       </c>
       <c r="B440" t="s">
-        <v>902</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>900</v>
+        <v>493</v>
       </c>
       <c r="B441" t="s">
-        <v>902</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>606</v>
+        <v>493</v>
       </c>
       <c r="B442" t="s">
-        <v>902</v>
+        <v>439</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>901</v>
+        <v>1268</v>
       </c>
       <c r="B443" t="s">
-        <v>902</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>608</v>
+        <v>1268</v>
       </c>
       <c r="B444" t="s">
-        <v>902</v>
+        <v>854</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>903</v>
+        <v>929</v>
       </c>
       <c r="B445" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>897</v>
+        <v>929</v>
       </c>
       <c r="B446" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>904</v>
+        <v>929</v>
       </c>
       <c r="B447" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448" s="4" t="s">
-        <v>905</v>
+      <c r="A448" t="s">
+        <v>875</v>
       </c>
       <c r="B448" t="s">
-        <v>902</v>
+        <v>871</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="4" t="s">
-        <v>906</v>
+      <c r="A449" t="s">
+        <v>1277</v>
       </c>
       <c r="B449" t="s">
-        <v>902</v>
+        <v>588</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>907</v>
+        <v>1277</v>
       </c>
       <c r="B450" t="s">
-        <v>902</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B451" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="B452" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>935</v>
+        <v>1080</v>
       </c>
       <c r="B453" t="s">
-        <v>917</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>936</v>
+        <v>1026</v>
       </c>
       <c r="B454" t="s">
-        <v>917</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>921</v>
+        <v>985</v>
       </c>
       <c r="B455" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="B456" t="s">
         <v>917</v>
@@ -19378,335 +19399,335 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>938</v>
+        <v>992</v>
       </c>
       <c r="B457" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>939</v>
-      </c>
-      <c r="B458" s="4" t="s">
-        <v>917</v>
+        <v>1162</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>940</v>
-      </c>
-      <c r="B459" s="4" t="s">
-        <v>917</v>
+        <v>902</v>
+      </c>
+      <c r="B459" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>941</v>
+      <c r="A460" s="4" t="s">
+        <v>815</v>
       </c>
       <c r="B460" t="s">
-        <v>917</v>
+        <v>814</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>942</v>
+        <v>847</v>
       </c>
       <c r="B461" t="s">
-        <v>917</v>
+        <v>660</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>943</v>
+        <v>847</v>
       </c>
       <c r="B462" t="s">
-        <v>917</v>
+        <v>566</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>945</v>
+        <v>1205</v>
       </c>
       <c r="B463" t="s">
-        <v>917</v>
+        <v>450</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>944</v>
+        <v>1014</v>
       </c>
       <c r="B464" t="s">
-        <v>917</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>946</v>
+        <v>655</v>
       </c>
       <c r="B465" t="s">
-        <v>917</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>947</v>
+        <v>1134</v>
       </c>
       <c r="B466" t="s">
-        <v>917</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>926</v>
+        <v>1046</v>
       </c>
       <c r="B467" t="s">
-        <v>917</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>948</v>
+        <v>537</v>
       </c>
       <c r="B468" t="s">
-        <v>917</v>
+        <v>23</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>949</v>
+        <v>1339</v>
       </c>
       <c r="B469" t="s">
-        <v>917</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>950</v>
+        <v>1069</v>
       </c>
       <c r="B470" t="s">
-        <v>917</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>951</v>
+        <v>1186</v>
       </c>
       <c r="B471" t="s">
-        <v>917</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>952</v>
+        <v>556</v>
       </c>
       <c r="B472" t="s">
-        <v>917</v>
+        <v>23</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>953</v>
+        <v>557</v>
       </c>
       <c r="B473" t="s">
-        <v>917</v>
+        <v>23</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>929</v>
+        <v>829</v>
       </c>
       <c r="B474" t="s">
-        <v>917</v>
+        <v>825</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>954</v>
+        <v>897</v>
       </c>
       <c r="B475" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>955</v>
+        <v>897</v>
       </c>
       <c r="B476" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>956</v>
+        <v>897</v>
       </c>
       <c r="B477" t="s">
-        <v>917</v>
+        <v>566</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>958</v>
+        <v>897</v>
       </c>
       <c r="B478" t="s">
-        <v>917</v>
+        <v>566</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>957</v>
+        <v>811</v>
       </c>
       <c r="B479" t="s">
-        <v>917</v>
+        <v>810</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>959</v>
-      </c>
-      <c r="B480" s="4" t="s">
         <v>917</v>
+      </c>
+      <c r="B480" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>960</v>
-      </c>
-      <c r="B481" s="4" t="s">
-        <v>917</v>
+        <v>1307</v>
+      </c>
+      <c r="B481" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>961</v>
-      </c>
-      <c r="B482" s="4" t="s">
-        <v>917</v>
+        <v>1307</v>
+      </c>
+      <c r="B482" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>962</v>
-      </c>
-      <c r="B483" s="4" t="s">
-        <v>917</v>
+        <v>1011</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>963</v>
-      </c>
-      <c r="B484" s="4" t="s">
-        <v>917</v>
+        <v>864</v>
+      </c>
+      <c r="B484" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1308</v>
+        <v>1034</v>
       </c>
       <c r="B485" t="s">
-        <v>1307</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>132</v>
-      </c>
-      <c r="B486" s="4" t="s">
-        <v>26</v>
+        <v>1007</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>996</v>
+        <v>1273</v>
       </c>
       <c r="B487" t="s">
-        <v>26</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>566</v>
+        <v>1273</v>
       </c>
       <c r="B488" t="s">
-        <v>23</v>
+        <v>854</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>850</v>
+        <v>1166</v>
       </c>
       <c r="B489" t="s">
-        <v>23</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>559</v>
+        <v>1092</v>
       </c>
       <c r="B490" t="s">
-        <v>23</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>578</v>
+        <v>1185</v>
       </c>
       <c r="B491" t="s">
-        <v>23</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>869</v>
+        <v>996</v>
       </c>
       <c r="B492" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>568</v>
+        <v>996</v>
       </c>
       <c r="B493" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>538</v>
+        <v>996</v>
       </c>
       <c r="B494" t="s">
-        <v>23</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1248</v>
+        <v>132</v>
       </c>
       <c r="B495" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B496" t="s">
-        <v>23</v>
+        <v>132</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="B497" t="s">
-        <v>23</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B498" t="s">
         <v>23</v>
@@ -19714,71 +19735,71 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>567</v>
+        <v>1093</v>
       </c>
       <c r="B499" t="s">
-        <v>23</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1283</v>
+        <v>843</v>
       </c>
       <c r="B500" t="s">
-        <v>23</v>
+        <v>656</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>534</v>
+        <v>879</v>
       </c>
       <c r="B501" t="s">
-        <v>23</v>
+        <v>871</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1284</v>
+        <v>880</v>
       </c>
       <c r="B502" t="s">
-        <v>23</v>
+        <v>871</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1285</v>
+        <v>903</v>
       </c>
       <c r="B503" t="s">
-        <v>23</v>
+        <v>902</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>539</v>
+        <v>903</v>
       </c>
       <c r="B504" t="s">
-        <v>23</v>
+        <v>566</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
-        <v>540</v>
+      <c r="A505" s="4" t="s">
+        <v>905</v>
       </c>
       <c r="B505" t="s">
-        <v>23</v>
+        <v>902</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>536</v>
+        <v>905</v>
       </c>
       <c r="B506" t="s">
-        <v>23</v>
+        <v>566</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B507" t="s">
         <v>23</v>
@@ -19786,55 +19807,55 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>548</v>
+        <v>958</v>
       </c>
       <c r="B508" t="s">
-        <v>23</v>
+        <v>917</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1286</v>
+        <v>1118</v>
       </c>
       <c r="B509" t="s">
-        <v>23</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>549</v>
+        <v>1302</v>
       </c>
       <c r="B510" t="s">
-        <v>23</v>
+        <v>824</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>565</v>
+        <v>1338</v>
       </c>
       <c r="B511" t="s">
-        <v>23</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="B512" t="s">
-        <v>23</v>
+        <v>498</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>564</v>
+        <v>891</v>
       </c>
       <c r="B513" t="s">
-        <v>23</v>
+        <v>888</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1287</v>
+        <v>850</v>
       </c>
       <c r="B514" t="s">
         <v>23</v>
@@ -19842,727 +19863,727 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1288</v>
+        <v>852</v>
       </c>
       <c r="B515" t="s">
-        <v>23</v>
+        <v>850</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>554</v>
+        <v>930</v>
       </c>
       <c r="B516" t="s">
-        <v>23</v>
+        <v>920</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1289</v>
+        <v>986</v>
       </c>
       <c r="B517" t="s">
-        <v>23</v>
+        <v>910</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>537</v>
+        <v>1065</v>
       </c>
       <c r="B518" t="s">
-        <v>23</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>556</v>
+        <v>1335</v>
       </c>
       <c r="B519" t="s">
-        <v>23</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>557</v>
+        <v>1195</v>
       </c>
       <c r="B520" t="s">
-        <v>23</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>560</v>
+        <v>1102</v>
       </c>
       <c r="B521" t="s">
-        <v>23</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>562</v>
+        <v>1060</v>
       </c>
       <c r="B522" t="s">
-        <v>23</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>559</v>
+        <v>1002</v>
       </c>
       <c r="B523" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1290</v>
+        <v>1005</v>
       </c>
       <c r="B524" t="s">
-        <v>23</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>1291</v>
+        <v>1023</v>
       </c>
       <c r="B525" t="s">
-        <v>23</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>1292</v>
+        <v>1076</v>
       </c>
       <c r="B526" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>563</v>
+        <v>854</v>
       </c>
       <c r="B527" t="s">
-        <v>23</v>
+        <v>853</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>1333</v>
+        <v>1070</v>
       </c>
       <c r="B528" t="s">
-        <v>23</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>846</v>
+        <v>739</v>
       </c>
       <c r="B529" t="s">
-        <v>566</v>
+        <v>439</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>847</v>
+        <v>1209</v>
       </c>
       <c r="B530" t="s">
-        <v>566</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="B531" t="s">
-        <v>566</v>
+        <v>656</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>849</v>
+        <v>1107</v>
       </c>
       <c r="B532" t="s">
-        <v>566</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="B533" t="s">
-        <v>566</v>
+        <v>884</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>898</v>
+        <v>1279</v>
       </c>
       <c r="B534" t="s">
-        <v>566</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>903</v>
+        <v>957</v>
       </c>
       <c r="B535" t="s">
-        <v>566</v>
+        <v>917</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>897</v>
+        <v>1183</v>
       </c>
       <c r="B536" t="s">
-        <v>566</v>
+        <v>439</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="B537" t="s">
-        <v>566</v>
+        <v>871</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>905</v>
+        <v>567</v>
       </c>
       <c r="B538" t="s">
-        <v>566</v>
+        <v>23</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>906</v>
+        <v>1282</v>
       </c>
       <c r="B539" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B540" t="s">
-        <v>566</v>
+        <v>902</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B541" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1307</v>
+        <v>1156</v>
       </c>
       <c r="B542" t="s">
-        <v>566</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1352</v>
+        <v>562</v>
       </c>
       <c r="B543" t="s">
-        <v>566</v>
+        <v>23</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1351</v>
+        <v>987</v>
       </c>
       <c r="B544" t="s">
-        <v>566</v>
+        <v>910</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>851</v>
+        <v>931</v>
       </c>
       <c r="B545" t="s">
-        <v>850</v>
+        <v>920</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="B546" t="s">
-        <v>850</v>
+        <v>27</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1318</v>
+        <v>1008</v>
       </c>
       <c r="B547" t="s">
-        <v>850</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B548" t="s">
-        <v>850</v>
+        <v>961</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1103</v>
+        <v>1349</v>
       </c>
       <c r="B549" t="s">
-        <v>1102</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>1104</v>
+        <v>1312</v>
       </c>
       <c r="B550" t="s">
-        <v>1102</v>
+        <v>809</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>1105</v>
+        <v>1312</v>
       </c>
       <c r="B551" t="s">
-        <v>1102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>1106</v>
+        <v>568</v>
       </c>
       <c r="B552" t="s">
-        <v>1102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1002</v>
+        <v>959</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>1022</v>
+        <v>832</v>
       </c>
       <c r="B554" t="s">
-        <v>1002</v>
+        <v>824</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>1023</v>
+        <v>578</v>
       </c>
       <c r="B555" t="s">
-        <v>1002</v>
+        <v>23</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>1024</v>
+        <v>849</v>
       </c>
       <c r="B556" t="s">
-        <v>1002</v>
+        <v>824</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>1029</v>
+        <v>849</v>
       </c>
       <c r="B557" t="s">
-        <v>1002</v>
+        <v>566</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>1030</v>
+        <v>31</v>
       </c>
       <c r="B558" t="s">
-        <v>1002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>1031</v>
+        <v>840</v>
       </c>
       <c r="B559" t="s">
-        <v>1002</v>
+        <v>656</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>1032</v>
+        <v>1110</v>
       </c>
       <c r="B560" t="s">
-        <v>1002</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>1033</v>
+        <v>1109</v>
       </c>
       <c r="B561" t="s">
-        <v>1002</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>1034</v>
+        <v>1135</v>
       </c>
       <c r="B562" t="s">
-        <v>1002</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>1035</v>
+        <v>1151</v>
       </c>
       <c r="B563" t="s">
-        <v>1002</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>1036</v>
+        <v>1141</v>
       </c>
       <c r="B564" t="s">
-        <v>1002</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>1037</v>
+        <v>1136</v>
       </c>
       <c r="B565" t="s">
-        <v>1002</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>1118</v>
+        <v>839</v>
       </c>
       <c r="B566" t="s">
-        <v>1076</v>
+        <v>656</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>1119</v>
+        <v>1290</v>
       </c>
       <c r="B567" t="s">
-        <v>1076</v>
+        <v>23</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="B568" t="s">
-        <v>1076</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>559</v>
+        <v>1025</v>
       </c>
       <c r="B569" t="s">
-        <v>854</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>1270</v>
+        <v>1291</v>
       </c>
       <c r="B570" t="s">
-        <v>854</v>
+        <v>23</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>1272</v>
+        <v>1309</v>
       </c>
       <c r="B571" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>1268</v>
+        <v>861</v>
       </c>
       <c r="B572" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>1273</v>
+        <v>1292</v>
       </c>
       <c r="B573" t="s">
-        <v>854</v>
+        <v>23</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>1274</v>
+        <v>817</v>
       </c>
       <c r="B574" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>907</v>
+        <v>1220</v>
       </c>
       <c r="B575" t="s">
-        <v>567</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>1282</v>
+        <v>1234</v>
       </c>
       <c r="B576" t="s">
-        <v>567</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>868</v>
+        <v>988</v>
       </c>
       <c r="B577" t="s">
-        <v>578</v>
+        <v>910</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1224</v>
+        <v>809</v>
       </c>
       <c r="B578" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>1225</v>
+        <v>809</v>
       </c>
       <c r="B579" t="s">
-        <v>31</v>
+        <v>433</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>1226</v>
+        <v>918</v>
       </c>
       <c r="B580" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>1227</v>
+        <v>1244</v>
       </c>
       <c r="B581" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>1228</v>
+        <v>1332</v>
       </c>
       <c r="B582" t="s">
-        <v>31</v>
+        <v>894</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>1230</v>
+        <v>894</v>
       </c>
       <c r="B583" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>1229</v>
+        <v>894</v>
       </c>
       <c r="B584" t="s">
-        <v>31</v>
+        <v>433</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>808</v>
+        <v>1215</v>
       </c>
       <c r="B585" t="s">
-        <v>809</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="B586" t="s">
-        <v>809</v>
+        <v>884</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="B587" t="s">
-        <v>809</v>
+        <v>884</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>909</v>
+        <v>1114</v>
       </c>
       <c r="B588" t="s">
-        <v>809</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>1312</v>
+        <v>1042</v>
       </c>
       <c r="B589" t="s">
-        <v>809</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1317</v>
+        <v>486</v>
       </c>
       <c r="B590" t="s">
-        <v>809</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>920</v>
+        <v>1157</v>
       </c>
       <c r="B591" t="s">
-        <v>918</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>884</v>
+        <v>1158</v>
       </c>
       <c r="B592" t="s">
-        <v>433</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>894</v>
+        <v>1167</v>
       </c>
       <c r="B593" t="s">
-        <v>433</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>809</v>
+        <v>1331</v>
       </c>
       <c r="B594" t="s">
-        <v>433</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1298</v>
+        <v>1331</v>
       </c>
       <c r="B595" t="s">
-        <v>433</v>
+        <v>27</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>1299</v>
+        <v>881</v>
       </c>
       <c r="B596" t="s">
-        <v>433</v>
+        <v>871</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>1300</v>
+        <v>559</v>
       </c>
       <c r="B597" t="s">
-        <v>433</v>
+        <v>23</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>514</v>
+        <v>559</v>
       </c>
       <c r="B598" t="s">
-        <v>1244</v>
+        <v>23</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1245</v>
+        <v>559</v>
       </c>
       <c r="B599" t="s">
-        <v>1244</v>
+        <v>854</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>1247</v>
+        <v>559</v>
       </c>
       <c r="B600" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>1246</v>
+        <v>828</v>
       </c>
       <c r="B601" t="s">
-        <v>1244</v>
+        <v>826</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>902</v>
+        <v>1334</v>
       </c>
       <c r="B602" t="s">
-        <v>894</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B603" t="s">
-        <v>894</v>
+        <v>27</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>1005</v>
+        <v>1119</v>
       </c>
       <c r="B604" t="s">
-        <v>1003</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B605" t="s">
         <v>1006</v>
@@ -20570,255 +20591,255 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="B606" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B607" t="s">
-        <v>1006</v>
+        <v>27</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B608" t="s">
-        <v>1006</v>
+        <v>146</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="B609" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>859</v>
+        <v>1137</v>
       </c>
       <c r="B610" t="s">
-        <v>27</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>865</v>
-      </c>
-      <c r="B611" t="s">
-        <v>27</v>
+        <v>1125</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>146</v>
+        <v>1074</v>
       </c>
       <c r="B612" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>1003</v>
+        <v>1248</v>
       </c>
       <c r="B613" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>1293</v>
+        <v>1017</v>
       </c>
       <c r="B614" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>1312</v>
+        <v>889</v>
       </c>
       <c r="B615" t="s">
-        <v>27</v>
+        <v>888</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1331</v>
+        <v>1055</v>
       </c>
       <c r="B616" t="s">
-        <v>27</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>1334</v>
+        <v>1056</v>
       </c>
       <c r="B617" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>1315</v>
+        <v>1071</v>
       </c>
       <c r="B618" t="s">
-        <v>1347</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>1095</v>
+        <v>563</v>
       </c>
       <c r="B619" t="s">
-        <v>1074</v>
+        <v>23</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>559</v>
+        <v>1270</v>
       </c>
       <c r="B620" t="s">
-        <v>1248</v>
+        <v>854</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>1055</v>
+        <v>1168</v>
       </c>
       <c r="B621" t="s">
-        <v>1056</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1059</v>
+        <v>1189</v>
       </c>
       <c r="B622" t="s">
-        <v>1056</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>1060</v>
+        <v>1094</v>
       </c>
       <c r="B623" t="s">
-        <v>1056</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>1061</v>
+        <v>835</v>
       </c>
       <c r="B624" t="s">
-        <v>1056</v>
+        <v>824</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>1062</v>
+        <v>1256</v>
       </c>
       <c r="B625" t="s">
-        <v>1056</v>
+        <v>588</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>1063</v>
+        <v>822</v>
       </c>
       <c r="B626" t="s">
-        <v>1056</v>
+        <v>820</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>1064</v>
+        <v>816</v>
       </c>
       <c r="B627" t="s">
-        <v>1056</v>
+        <v>814</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>1065</v>
+        <v>1120</v>
       </c>
       <c r="B628" t="s">
-        <v>1056</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>1066</v>
+        <v>1346</v>
       </c>
       <c r="B629" t="s">
-        <v>1056</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>1024</v>
+        <v>1346</v>
       </c>
       <c r="B630" t="s">
-        <v>1056</v>
+        <v>25</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>1067</v>
+        <v>1138</v>
       </c>
       <c r="B631" t="s">
-        <v>1056</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>1068</v>
+        <v>1250</v>
       </c>
       <c r="B632" t="s">
-        <v>1056</v>
+        <v>23</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="B633" t="s">
-        <v>1056</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1056</v>
+        <v>1126</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>1070</v>
+        <v>818</v>
       </c>
       <c r="B635" t="s">
-        <v>1056</v>
+        <v>814</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>1071</v>
+        <v>1139</v>
       </c>
       <c r="B636" t="s">
-        <v>1056</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="B637" t="s">
         <v>1126</v>
@@ -20826,15 +20847,15 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>1128</v>
+        <v>1152</v>
       </c>
       <c r="B638" t="s">
-        <v>1126</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>1129</v>
+        <v>1143</v>
       </c>
       <c r="B639" t="s">
         <v>1126</v>
@@ -20842,103 +20863,103 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>1130</v>
+        <v>851</v>
       </c>
       <c r="B640" t="s">
-        <v>1126</v>
+        <v>850</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>1131</v>
+        <v>1038</v>
       </c>
       <c r="B641" t="s">
-        <v>1126</v>
+        <v>4</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>1132</v>
+        <v>1039</v>
       </c>
       <c r="B642" t="s">
-        <v>1126</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>1133</v>
+        <v>1040</v>
       </c>
       <c r="B643" t="s">
-        <v>1126</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>655</v>
+        <v>1047</v>
       </c>
       <c r="B644" t="s">
-        <v>1126</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1126</v>
+        <v>1173</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>1135</v>
+        <v>819</v>
       </c>
       <c r="B646" t="s">
-        <v>1126</v>
+        <v>814</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>1136</v>
+        <v>1116</v>
       </c>
       <c r="B647" t="s">
-        <v>1126</v>
+        <v>495</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
       <c r="B648" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>1138</v>
+        <v>1043</v>
       </c>
       <c r="B649" t="s">
-        <v>1126</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>1139</v>
+        <v>1340</v>
       </c>
       <c r="B650" t="s">
-        <v>1126</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B651" t="s">
-        <v>1126</v>
+        <v>1124</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B652" t="s">
         <v>1126</v>
@@ -20946,103 +20967,103 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>1144</v>
+        <v>1115</v>
       </c>
       <c r="B653" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>1145</v>
+        <v>1221</v>
       </c>
       <c r="B654" t="s">
-        <v>1126</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>1141</v>
+        <v>863</v>
       </c>
       <c r="B655" t="s">
-        <v>1140</v>
+        <v>859</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>1142</v>
+        <v>1294</v>
       </c>
       <c r="B656" t="s">
-        <v>1140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>1039</v>
+        <v>868</v>
       </c>
       <c r="B657" t="s">
-        <v>1038</v>
+        <v>869</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>1040</v>
+        <v>868</v>
       </c>
       <c r="B658" t="s">
-        <v>1038</v>
+        <v>867</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>1041</v>
+        <v>868</v>
       </c>
       <c r="B659" t="s">
-        <v>1039</v>
+        <v>578</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="B660" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>1051</v>
+        <v>1058</v>
       </c>
       <c r="B661" t="s">
-        <v>1040</v>
+        <v>25</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>1052</v>
+        <v>838</v>
       </c>
       <c r="B662" t="s">
-        <v>1040</v>
+        <v>656</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>1054</v>
+        <v>900</v>
       </c>
       <c r="B663" t="s">
-        <v>1040</v>
+        <v>539</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>1048</v>
+        <v>900</v>
       </c>
       <c r="B664" t="s">
-        <v>1047</v>
+        <v>902</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B665" t="s">
         <v>1047</v>
@@ -21050,178 +21071,250 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1050</v>
+        <v>884</v>
       </c>
       <c r="B666" t="s">
-        <v>1047</v>
+        <v>433</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1047</v>
+        <v>888</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>1160</v>
+        <v>1188</v>
       </c>
       <c r="B668" t="s">
-        <v>1173</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1161</v>
+        <v>873</v>
       </c>
       <c r="B669" t="s">
-        <v>1173</v>
+        <v>871</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>1162</v>
+        <v>1171</v>
       </c>
       <c r="B670" t="s">
-        <v>1173</v>
+        <v>498</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>870</v>
+        <v>1247</v>
       </c>
       <c r="B671" t="s">
-        <v>868</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1057</v>
+        <v>993</v>
       </c>
       <c r="B672" t="s">
-        <v>1058</v>
+        <v>910</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>1072</v>
+        <v>995</v>
       </c>
       <c r="B673" t="s">
-        <v>1058</v>
+        <v>910</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1073</v>
+        <v>1213</v>
       </c>
       <c r="B674" t="s">
-        <v>1058</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1000</v>
+        <v>878</v>
       </c>
       <c r="B675" t="s">
-        <v>999</v>
+        <v>871</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B676" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B677" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>887</v>
+        <v>1223</v>
       </c>
       <c r="B678" t="s">
-        <v>884</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>888</v>
-      </c>
-      <c r="B679" s="1" t="s">
-        <v>884</v>
+        <v>915</v>
+      </c>
+      <c r="B679" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>593</v>
-      </c>
-      <c r="B680" t="s">
-        <v>888</v>
+        <v>962</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>889</v>
+        <v>1172</v>
       </c>
       <c r="B681" t="s">
-        <v>888</v>
+        <v>498</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>589</v>
+        <v>994</v>
       </c>
       <c r="B682" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>890</v>
-      </c>
-      <c r="B683" t="s">
-        <v>888</v>
+        <v>963</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>891</v>
+        <v>1319</v>
       </c>
       <c r="B684" t="s">
-        <v>888</v>
+        <v>552</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>594</v>
+        <v>1319</v>
       </c>
       <c r="B685" t="s">
-        <v>888</v>
+        <v>25</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>892</v>
+        <v>1142</v>
       </c>
       <c r="B686" t="s">
-        <v>888</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>893</v>
+        <v>1145</v>
       </c>
       <c r="B687" t="s">
-        <v>888</v>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>932</v>
+      </c>
+      <c r="B688" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>877</v>
+      </c>
+      <c r="B690" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>911</v>
+      </c>
+      <c r="B691" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>834</v>
+      </c>
+      <c r="B692" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B694" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>989</v>
+      </c>
+      <c r="B695" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>933</v>
+      </c>
+      <c r="B696" t="s">
+        <v>920</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A98C58-15C1-0942-8A44-6884177A3720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB5CFB2-A5EF-6F49-9181-374D50AFC09F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="15360" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Parent 1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Parent 3" sheetId="4" r:id="rId3"/>
     <sheet name="Parent 4" sheetId="5" r:id="rId4"/>
     <sheet name="Parent 5" sheetId="6" r:id="rId5"/>
-    <sheet name="Courses" sheetId="7" r:id="rId6"/>
+    <sheet name="Coursera" sheetId="9" r:id="rId6"/>
+    <sheet name="Courses" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="1701">
   <si>
     <t>Skill</t>
   </si>
@@ -4974,6 +4975,174 @@
   </si>
   <si>
     <t>Extract Transform Load (ETL)</t>
+  </si>
+  <si>
+    <t>I-Deas</t>
+  </si>
+  <si>
+    <t>Art History</t>
+  </si>
+  <si>
+    <t>Design Analysis</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Mass Communication</t>
+  </si>
+  <si>
+    <t>Graphical User Interface (GUI)</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Therapy</t>
+  </si>
+  <si>
+    <t>Scientific Method</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>World History</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Audio Format</t>
+  </si>
+  <si>
+    <t>Linguistic History</t>
+  </si>
+  <si>
+    <t>History Of Linguistics</t>
+  </si>
+  <si>
+    <t>Social Psychology</t>
+  </si>
+  <si>
+    <t>Sound Design</t>
+  </si>
+  <si>
+    <t>Alternative Medicine</t>
+  </si>
+  <si>
+    <t>Video Game Development</t>
+  </si>
+  <si>
+    <t>Game Development</t>
+  </si>
+  <si>
+    <t>Digital Art</t>
+  </si>
+  <si>
+    <t>Vector Graphics</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Game Design</t>
+  </si>
+  <si>
+    <t>Software Design</t>
+  </si>
+  <si>
+    <t>Poster Design</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Computing</t>
+  </si>
+  <si>
+    <t>History Of Psychology</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Digital Image</t>
+  </si>
+  <si>
+    <t>Business Writing</t>
+  </si>
+  <si>
+    <t>Email Writing</t>
+  </si>
+  <si>
+    <t>Innovation Leadership</t>
+  </si>
+  <si>
+    <t>Innovation Management</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Networking Protocol</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Branding</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Gastronomy</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (AI)</t>
   </si>
 </sst>
 </file>
@@ -5093,8 +5262,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EC86AD1-B64A-EF4A-9E30-4E59C5D34B29}" name="Table3" displayName="Table3" ref="A1:B168" totalsRowShown="0">
   <autoFilter ref="A1:B168" xr:uid="{2DF645BF-484A-D846-BB3C-AFD56E1950FF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B166">
-    <sortCondition ref="B1:B166"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B168">
+    <sortCondition ref="A1:A168"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2AA2FAB0-AD3A-B641-AC7D-3FF7D9ABD081}" name="Skill"/>
@@ -5108,7 +5277,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3AACC3AF-1BAD-0B4B-B16F-9E786A7C24DC}" name="Table4" displayName="Table4" ref="A1:B619" totalsRowShown="0">
   <autoFilter ref="A1:B619" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B619">
-    <sortCondition ref="B1:B619"/>
+    <sortCondition ref="A1:A619"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E5B03D87-BD59-E94A-B8BA-AB36D580F51F}" name="Skill"/>
@@ -5147,6 +5316,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B99" totalsRowShown="0">
+  <autoFilter ref="A1:B99" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
+    <sortCondition ref="A1:A97"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C60D6BEC-005F-9346-9865-1C2241A1B490}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{F436F1A2-5E27-0E4C-B1EE-FD86CE8E0AC5}" name="Parent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{248852D6-3F35-494B-9944-FC51E409EC9C}" name="Table4673" displayName="Table4673" ref="A1:B696" totalsRowShown="0">
   <autoFilter ref="A1:B696" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B696">
@@ -5460,7 +5643,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5600,8 +5783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E440C-1904-894B-9323-83431D3F77DA}">
   <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5619,39 +5802,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>722</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>669</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>733</v>
+        <v>671</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -5659,39 +5842,39 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>656</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>672</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -5699,7 +5882,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -5707,15 +5890,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>692</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -5723,7 +5906,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -5731,103 +5914,103 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>725</v>
+        <v>443</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>726</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>741</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>1314</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>1314</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>674</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>743</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>1505</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -5835,7 +6018,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -5843,7 +6026,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -5851,63 +6034,63 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>679</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1435</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1498</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1505</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>722</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1546</v>
+        <v>517</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>656</v>
+        <v>444</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -5915,7 +6098,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -5923,7 +6106,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>517</v>
+        <v>661</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -5931,7 +6114,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -5939,15 +6122,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>661</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -5955,15 +6138,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>457</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -5971,31 +6154,31 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>457</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>660</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>435</v>
+        <v>660</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -6003,7 +6186,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -6011,39 +6194,39 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>456</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>466</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -6051,15 +6234,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -6067,71 +6250,71 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1314</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>1498</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1314</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>669</v>
+        <v>759</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -6139,7 +6322,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>671</v>
+        <v>1485</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -6147,31 +6330,31 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>672</v>
+        <v>429</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>674</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>743</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -6179,7 +6362,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>675</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -6187,151 +6370,151 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>432</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>759</v>
+        <v>247</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>687</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>675</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>676</v>
+        <v>248</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>777</v>
+        <v>692</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>680</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>681</v>
+        <v>249</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>683</v>
+        <v>250</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>731</v>
+        <v>283</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>684</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>686</v>
+        <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>688</v>
+        <v>284</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>433</v>
+        <v>198</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -6339,271 +6522,271 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1485</v>
+        <v>285</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>777</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>680</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>809</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1479</v>
+        <v>288</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>681</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>683</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>437</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>65</v>
+        <v>725</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>67</v>
+        <v>731</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>85</v>
+        <v>726</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>435</v>
+        <v>684</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>1479</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>685</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -6611,55 +6794,55 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>49</v>
+        <v>456</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
@@ -6667,7 +6850,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>2</v>
+        <v>346</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
@@ -6675,15 +6858,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>201</v>
+        <v>686</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>202</v>
+        <v>1476</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -6691,39 +6874,39 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>52</v>
+        <v>1618</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="B140" t="s">
         <v>12</v>
@@ -6731,7 +6914,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>248</v>
+        <v>354</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -6739,23 +6922,23 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -6763,23 +6946,23 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>284</v>
+        <v>1435</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>285</v>
+        <v>1546</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>286</v>
+        <v>396</v>
       </c>
       <c r="B147" t="s">
         <v>12</v>
@@ -6787,31 +6970,31 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>287</v>
+        <v>466</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>288</v>
+        <v>688</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>290</v>
+        <v>397</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
@@ -6819,7 +7002,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
@@ -6827,87 +7010,87 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>809</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>328</v>
+        <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>329</v>
+        <v>433</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>346</v>
+        <v>169</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>354</v>
+        <v>741</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>396</v>
+        <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
@@ -6915,7 +7098,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B164" t="s">
         <v>12</v>
@@ -6923,18 +7106,18 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>402</v>
+        <v>689</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1476</v>
+        <v>481</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -6947,10 +7130,10 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1618</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6965,8 +7148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F7A090-657A-7848-AF08-37C999ED8681}">
   <dimension ref="A1:B619"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A331" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A556" sqref="A556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6984,247 +7167,247 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1524</v>
+        <v>576</v>
       </c>
       <c r="B2" t="s">
-        <v>722</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>668</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>669</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="B4" t="s">
-        <v>669</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>670</v>
+        <v>1524</v>
       </c>
       <c r="B5" t="s">
-        <v>671</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>1524</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>793</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>1544</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>1543</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>1455</v>
       </c>
       <c r="B11" t="s">
-        <v>405</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>1452</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>1453</v>
       </c>
       <c r="B13" t="s">
-        <v>656</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>655</v>
+        <v>1434</v>
       </c>
       <c r="B14" t="s">
-        <v>656</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="B15" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="B16" t="s">
-        <v>656</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>1511</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>671</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>670</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>415</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>656</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>474</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>782</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>1468</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>1420</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>406</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>523</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s">
         <v>175</v>
@@ -7232,7 +7415,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
         <v>175</v>
@@ -7240,135 +7423,135 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>534</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>1421</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1637</v>
+        <v>359</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>407</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>756</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>426</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>734</v>
+        <v>426</v>
       </c>
       <c r="B43" t="s">
-        <v>733</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>735</v>
+        <v>577</v>
       </c>
       <c r="B44" t="s">
-        <v>733</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>742</v>
       </c>
       <c r="B45" t="s">
-        <v>733</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>426</v>
+        <v>736</v>
       </c>
       <c r="B46" t="s">
-        <v>425</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>427</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>425</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>438</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>443</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B49" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s">
         <v>443</v>
@@ -7376,791 +7559,791 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>483</v>
+        <v>794</v>
       </c>
       <c r="B51" t="s">
-        <v>443</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>535</v>
       </c>
       <c r="B52" t="s">
-        <v>443</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>441</v>
+        <v>1569</v>
       </c>
       <c r="B53" t="s">
-        <v>443</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>442</v>
+        <v>665</v>
       </c>
       <c r="B54" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>530</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s">
-        <v>443</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>440</v>
+        <v>207</v>
       </c>
       <c r="B56" t="s">
-        <v>443</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>484</v>
+        <v>1388</v>
       </c>
       <c r="B57" t="s">
-        <v>443</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>482</v>
+        <v>1514</v>
       </c>
       <c r="B58" t="s">
-        <v>443</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>510</v>
+        <v>208</v>
       </c>
       <c r="B59" t="s">
-        <v>443</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s">
-        <v>443</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>780</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>683</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>673</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>744</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1388</v>
+        <v>380</v>
       </c>
       <c r="B65" t="s">
-        <v>1314</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>671</v>
+        <v>611</v>
       </c>
       <c r="B66" t="s">
-        <v>743</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>673</v>
+        <v>1470</v>
       </c>
       <c r="B67" t="s">
-        <v>743</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>744</v>
+        <v>1570</v>
       </c>
       <c r="B68" t="s">
-        <v>743</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="B69" t="s">
-        <v>743</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>746</v>
+        <v>427</v>
       </c>
       <c r="B70" t="s">
-        <v>743</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>747</v>
+        <v>1512</v>
       </c>
       <c r="B71" t="s">
-        <v>743</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>743</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>1511</v>
+      <c r="A73" s="6" t="s">
+        <v>1552</v>
       </c>
       <c r="B73" t="s">
-        <v>1505</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>1514</v>
+      <c r="A74" s="6" t="s">
+        <v>1551</v>
       </c>
       <c r="B74" t="s">
-        <v>1505</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1512</v>
+        <v>538</v>
       </c>
       <c r="B75" t="s">
-        <v>1505</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1508</v>
+        <v>540</v>
       </c>
       <c r="B76" t="s">
-        <v>1505</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1513</v>
+        <v>539</v>
       </c>
       <c r="B77" t="s">
-        <v>1505</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1506</v>
+        <v>521</v>
       </c>
       <c r="B78" t="s">
-        <v>1505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="B79" t="s">
-        <v>1505</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1317</v>
+        <v>787</v>
       </c>
       <c r="B80" t="s">
-        <v>1505</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1510</v>
+        <v>679</v>
       </c>
       <c r="B81" t="s">
-        <v>1505</v>
+        <v>683</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>566</v>
+        <v>1483</v>
       </c>
       <c r="B82" t="s">
-        <v>1505</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>850</v>
+        <v>1482</v>
       </c>
       <c r="B83" t="s">
-        <v>1505</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1312</v>
+        <v>1481</v>
       </c>
       <c r="B84" t="s">
-        <v>1505</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>568</v>
+        <v>347</v>
       </c>
       <c r="B85" t="s">
-        <v>1505</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1331</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>1505</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>559</v>
+        <v>294</v>
       </c>
       <c r="B87" t="s">
-        <v>1505</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1507</v>
+        <v>361</v>
       </c>
       <c r="B88" t="s">
-        <v>1505</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1515</v>
+        <v>541</v>
       </c>
       <c r="B89" t="s">
-        <v>1505</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>1509</v>
+      <c r="A90" s="6" t="s">
+        <v>1549</v>
       </c>
       <c r="B90" t="s">
-        <v>1505</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>1574</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>683</v>
+        <v>536</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>757</v>
+        <v>1414</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>758</v>
+        <v>434</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>756</v>
+        <v>296</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>750</v>
+      <c r="A97" s="6" t="s">
+        <v>1547</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>749</v>
+        <v>544</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>751</v>
+        <v>1542</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>753</v>
+        <v>1429</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>754</v>
+        <v>799</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>731</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>752</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>755</v>
+        <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="B104" t="s">
-        <v>517</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>522</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s">
-        <v>517</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>518</v>
+        <v>209</v>
       </c>
       <c r="B106" t="s">
-        <v>517</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>519</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>517</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>520</v>
+        <v>348</v>
       </c>
       <c r="B108" t="s">
-        <v>517</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>444</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>513</v>
       </c>
       <c r="B110" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="B111" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>513</v>
+        <v>786</v>
       </c>
       <c r="B112" t="s">
-        <v>459</v>
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>460</v>
+        <v>1484</v>
       </c>
       <c r="B113" t="s">
-        <v>459</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>462</v>
+        <v>75</v>
       </c>
       <c r="B114" t="s">
-        <v>459</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>514</v>
+        <v>75</v>
       </c>
       <c r="B115" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="B116" t="s">
-        <v>459</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="B117" t="s">
-        <v>459</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="B118" t="s">
-        <v>459</v>
+        <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="B119" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>611</v>
+        <v>298</v>
       </c>
       <c r="B120" t="s">
-        <v>460</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>610</v>
+        <v>472</v>
       </c>
       <c r="B121" t="s">
-        <v>460</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B122" t="s">
-        <v>661</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>662</v>
+        <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>661</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>446</v>
+        <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>445</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="B125" t="s">
-        <v>55</v>
+        <v>443</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>525</v>
+        <v>432</v>
       </c>
       <c r="B126" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B127" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>448</v>
+        <v>55</v>
       </c>
       <c r="B128" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>526</v>
+        <v>475</v>
       </c>
       <c r="B129" t="s">
-        <v>55</v>
+        <v>433</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>432</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>439</v>
       </c>
       <c r="B132" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>431</v>
+        <v>803</v>
       </c>
       <c r="B133" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>1469</v>
       </c>
       <c r="B134" t="s">
-        <v>428</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="B135" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>450</v>
+        <v>162</v>
       </c>
       <c r="B136" t="s">
-        <v>457</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>659</v>
+        <v>1418</v>
       </c>
       <c r="B137" t="s">
-        <v>660</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>657</v>
+        <v>694</v>
       </c>
       <c r="B138" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="B139" t="s">
-        <v>660</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="B140" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>584</v>
+        <v>677</v>
       </c>
       <c r="B141" t="s">
-        <v>455</v>
+        <v>759</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>587</v>
+        <v>677</v>
       </c>
       <c r="B142" t="s">
-        <v>455</v>
+        <v>676</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>588</v>
+        <v>1563</v>
       </c>
       <c r="B143" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>585</v>
+        <v>1571</v>
       </c>
       <c r="B144" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>452</v>
+        <v>790</v>
       </c>
       <c r="B145" t="s">
-        <v>455</v>
+        <v>683</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>559</v>
+        <v>165</v>
       </c>
       <c r="B146" t="s">
-        <v>455</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>453</v>
+        <v>1475</v>
       </c>
       <c r="B147" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>586</v>
+        <v>1573</v>
       </c>
       <c r="B148" t="s">
-        <v>455</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="B149" t="s">
         <v>21</v>
@@ -8168,39 +8351,39 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="B150" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1452</v>
+        <v>399</v>
       </c>
       <c r="B151" t="s">
-        <v>21</v>
+        <v>398</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1453</v>
+        <v>130</v>
       </c>
       <c r="B152" t="s">
-        <v>21</v>
+        <v>444</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1434</v>
+        <v>781</v>
       </c>
       <c r="B153" t="s">
-        <v>21</v>
+        <v>683</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>339</v>
+        <v>1424</v>
       </c>
       <c r="B154" t="s">
         <v>21</v>
@@ -8208,295 +8391,295 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1542</v>
+        <v>1424</v>
       </c>
       <c r="B155" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1429</v>
+        <v>197</v>
       </c>
       <c r="B156" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="B157" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1540</v>
+        <v>382</v>
       </c>
       <c r="B158" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>1424</v>
+      <c r="A159" s="6" t="s">
+        <v>1459</v>
       </c>
       <c r="B159" t="s">
-        <v>21</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1539</v>
+        <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1533</v>
+        <v>543</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1449</v>
+        <v>24</v>
       </c>
       <c r="B162" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1423</v>
+        <v>1508</v>
       </c>
       <c r="B163" t="s">
-        <v>21</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1534</v>
+        <v>454</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1541</v>
+        <v>824</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1538</v>
+        <v>1415</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1535</v>
+        <v>1471</v>
       </c>
       <c r="B167" t="s">
-        <v>21</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1537</v>
+        <v>495</v>
       </c>
       <c r="B168" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1536</v>
+        <v>545</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1545</v>
+        <v>203</v>
       </c>
       <c r="B170" t="s">
-        <v>21</v>
+        <v>398</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1422</v>
+        <v>695</v>
       </c>
       <c r="B171" t="s">
-        <v>21</v>
+        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>665</v>
+        <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>435</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B173" t="s">
-        <v>435</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>666</v>
+        <v>1576</v>
       </c>
       <c r="B174" t="s">
-        <v>435</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>667</v>
+        <v>210</v>
       </c>
       <c r="B175" t="s">
-        <v>435</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
       <c r="B176" t="s">
-        <v>435</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>663</v>
+        <v>383</v>
       </c>
       <c r="B177" t="s">
-        <v>435</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>664</v>
+        <v>300</v>
       </c>
       <c r="B178" t="s">
-        <v>435</v>
+        <v>302</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>451</v>
+      <c r="A179" s="6" t="s">
+        <v>1559</v>
       </c>
       <c r="B179" t="s">
-        <v>458</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>1498</v>
+        <v>60</v>
+      </c>
+      <c r="B180" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>1498</v>
+        <v>60</v>
+      </c>
+      <c r="B181" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>1498</v>
+        <v>1539</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>1498</v>
+        <v>301</v>
+      </c>
+      <c r="B183" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>1498</v>
+        <v>435</v>
+      </c>
+      <c r="B184" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>1498</v>
+        <v>451</v>
+      </c>
+      <c r="B185" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>1298</v>
       </c>
       <c r="B186" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>527</v>
       </c>
       <c r="B187" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>1533</v>
       </c>
       <c r="B188" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>546</v>
       </c>
       <c r="B189" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>518</v>
       </c>
       <c r="B190" t="s">
-        <v>52</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B191" t="s">
         <v>52</v>
@@ -8504,7 +8687,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B192" t="s">
         <v>52</v>
@@ -8512,7 +8695,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B193" t="s">
         <v>52</v>
@@ -8520,7 +8703,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="B194" t="s">
         <v>52</v>
@@ -8528,7 +8711,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B195" t="s">
         <v>52</v>
@@ -8536,103 +8719,103 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>216</v>
+        <v>525</v>
       </c>
       <c r="B196" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>217</v>
+        <v>365</v>
       </c>
       <c r="B197" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>218</v>
+      <c r="A198" s="6" t="s">
+        <v>1555</v>
       </c>
       <c r="B198" t="s">
-        <v>52</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>219</v>
+        <v>547</v>
       </c>
       <c r="B199" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>225</v>
+        <v>766</v>
       </c>
       <c r="B201" t="s">
-        <v>52</v>
+        <v>759</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>227</v>
+      <c r="A202" s="6" t="s">
+        <v>1485</v>
       </c>
       <c r="B202" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>226</v>
+      <c r="A203" s="6" t="s">
+        <v>1485</v>
       </c>
       <c r="B203" t="s">
-        <v>52</v>
+        <v>429</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>228</v>
+        <v>763</v>
       </c>
       <c r="B204" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>229</v>
+        <v>788</v>
       </c>
       <c r="B205" t="s">
-        <v>52</v>
+        <v>683</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>1561</v>
       </c>
       <c r="B206" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>230</v>
+      <c r="A207" s="6" t="s">
+        <v>1557</v>
       </c>
       <c r="B207" t="s">
-        <v>52</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B208" t="s">
         <v>52</v>
@@ -8640,31 +8823,31 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>231</v>
+        <v>768</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>676</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>232</v>
+        <v>1456</v>
       </c>
       <c r="B210" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>233</v>
+        <v>1513</v>
       </c>
       <c r="B211" t="s">
-        <v>52</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B212" t="s">
         <v>52</v>
@@ -8672,7 +8855,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B213" t="s">
         <v>52</v>
@@ -8680,447 +8863,447 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>234</v>
+        <v>749</v>
       </c>
       <c r="B214" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="B215" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>239</v>
+        <v>343</v>
       </c>
       <c r="B216" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>240</v>
+        <v>690</v>
       </c>
       <c r="B217" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="B218" t="s">
-        <v>52</v>
+        <v>329</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
+        <v>676</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>432</v>
+        <v>548</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
-        <v>1485</v>
+      <c r="A221" t="s">
+        <v>335</v>
       </c>
       <c r="B221" t="s">
-        <v>43</v>
+        <v>329</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>763</v>
+        <v>179</v>
       </c>
       <c r="B222" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>764</v>
+        <v>180</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>761</v>
+        <v>181</v>
       </c>
       <c r="B224" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>762</v>
+        <v>182</v>
       </c>
       <c r="B225" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>677</v>
+        <v>183</v>
       </c>
       <c r="B226" t="s">
-        <v>759</v>
+        <v>175</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>766</v>
+        <v>305</v>
       </c>
       <c r="B227" t="s">
-        <v>759</v>
+        <v>302</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>767</v>
+        <v>185</v>
       </c>
       <c r="B228" t="s">
-        <v>759</v>
+        <v>175</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>765</v>
+        <v>218</v>
       </c>
       <c r="B229" t="s">
-        <v>759</v>
+        <v>52</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="s">
-        <v>1485</v>
+      <c r="A230" t="s">
+        <v>306</v>
       </c>
       <c r="B230" t="s">
-        <v>429</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1456</v>
+        <v>384</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>690</v>
+        <v>186</v>
       </c>
       <c r="B232" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>691</v>
+        <v>385</v>
       </c>
       <c r="B233" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1524</v>
+        <v>550</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>68</v>
+        <v>770</v>
       </c>
       <c r="B235" t="s">
-        <v>66</v>
+        <v>676</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B236" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="B237" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>261</v>
+        <v>691</v>
       </c>
       <c r="B238" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>263</v>
+        <v>416</v>
       </c>
       <c r="B239" t="s">
-        <v>250</v>
+        <v>405</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>251</v>
+        <v>1472</v>
       </c>
       <c r="B240" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="B241" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>694</v>
+        <v>785</v>
       </c>
       <c r="B242" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>695</v>
+        <v>366</v>
       </c>
       <c r="B243" t="s">
-        <v>693</v>
+        <v>40</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>697</v>
+        <v>417</v>
       </c>
       <c r="B244" t="s">
-        <v>693</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>718</v>
+        <v>473</v>
       </c>
       <c r="B245" t="s">
-        <v>693</v>
+        <v>433</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>38</v>
+        <v>462</v>
       </c>
       <c r="B246" t="s">
-        <v>693</v>
+        <v>459</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>696</v>
+        <v>549</v>
       </c>
       <c r="B247" t="s">
-        <v>693</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>719</v>
+        <v>349</v>
       </c>
       <c r="B248" t="s">
-        <v>693</v>
+        <v>437</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>720</v>
+        <v>349</v>
       </c>
       <c r="B249" t="s">
-        <v>693</v>
+        <v>346</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="B250" t="s">
-        <v>693</v>
+        <v>743</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>677</v>
+        <v>738</v>
       </c>
       <c r="B251" t="s">
-        <v>676</v>
+        <v>741</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>768</v>
+        <v>308</v>
       </c>
       <c r="B252" t="s">
-        <v>676</v>
+        <v>302</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>769</v>
+        <v>78</v>
       </c>
       <c r="B253" t="s">
-        <v>676</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>770</v>
+        <v>271</v>
       </c>
       <c r="B254" t="s">
-        <v>676</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="B255" t="s">
-        <v>676</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>678</v>
+        <v>561</v>
       </c>
       <c r="B256" t="s">
-        <v>676</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>772</v>
+        <v>666</v>
       </c>
       <c r="B257" t="s">
-        <v>676</v>
+        <v>435</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>758</v>
+        <v>436</v>
       </c>
       <c r="B258" t="s">
-        <v>676</v>
+        <v>437</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>773</v>
+        <v>1449</v>
       </c>
       <c r="B259" t="s">
-        <v>676</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>774</v>
+        <v>551</v>
       </c>
       <c r="B260" t="s">
-        <v>676</v>
+        <v>23</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>775</v>
+        <v>1575</v>
       </c>
       <c r="B261" t="s">
-        <v>676</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="B262" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>776</v>
+        <v>565</v>
       </c>
       <c r="B263" t="s">
-        <v>676</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="B264" t="s">
-        <v>288</v>
+        <v>40</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="B265" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>292</v>
+        <v>584</v>
       </c>
       <c r="B266" t="s">
-        <v>302</v>
+        <v>455</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="B267" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="B268" t="s">
-        <v>302</v>
+        <v>175</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B269" t="s">
         <v>302</v>
@@ -9128,487 +9311,487 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>297</v>
+        <v>1506</v>
       </c>
       <c r="B270" t="s">
-        <v>302</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="B271" t="s">
-        <v>302</v>
+        <v>405</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>299</v>
+        <v>1423</v>
       </c>
       <c r="B272" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>300</v>
+        <v>1423</v>
       </c>
       <c r="B273" t="s">
-        <v>302</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="B274" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>305</v>
+        <v>476</v>
       </c>
       <c r="B275" t="s">
-        <v>302</v>
+        <v>433</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="B276" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>307</v>
+        <v>753</v>
       </c>
       <c r="B277" t="s">
-        <v>302</v>
+        <v>48</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="B278" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>309</v>
+        <v>447</v>
       </c>
       <c r="B279" t="s">
-        <v>302</v>
+        <v>55</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>310</v>
+        <v>1416</v>
       </c>
       <c r="B280" t="s">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>311</v>
+        <v>667</v>
       </c>
       <c r="B281" t="s">
-        <v>302</v>
+        <v>435</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="B282" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="B283" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>314</v>
+        <v>1534</v>
       </c>
       <c r="B284" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="B285" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>315</v>
+        <v>5</v>
       </c>
       <c r="B286" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>316</v>
+        <v>448</v>
       </c>
       <c r="B287" t="s">
-        <v>302</v>
+        <v>55</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>317</v>
+        <v>519</v>
       </c>
       <c r="B288" t="s">
-        <v>302</v>
+        <v>517</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="B289" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>319</v>
+        <v>767</v>
       </c>
       <c r="B290" t="s">
-        <v>302</v>
+        <v>759</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>320</v>
+        <v>1620</v>
       </c>
       <c r="B291" t="s">
-        <v>302</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>325</v>
+        <v>1541</v>
       </c>
       <c r="B292" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>321</v>
+        <v>226</v>
       </c>
       <c r="B293" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>483</v>
       </c>
       <c r="B294" t="s">
-        <v>302</v>
+        <v>443</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>322</v>
+        <v>514</v>
       </c>
       <c r="B295" t="s">
-        <v>302</v>
+        <v>459</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>323</v>
+        <v>1419</v>
       </c>
       <c r="B296" t="s">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>324</v>
+        <v>552</v>
       </c>
       <c r="B297" t="s">
-        <v>302</v>
+        <v>23</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1380</v>
+        <v>564</v>
       </c>
       <c r="B298" t="s">
-        <v>302</v>
+        <v>23</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>326</v>
-      </c>
-      <c r="B299" t="s">
-        <v>302</v>
+        <v>1501</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>495</v>
+        <v>1478</v>
       </c>
       <c r="B300" t="s">
-        <v>25</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>722</v>
+        <v>804</v>
       </c>
       <c r="B301" t="s">
-        <v>18</v>
+        <v>433</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="B302" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="B303" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="B304" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>33</v>
+        <v>680</v>
       </c>
       <c r="B305" t="s">
-        <v>18</v>
+        <v>433</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>724</v>
+        <v>553</v>
       </c>
       <c r="B306" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>723</v>
+        <v>229</v>
       </c>
       <c r="B307" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>1406</v>
+      <c r="A308" s="6" t="s">
+        <v>1550</v>
       </c>
       <c r="B308" t="s">
-        <v>18</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1353</v>
+        <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1365</v>
+        <v>188</v>
       </c>
       <c r="B310" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1619</v>
+        <v>312</v>
       </c>
       <c r="B311" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1000</v>
+        <v>515</v>
       </c>
       <c r="B312" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1569</v>
+        <v>657</v>
       </c>
       <c r="B313" t="s">
-        <v>19</v>
+        <v>660</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1570</v>
+        <v>194</v>
       </c>
       <c r="B314" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1574</v>
+        <v>516</v>
       </c>
       <c r="B315" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1563</v>
+        <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>19</v>
+        <v>435</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1571</v>
+        <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1573</v>
+        <v>771</v>
       </c>
       <c r="B318" t="s">
-        <v>19</v>
+        <v>676</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1540</v>
+        <v>1473</v>
       </c>
       <c r="B319" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1424</v>
+        <v>1538</v>
       </c>
       <c r="B320" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B321" t="s">
-        <v>19</v>
+        <v>443</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>824</v>
+        <v>25</v>
       </c>
       <c r="B322" t="s">
-        <v>19</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="B323" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>60</v>
-      </c>
-      <c r="B324" t="s">
-        <v>19</v>
+        <v>1499</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1561</v>
+        <v>230</v>
       </c>
       <c r="B325" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1423</v>
+        <v>678</v>
       </c>
       <c r="B326" t="s">
-        <v>19</v>
+        <v>676</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1567</v>
+        <v>678</v>
       </c>
       <c r="B327" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1568</v>
+        <v>681</v>
       </c>
       <c r="B328" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1564</v>
+        <v>1633</v>
       </c>
       <c r="B329" t="s">
-        <v>19</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1353</v>
+        <v>1631</v>
       </c>
       <c r="B330" t="s">
         <v>19</v>
@@ -9616,15 +9799,15 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1546</v>
+        <v>19</v>
       </c>
       <c r="B331" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1442</v>
+        <v>1632</v>
       </c>
       <c r="B332" t="s">
         <v>19</v>
@@ -9632,119 +9815,119 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1565</v>
+        <v>683</v>
       </c>
       <c r="B333" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1560</v>
+        <v>682</v>
       </c>
       <c r="B334" t="s">
-        <v>19</v>
+        <v>683</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1566</v>
+        <v>131</v>
       </c>
       <c r="B335" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1572</v>
+        <v>67</v>
       </c>
       <c r="B336" t="s">
-        <v>19</v>
+        <v>437</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1372</v>
+        <v>67</v>
       </c>
       <c r="B337" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1562</v>
+        <v>1637</v>
       </c>
       <c r="B338" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1517</v>
+        <v>84</v>
       </c>
       <c r="B339" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1631</v>
+        <v>87</v>
       </c>
       <c r="B340" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1632</v>
+        <v>89</v>
       </c>
       <c r="B341" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1636</v>
+        <v>1317</v>
       </c>
       <c r="B342" t="s">
-        <v>19</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1634</v>
+        <v>765</v>
       </c>
       <c r="B343" t="s">
-        <v>1632</v>
+        <v>759</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1635</v>
+        <v>189</v>
       </c>
       <c r="B344" t="s">
-        <v>1632</v>
+        <v>175</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>782</v>
+        <v>697</v>
       </c>
       <c r="B345" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>780</v>
+        <v>746</v>
       </c>
       <c r="B346" t="s">
-        <v>683</v>
+        <v>743</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B347" t="s">
         <v>683</v>
@@ -9752,7 +9935,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>679</v>
+        <v>778</v>
       </c>
       <c r="B348" t="s">
         <v>683</v>
@@ -9760,762 +9943,762 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>786</v>
+        <v>206</v>
       </c>
       <c r="B349" t="s">
-        <v>683</v>
+        <v>52</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>790</v>
+        <v>1494</v>
       </c>
       <c r="B350" t="s">
-        <v>683</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>781</v>
+        <v>1437</v>
       </c>
       <c r="B351" t="s">
-        <v>683</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>788</v>
+        <v>1510</v>
       </c>
       <c r="B352" t="s">
-        <v>683</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>785</v>
+        <v>728</v>
       </c>
       <c r="B353" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>682</v>
+        <v>731</v>
       </c>
       <c r="B354" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>783</v>
+        <v>730</v>
       </c>
       <c r="B355" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>778</v>
+        <v>727</v>
       </c>
       <c r="B356" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>789</v>
+        <v>732</v>
       </c>
       <c r="B357" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="B358" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>779</v>
+        <v>729</v>
       </c>
       <c r="B359" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>791</v>
+        <v>554</v>
       </c>
       <c r="B360" t="s">
-        <v>683</v>
+        <v>23</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>792</v>
+        <v>1567</v>
       </c>
       <c r="B361" t="s">
-        <v>683</v>
+        <v>19</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>434</v>
+        <v>72</v>
       </c>
       <c r="B362" t="s">
-        <v>437</v>
+        <v>67</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>435</v>
+        <v>1389</v>
       </c>
       <c r="B363" t="s">
-        <v>437</v>
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>349</v>
+        <v>757</v>
       </c>
       <c r="B364" t="s">
-        <v>437</v>
+        <v>46</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>436</v>
+        <v>160</v>
       </c>
       <c r="B365" t="s">
-        <v>437</v>
+        <v>49</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="B366" t="s">
-        <v>437</v>
+        <v>52</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="B367" t="s">
-        <v>437</v>
+        <v>302</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="B368" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>72</v>
+        <v>587</v>
       </c>
       <c r="B369" t="s">
-        <v>67</v>
+        <v>455</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>73</v>
+        <v>789</v>
       </c>
       <c r="B370" t="s">
-        <v>67</v>
+        <v>683</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>74</v>
+        <v>734</v>
       </c>
       <c r="B371" t="s">
-        <v>67</v>
+        <v>733</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>793</v>
+        <v>441</v>
       </c>
       <c r="B372" t="s">
-        <v>47</v>
+        <v>443</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>668</v>
+        <v>796</v>
       </c>
       <c r="B373" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
-        <v>794</v>
+      <c r="A374" s="6" t="s">
+        <v>1548</v>
       </c>
       <c r="B374" t="s">
-        <v>47</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>678</v>
+        <v>232</v>
       </c>
       <c r="B375" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>681</v>
+        <v>30</v>
       </c>
       <c r="B376" t="s">
-        <v>47</v>
+        <v>444</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>796</v>
+        <v>747</v>
       </c>
       <c r="B377" t="s">
-        <v>47</v>
+        <v>743</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>797</v>
+        <v>233</v>
       </c>
       <c r="B378" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>795</v>
+        <v>314</v>
       </c>
       <c r="B379" t="s">
-        <v>47</v>
+        <v>302</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>798</v>
+        <v>390</v>
       </c>
       <c r="B380" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>330</v>
+        <v>588</v>
       </c>
       <c r="B381" t="s">
-        <v>328</v>
+        <v>455</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>799</v>
+        <v>662</v>
       </c>
       <c r="B382" t="s">
-        <v>731</v>
+        <v>661</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>800</v>
+        <v>164</v>
       </c>
       <c r="B383" t="s">
-        <v>731</v>
+        <v>49</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="B384" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>731</v>
+        <v>663</v>
       </c>
       <c r="B385" t="s">
-        <v>726</v>
+        <v>435</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>730</v>
+        <v>80</v>
       </c>
       <c r="B386" t="s">
-        <v>726</v>
+        <v>437</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>727</v>
+        <v>80</v>
       </c>
       <c r="B387" t="s">
-        <v>726</v>
+        <v>79</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>732</v>
+        <v>134</v>
       </c>
       <c r="B388" t="s">
-        <v>726</v>
+        <v>656</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>729</v>
+        <v>134</v>
       </c>
       <c r="B389" t="s">
-        <v>726</v>
+        <v>139</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1483</v>
+        <v>718</v>
       </c>
       <c r="B390" t="s">
-        <v>1479</v>
+        <v>693</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1482</v>
+        <v>38</v>
       </c>
       <c r="B391" t="s">
-        <v>1479</v>
+        <v>693</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1481</v>
+        <v>585</v>
       </c>
       <c r="B392" t="s">
-        <v>1479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1484</v>
+        <v>555</v>
       </c>
       <c r="B393" t="s">
-        <v>1479</v>
+        <v>23</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1479</v>
+        <v>1502</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>527</v>
+        <v>446</v>
       </c>
       <c r="B395" t="s">
-        <v>30</v>
+        <v>445</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>528</v>
+        <v>33</v>
       </c>
       <c r="B396" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>529</v>
+        <v>86</v>
       </c>
       <c r="B397" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>801</v>
+        <v>764</v>
       </c>
       <c r="B398" t="s">
-        <v>685</v>
+        <v>43</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>802</v>
+        <v>161</v>
       </c>
       <c r="B399" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>449</v>
+        <v>161</v>
       </c>
       <c r="B400" t="s">
-        <v>456</v>
+        <v>49</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>339</v>
+        <v>696</v>
       </c>
       <c r="B401" t="s">
-        <v>329</v>
+        <v>693</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>334</v>
+        <v>1496</v>
       </c>
       <c r="B402" t="s">
-        <v>329</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>335</v>
+        <v>724</v>
       </c>
       <c r="B403" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>9</v>
+        <v>327</v>
       </c>
       <c r="B404" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>342</v>
+        <v>1480</v>
       </c>
       <c r="B405" t="s">
-        <v>329</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>331</v>
+        <v>723</v>
       </c>
       <c r="B406" t="s">
-        <v>329</v>
+        <v>18</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>340</v>
+        <v>1568</v>
       </c>
       <c r="B407" t="s">
-        <v>329</v>
+        <v>19</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="B408" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="B409" t="s">
-        <v>329</v>
+        <v>456</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>332</v>
+        <v>512</v>
       </c>
       <c r="B410" t="s">
-        <v>329</v>
+        <v>459</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>333</v>
+        <v>655</v>
       </c>
       <c r="B411" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="B412" t="s">
-        <v>329</v>
+        <v>23</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>159</v>
+        <v>1564</v>
       </c>
       <c r="B413" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>152</v>
+        <v>772</v>
       </c>
       <c r="B414" t="s">
-        <v>49</v>
+        <v>676</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="B415" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>165</v>
+        <v>556</v>
       </c>
       <c r="B416" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>155</v>
+        <v>424</v>
       </c>
       <c r="B417" t="s">
-        <v>49</v>
+        <v>405</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>163</v>
+        <v>391</v>
       </c>
       <c r="B418" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>160</v>
+      <c r="A419" s="6" t="s">
+        <v>1554</v>
       </c>
       <c r="B419" t="s">
-        <v>49</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>164</v>
+        <v>719</v>
       </c>
       <c r="B420" t="s">
-        <v>49</v>
+        <v>693</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="B421" t="s">
-        <v>49</v>
+        <v>302</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="B422" t="s">
-        <v>49</v>
+        <v>329</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>158</v>
+        <v>331</v>
       </c>
       <c r="B423" t="s">
-        <v>49</v>
+        <v>329</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>157</v>
+        <v>340</v>
       </c>
       <c r="B424" t="s">
-        <v>49</v>
+        <v>329</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>154</v>
+        <v>336</v>
       </c>
       <c r="B425" t="s">
-        <v>49</v>
+        <v>329</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>153</v>
+        <v>337</v>
       </c>
       <c r="B426" t="s">
-        <v>49</v>
+        <v>329</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1468</v>
+        <v>332</v>
       </c>
       <c r="B427" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1470</v>
+        <v>316</v>
       </c>
       <c r="B428" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1469</v>
+        <v>317</v>
       </c>
       <c r="B429" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1475</v>
+        <v>1535</v>
       </c>
       <c r="B430" t="s">
-        <v>341</v>
+        <v>21</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1471</v>
+        <v>740</v>
       </c>
       <c r="B431" t="s">
-        <v>341</v>
+        <v>741</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>343</v>
+        <v>156</v>
       </c>
       <c r="B432" t="s">
-        <v>341</v>
+        <v>49</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1472</v>
+        <v>557</v>
       </c>
       <c r="B433" t="s">
-        <v>341</v>
+        <v>23</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1473</v>
+        <v>318</v>
       </c>
       <c r="B434" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>1474</v>
+        <v>190</v>
       </c>
       <c r="B435" t="s">
-        <v>341</v>
+        <v>175</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="B436" t="s">
-        <v>341</v>
+        <v>250</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1384</v>
+        <v>720</v>
       </c>
       <c r="B437" t="s">
-        <v>341</v>
+        <v>693</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>344</v>
+        <v>558</v>
       </c>
       <c r="B438" t="s">
-        <v>341</v>
+        <v>23</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>347</v>
+        <v>784</v>
       </c>
       <c r="B439" t="s">
-        <v>346</v>
+        <v>683</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>348</v>
+        <v>640</v>
       </c>
       <c r="B440" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>349</v>
+        <v>1436</v>
       </c>
       <c r="B441" t="s">
-        <v>346</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>271</v>
+        <v>1436</v>
       </c>
       <c r="B442" t="s">
-        <v>346</v>
+        <v>809</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="B443" t="s">
-        <v>346</v>
+        <v>52</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -10536,111 +10719,111 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B446" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>354</v>
+        <v>526</v>
       </c>
       <c r="B447" t="s">
-        <v>346</v>
+        <v>55</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>353</v>
+        <v>761</v>
       </c>
       <c r="B448" t="s">
-        <v>346</v>
+        <v>43</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>1478</v>
+        <v>319</v>
       </c>
       <c r="B449" t="s">
-        <v>1476</v>
+        <v>302</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B450" t="s">
-        <v>1476</v>
+        <v>1500</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>1477</v>
+        <v>26</v>
       </c>
       <c r="B451" t="s">
-        <v>1476</v>
+        <v>85</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>576</v>
+        <v>1474</v>
       </c>
       <c r="B452" t="s">
-        <v>23</v>
+        <v>341</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>533</v>
+        <v>620</v>
       </c>
       <c r="B453" t="s">
-        <v>23</v>
+        <v>433</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>534</v>
+        <v>758</v>
       </c>
       <c r="B454" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>577</v>
+        <v>758</v>
       </c>
       <c r="B455" t="s">
-        <v>23</v>
+        <v>676</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>535</v>
+      <c r="A456" s="6" t="s">
+        <v>1553</v>
       </c>
       <c r="B456" t="s">
-        <v>23</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>538</v>
+        <v>1406</v>
       </c>
       <c r="B457" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>540</v>
+        <v>1395</v>
       </c>
       <c r="B458" t="s">
-        <v>23</v>
+        <v>809</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>539</v>
+        <v>464</v>
       </c>
       <c r="B459" t="s">
         <v>23</v>
@@ -10648,7 +10831,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>541</v>
+        <v>461</v>
       </c>
       <c r="B460" t="s">
         <v>23</v>
@@ -10656,39 +10839,39 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="B461" t="s">
-        <v>23</v>
+        <v>433</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>544</v>
+        <v>618</v>
       </c>
       <c r="B462" t="s">
-        <v>23</v>
+        <v>433</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>542</v>
+        <v>1353</v>
       </c>
       <c r="B463" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>543</v>
+        <v>1353</v>
       </c>
       <c r="B464" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="B465" t="s">
         <v>23</v>
@@ -10696,159 +10879,159 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>546</v>
+        <v>73</v>
       </c>
       <c r="B466" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>547</v>
+        <v>1625</v>
       </c>
       <c r="B467" t="s">
-        <v>23</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>548</v>
+        <v>1622</v>
       </c>
       <c r="B468" t="s">
-        <v>23</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>550</v>
+        <v>1619</v>
       </c>
       <c r="B469" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>549</v>
+        <v>1619</v>
       </c>
       <c r="B470" t="s">
-        <v>23</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>561</v>
+        <v>1621</v>
       </c>
       <c r="B471" t="s">
-        <v>23</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="B472" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>565</v>
+        <v>352</v>
       </c>
       <c r="B473" t="s">
-        <v>23</v>
+        <v>346</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>552</v>
+        <v>320</v>
       </c>
       <c r="B474" t="s">
-        <v>23</v>
+        <v>302</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>564</v>
+        <v>191</v>
       </c>
       <c r="B475" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>553</v>
+        <v>392</v>
       </c>
       <c r="B476" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>554</v>
+        <v>374</v>
       </c>
       <c r="B477" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>555</v>
+        <v>393</v>
       </c>
       <c r="B478" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>537</v>
+        <v>354</v>
       </c>
       <c r="B479" t="s">
-        <v>23</v>
+        <v>346</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>556</v>
+        <v>235</v>
       </c>
       <c r="B480" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>557</v>
+        <v>234</v>
       </c>
       <c r="B481" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>558</v>
+        <v>1477</v>
       </c>
       <c r="B482" t="s">
-        <v>23</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" t="s">
-        <v>464</v>
+      <c r="A483" s="6" t="s">
+        <v>1477</v>
       </c>
       <c r="B483" t="s">
-        <v>23</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>461</v>
+        <v>566</v>
       </c>
       <c r="B484" t="s">
-        <v>23</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B485" t="s">
         <v>23</v>
@@ -10856,319 +11039,319 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>566</v>
+        <v>1495</v>
       </c>
       <c r="B486" t="s">
-        <v>23</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>567</v>
+        <v>1635</v>
       </c>
       <c r="B487" t="s">
-        <v>23</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>562</v>
+        <v>773</v>
       </c>
       <c r="B488" t="s">
-        <v>23</v>
+        <v>676</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>568</v>
+        <v>1634</v>
       </c>
       <c r="B489" t="s">
-        <v>23</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="B490" t="s">
-        <v>23</v>
+        <v>481</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>578</v>
+        <v>158</v>
       </c>
       <c r="B491" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>570</v>
+        <v>850</v>
       </c>
       <c r="B492" t="s">
-        <v>23</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>559</v>
+        <v>801</v>
       </c>
       <c r="B493" t="s">
-        <v>23</v>
+        <v>685</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>563</v>
+        <v>802</v>
       </c>
       <c r="B494" t="s">
-        <v>23</v>
+        <v>685</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>572</v>
+        <v>236</v>
       </c>
       <c r="B495" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>571</v>
+        <v>1623</v>
       </c>
       <c r="B496" t="s">
-        <v>23</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>573</v>
+        <v>282</v>
       </c>
       <c r="B497" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>574</v>
+        <v>345</v>
       </c>
       <c r="B498" t="s">
-        <v>23</v>
+        <v>341</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>575</v>
+        <v>452</v>
       </c>
       <c r="B499" t="s">
-        <v>23</v>
+        <v>455</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1619</v>
+        <v>157</v>
       </c>
       <c r="B500" t="s">
-        <v>1618</v>
+        <v>49</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1620</v>
+        <v>805</v>
       </c>
       <c r="B501" t="s">
-        <v>1618</v>
+        <v>433</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1621</v>
+        <v>774</v>
       </c>
       <c r="B502" t="s">
-        <v>1618</v>
+        <v>676</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1622</v>
+        <v>739</v>
       </c>
       <c r="B503" t="s">
-        <v>1618</v>
+        <v>741</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1623</v>
+        <v>1384</v>
       </c>
       <c r="B504" t="s">
-        <v>1618</v>
+        <v>341</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1624</v>
+        <v>477</v>
       </c>
       <c r="B505" t="s">
-        <v>1618</v>
+        <v>433</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1625</v>
+        <v>442</v>
       </c>
       <c r="B506" t="s">
-        <v>1618</v>
+        <v>443</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>359</v>
+        <v>529</v>
       </c>
       <c r="B507" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>379</v>
+        <v>567</v>
       </c>
       <c r="B508" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="B509" t="s">
-        <v>40</v>
+        <v>398</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>361</v>
+        <v>562</v>
       </c>
       <c r="B510" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>381</v>
+        <v>775</v>
       </c>
       <c r="B511" t="s">
-        <v>40</v>
+        <v>676</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>382</v>
+        <v>1546</v>
       </c>
       <c r="B512" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>383</v>
+        <v>1312</v>
       </c>
       <c r="B513" t="s">
-        <v>40</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>365</v>
+        <v>568</v>
       </c>
       <c r="B514" t="s">
-        <v>40</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>384</v>
+        <v>568</v>
       </c>
       <c r="B515" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>385</v>
+        <v>569</v>
       </c>
       <c r="B516" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>366</v>
+        <v>578</v>
       </c>
       <c r="B517" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>386</v>
+        <v>1442</v>
       </c>
       <c r="B518" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>387</v>
+        <v>1565</v>
       </c>
       <c r="B519" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>388</v>
+        <v>1560</v>
       </c>
       <c r="B520" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>389</v>
+        <v>653</v>
       </c>
       <c r="B521" t="s">
-        <v>40</v>
+        <v>656</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>390</v>
+        <v>31</v>
       </c>
       <c r="B522" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>391</v>
+        <v>688</v>
       </c>
       <c r="B523" t="s">
-        <v>40</v>
+        <v>676</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="B524" t="s">
-        <v>40</v>
+        <v>302</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="B525" t="s">
         <v>40</v>
@@ -11176,295 +11359,295 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>393</v>
+        <v>664</v>
       </c>
       <c r="B526" t="s">
-        <v>40</v>
+        <v>435</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>394</v>
+        <v>74</v>
       </c>
       <c r="B527" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>77</v>
-      </c>
-      <c r="B528" t="s">
-        <v>79</v>
+        <v>1504</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="B529" t="s">
-        <v>79</v>
+        <v>443</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>78</v>
+        <v>570</v>
       </c>
       <c r="B530" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A531" t="s">
-        <v>67</v>
+      <c r="A531" s="6" t="s">
+        <v>1556</v>
       </c>
       <c r="B531" t="s">
-        <v>79</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A532" t="s">
-        <v>89</v>
+      <c r="A532" s="6" t="s">
+        <v>1558</v>
       </c>
       <c r="B532" t="s">
-        <v>79</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>80</v>
+        <v>1365</v>
       </c>
       <c r="B533" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>82</v>
+        <v>1566</v>
       </c>
       <c r="B534" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>1633</v>
+        <v>338</v>
       </c>
       <c r="B535" t="s">
-        <v>1385</v>
+        <v>329</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>1436</v>
+        <v>239</v>
       </c>
       <c r="B536" t="s">
-        <v>1435</v>
+        <v>52</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537" s="6" t="s">
-        <v>1552</v>
+      <c r="A537" t="s">
+        <v>321</v>
       </c>
       <c r="B537" t="s">
-        <v>1546</v>
+        <v>302</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538" s="6" t="s">
-        <v>1551</v>
+      <c r="A538" t="s">
+        <v>440</v>
       </c>
       <c r="B538" t="s">
-        <v>1546</v>
+        <v>443</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A539" s="6" t="s">
-        <v>1549</v>
+      <c r="A539" t="s">
+        <v>433</v>
       </c>
       <c r="B539" t="s">
-        <v>1546</v>
+        <v>428</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540" s="6" t="s">
-        <v>1547</v>
+      <c r="A540" t="s">
+        <v>57</v>
       </c>
       <c r="B540" t="s">
-        <v>1546</v>
+        <v>22</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" s="6" t="s">
-        <v>1459</v>
+      <c r="A541" t="s">
+        <v>654</v>
       </c>
       <c r="B541" t="s">
-        <v>1546</v>
+        <v>656</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542" s="6" t="s">
-        <v>1559</v>
+      <c r="A542" t="s">
+        <v>737</v>
       </c>
       <c r="B542" t="s">
-        <v>1546</v>
+        <v>169</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A543" s="6" t="s">
-        <v>1555</v>
+      <c r="A543" t="s">
+        <v>524</v>
       </c>
       <c r="B543" t="s">
-        <v>1546</v>
+        <v>55</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A544" s="6" t="s">
-        <v>1557</v>
+      <c r="A544" t="s">
+        <v>295</v>
       </c>
       <c r="B544" t="s">
-        <v>1546</v>
+        <v>302</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A545" s="6" t="s">
-        <v>1550</v>
+      <c r="A545" t="s">
+        <v>322</v>
       </c>
       <c r="B545" t="s">
-        <v>1546</v>
+        <v>302</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A546" s="6" t="s">
-        <v>1548</v>
+      <c r="A546" t="s">
+        <v>797</v>
       </c>
       <c r="B546" t="s">
-        <v>1546</v>
+        <v>47</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A547" s="6" t="s">
-        <v>1554</v>
+      <c r="A547" t="s">
+        <v>1331</v>
       </c>
       <c r="B547" t="s">
-        <v>1546</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A548" s="6" t="s">
-        <v>1553</v>
+      <c r="A548" t="s">
+        <v>559</v>
       </c>
       <c r="B548" t="s">
-        <v>1546</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A549" s="6" t="s">
-        <v>1477</v>
+      <c r="A549" t="s">
+        <v>559</v>
       </c>
       <c r="B549" t="s">
-        <v>1546</v>
+        <v>455</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A550" s="6" t="s">
-        <v>1556</v>
+      <c r="A550" t="s">
+        <v>559</v>
       </c>
       <c r="B550" t="s">
-        <v>1546</v>
+        <v>23</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A551" s="6" t="s">
-        <v>1558</v>
+      <c r="A551" t="s">
+        <v>1507</v>
       </c>
       <c r="B551" t="s">
-        <v>1546</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B552" t="s">
-        <v>139</v>
+        <v>443</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>471</v>
+        <v>154</v>
       </c>
       <c r="B553" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>469</v>
+        <v>27</v>
       </c>
       <c r="B554" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>472</v>
+        <v>1537</v>
       </c>
       <c r="B555" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>468</v>
+        <v>1572</v>
       </c>
       <c r="B556" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>83</v>
+        <v>754</v>
       </c>
       <c r="B557" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>134</v>
+        <v>453</v>
       </c>
       <c r="B558" t="s">
-        <v>139</v>
+        <v>455</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>467</v>
+        <v>323</v>
       </c>
       <c r="B559" t="s">
-        <v>139</v>
+        <v>302</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>399</v>
+        <v>776</v>
       </c>
       <c r="B560" t="s">
-        <v>398</v>
+        <v>676</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>203</v>
+        <v>779</v>
       </c>
       <c r="B561" t="s">
-        <v>398</v>
+        <v>683</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B562" t="s">
         <v>398</v>
@@ -11472,103 +11655,103 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>404</v>
+        <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>398</v>
+        <v>23</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>400</v>
+        <v>68</v>
       </c>
       <c r="B564" t="s">
-        <v>398</v>
+        <v>66</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>1455</v>
+        <v>482</v>
       </c>
       <c r="B565" t="s">
-        <v>809</v>
+        <v>443</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>1436</v>
+        <v>467</v>
       </c>
       <c r="B566" t="s">
-        <v>809</v>
+        <v>139</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>1395</v>
+        <v>69</v>
       </c>
       <c r="B567" t="s">
-        <v>809</v>
+        <v>66</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>656</v>
+        <v>324</v>
       </c>
       <c r="B568" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>1420</v>
+        <v>1515</v>
       </c>
       <c r="B569" t="s">
-        <v>22</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>1421</v>
+        <v>572</v>
       </c>
       <c r="B570" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>1414</v>
+        <v>1636</v>
       </c>
       <c r="B571" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>1418</v>
+        <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>1415</v>
+        <v>762</v>
       </c>
       <c r="B573" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>21</v>
+        <v>806</v>
       </c>
       <c r="B574" t="s">
-        <v>22</v>
+        <v>433</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>21</v>
+        <v>1417</v>
       </c>
       <c r="B575" t="s">
         <v>22</v>
@@ -11576,103 +11759,103 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>1298</v>
+        <v>795</v>
       </c>
       <c r="B576" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>1416</v>
+        <v>153</v>
       </c>
       <c r="B577" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1419</v>
+        <v>748</v>
       </c>
       <c r="B578" t="s">
-        <v>22</v>
+        <v>743</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="B579" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>1389</v>
+        <v>240</v>
       </c>
       <c r="B580" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>31</v>
+        <v>752</v>
       </c>
       <c r="B581" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>57</v>
+        <v>658</v>
       </c>
       <c r="B582" t="s">
-        <v>22</v>
+        <v>660</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>1417</v>
+        <v>463</v>
       </c>
       <c r="B583" t="s">
-        <v>22</v>
+        <v>459</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>1422</v>
+        <v>1536</v>
       </c>
       <c r="B584" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>1516</v>
+        <v>755</v>
       </c>
       <c r="B585" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>474</v>
+        <v>344</v>
       </c>
       <c r="B586" t="s">
-        <v>433</v>
+        <v>341</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="B587" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B588" t="s">
         <v>433</v>
@@ -11680,223 +11863,223 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>473</v>
+        <v>798</v>
       </c>
       <c r="B589" t="s">
-        <v>433</v>
+        <v>47</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>476</v>
+        <v>573</v>
       </c>
       <c r="B590" t="s">
-        <v>433</v>
+        <v>23</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>804</v>
+        <v>721</v>
       </c>
       <c r="B591" t="s">
-        <v>433</v>
+        <v>693</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>680</v>
+        <v>574</v>
       </c>
       <c r="B592" t="s">
-        <v>433</v>
+        <v>23</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>640</v>
+        <v>510</v>
       </c>
       <c r="B593" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>620</v>
+        <v>511</v>
       </c>
       <c r="B594" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>579</v>
+        <v>195</v>
       </c>
       <c r="B595" t="s">
-        <v>433</v>
+        <v>61</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>618</v>
+        <v>575</v>
       </c>
       <c r="B596" t="s">
-        <v>433</v>
+        <v>23</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>805</v>
+        <v>1545</v>
       </c>
       <c r="B597" t="s">
-        <v>433</v>
+        <v>21</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>477</v>
+        <v>791</v>
       </c>
       <c r="B598" t="s">
-        <v>433</v>
+        <v>683</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>806</v>
+        <v>1492</v>
       </c>
       <c r="B599" t="s">
-        <v>433</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>807</v>
+        <v>520</v>
       </c>
       <c r="B600" t="s">
-        <v>433</v>
+        <v>517</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>736</v>
+        <v>353</v>
       </c>
       <c r="B601" t="s">
-        <v>169</v>
+        <v>346</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>50</v>
+        <v>1493</v>
       </c>
       <c r="B602" t="s">
-        <v>169</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>737</v>
+        <v>1372</v>
       </c>
       <c r="B603" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>738</v>
+        <v>1422</v>
       </c>
       <c r="B604" t="s">
-        <v>741</v>
+        <v>21</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>740</v>
+        <v>1422</v>
       </c>
       <c r="B605" t="s">
-        <v>741</v>
+        <v>22</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>739</v>
+        <v>1516</v>
       </c>
       <c r="B606" t="s">
-        <v>741</v>
+        <v>22</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>58</v>
+        <v>1624</v>
       </c>
       <c r="B607" t="s">
-        <v>32</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>478</v>
+        <v>1562</v>
       </c>
       <c r="B608" t="s">
-        <v>481</v>
+        <v>19</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>75</v>
+        <v>792</v>
       </c>
       <c r="B609" t="s">
-        <v>481</v>
+        <v>683</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>479</v>
+        <v>237</v>
       </c>
       <c r="B610" t="s">
-        <v>481</v>
+        <v>52</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>480</v>
+        <v>1509</v>
       </c>
       <c r="B611" t="s">
-        <v>481</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1491</v>
+        <v>1503</v>
+      </c>
+      <c r="B612" s="6" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>1575</v>
+        <v>1517</v>
       </c>
       <c r="B613" t="s">
-        <v>1491</v>
+        <v>19</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>1494</v>
+        <v>1380</v>
       </c>
       <c r="B614" t="s">
-        <v>1491</v>
+        <v>302</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>1496</v>
+        <v>326</v>
       </c>
       <c r="B615" t="s">
-        <v>1491</v>
+        <v>302</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="B616" t="s">
         <v>1491</v>
@@ -11904,26 +12087,26 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>1492</v>
+        <v>586</v>
       </c>
       <c r="B617" t="s">
-        <v>1491</v>
+        <v>455</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>1493</v>
+        <v>610</v>
       </c>
       <c r="B618" t="s">
-        <v>1491</v>
+        <v>460</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>1497</v>
+        <v>192</v>
       </c>
       <c r="B619" t="s">
-        <v>1491</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -11938,7 +12121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1E01E-01C2-7844-B628-8E09C0C92859}">
   <dimension ref="A1:B369"/>
   <sheetViews>
-    <sheetView topLeftCell="A341" workbookViewId="0">
+    <sheetView topLeftCell="A350" workbookViewId="0">
       <selection activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
@@ -14911,7 +15094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE85406E-B187-E14D-8DA8-2AAAAED9B666}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
@@ -15737,10 +15920,511 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99003BE-679F-9248-8C84-529C7407F5E3}">
+  <dimension ref="A1:B99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="48.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B9" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B25" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B48" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B54" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B59" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0B0656-AA58-F348-86C4-3D0196DCA86E}">
   <dimension ref="A1:B696"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A304" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB5CFB2-A5EF-6F49-9181-374D50AFC09F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE93378-4030-3148-BA44-469EBDC95A31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Parent 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="1701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="1729">
   <si>
     <t>Skill</t>
   </si>
@@ -5143,6 +5143,90 @@
   </si>
   <si>
     <t>Artificial Intelligence (AI)</t>
+  </si>
+  <si>
+    <t>News Writing</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Financial Data Analysis</t>
+  </si>
+  <si>
+    <t>Environmental Data Analysis</t>
+  </si>
+  <si>
+    <t>Pricing Policy</t>
+  </si>
+  <si>
+    <t>Human Resource</t>
+  </si>
+  <si>
+    <t>Performance Management</t>
+  </si>
+  <si>
+    <t>Sociological Concept</t>
+  </si>
+  <si>
+    <t>Economic Analysis</t>
+  </si>
+  <si>
+    <t>Economic Models</t>
+  </si>
+  <si>
+    <t>Business Analysis</t>
+  </si>
+  <si>
+    <t>Intellectual Property</t>
+  </si>
+  <si>
+    <t>Google Chart API</t>
+  </si>
+  <si>
+    <t>Google Services</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Uniform Resource Identifier (URI) Scheme</t>
+  </si>
+  <si>
+    <t>Financial Risk Modeling</t>
+  </si>
+  <si>
+    <t>RStudio</t>
+  </si>
+  <si>
+    <t>Auditor's Report</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>Data Reporting</t>
+  </si>
+  <si>
+    <t>Sales Presentation</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Sales Management</t>
+  </si>
+  <si>
+    <t>Software Stack</t>
+  </si>
+  <si>
+    <t>Business Technology Management</t>
+  </si>
+  <si>
+    <t>Market Analysis</t>
+  </si>
+  <si>
+    <t>Cloud Computing Security</t>
   </si>
 </sst>
 </file>
@@ -5783,7 +5867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E440C-1904-894B-9323-83431D3F77DA}">
   <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
@@ -15923,8 +16007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99003BE-679F-9248-8C84-529C7407F5E3}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16402,6 +16486,230 @@
       </c>
       <c r="B59" t="s">
         <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B66" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B77" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE93378-4030-3148-BA44-469EBDC95A31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881E798-B89B-6841-AAE0-AABD0BE2F3B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="1729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="1752">
   <si>
     <t>Skill</t>
   </si>
@@ -5227,6 +5227,75 @@
   </si>
   <si>
     <t>Cloud Computing Security</t>
+  </si>
+  <si>
+    <t>Business Research</t>
+  </si>
+  <si>
+    <t>Financial Management</t>
+  </si>
+  <si>
+    <t>Marketing Consulting</t>
+  </si>
+  <si>
+    <t>Marketing Psychology</t>
+  </si>
+  <si>
+    <t>HTML and CSS</t>
+  </si>
+  <si>
+    <t>Cascading Style Sheet (CSS)</t>
+  </si>
+  <si>
+    <t>Marketing Content Development</t>
+  </si>
+  <si>
+    <t>Leadership Development</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Entrepreneurial Finance</t>
+  </si>
+  <si>
+    <t>Marketing Design</t>
+  </si>
+  <si>
+    <t>Financial Statement Analysis</t>
+  </si>
+  <si>
+    <t>Cryptographic Hash Function</t>
+  </si>
+  <si>
+    <t>Financial Risk Management</t>
+  </si>
+  <si>
+    <t>Report Analysis</t>
+  </si>
+  <si>
+    <t>Mathematical Finance</t>
+  </si>
+  <si>
+    <t>Business Consulting</t>
+  </si>
+  <si>
+    <t>Investment Management</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Covariance Matrix</t>
+  </si>
+  <si>
+    <t>Covariance</t>
+  </si>
+  <si>
+    <t>Financial Engineering</t>
+  </si>
+  <si>
+    <t>Change Management</t>
   </si>
 </sst>
 </file>
@@ -5400,8 +5469,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B99" totalsRowShown="0">
-  <autoFilter ref="A1:B99" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B106" totalsRowShown="0">
+  <autoFilter ref="A1:B106" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
     <sortCondition ref="A1:A97"/>
   </sortState>
@@ -5867,7 +5936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E440C-1904-894B-9323-83431D3F77DA}">
   <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
@@ -16005,10 +16074,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99003BE-679F-9248-8C84-529C7407F5E3}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16712,12 +16781,156 @@
         <v>28</v>
       </c>
     </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B98" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1630</v>
+        <v>1742</v>
       </c>
       <c r="B99" t="s">
-        <v>1627</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881E798-B89B-6841-AAE0-AABD0BE2F3B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AC20A4-B916-DA43-9ACF-1965492D4594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13600" windowHeight="16140" firstSheet="1" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Parent 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="1752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="1777">
   <si>
     <t>Skill</t>
   </si>
@@ -5296,6 +5296,81 @@
   </si>
   <si>
     <t>Change Management</t>
+  </si>
+  <si>
+    <t>Social Network Analysis</t>
+  </si>
+  <si>
+    <t>Supply Chain Risk Management</t>
+  </si>
+  <si>
+    <t>Univariate Analysis</t>
+  </si>
+  <si>
+    <t>Nursing Informatics</t>
+  </si>
+  <si>
+    <t>Informatics</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Infrastructure as a Serivce (IaaS)</t>
+  </si>
+  <si>
+    <t>Social Media Analytics</t>
+  </si>
+  <si>
+    <t>Social Network Advertising</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Advertising Management</t>
+  </si>
+  <si>
+    <t>Email Marketing Campaign</t>
+  </si>
+  <si>
+    <t>Bayesian Optimization</t>
+  </si>
+  <si>
+    <t>Bayesian</t>
+  </si>
+  <si>
+    <t>Tree Algorithm</t>
+  </si>
+  <si>
+    <t>Genetic Algorithm</t>
+  </si>
+  <si>
+    <t>Genomics</t>
+  </si>
+  <si>
+    <t>Random Variable</t>
+  </si>
+  <si>
+    <t>Stable Marriage Problem</t>
+  </si>
+  <si>
+    <t>Branch and Bound</t>
+  </si>
+  <si>
+    <t>Approximation Algorithm</t>
+  </si>
+  <si>
+    <t>Mathematical Optimization</t>
+  </si>
+  <si>
+    <t>Approximation</t>
+  </si>
+  <si>
+    <t>C Syntax</t>
+  </si>
+  <si>
+    <t>Bioinformatics Analysis</t>
   </si>
 </sst>
 </file>
@@ -5469,8 +5544,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B106" totalsRowShown="0">
-  <autoFilter ref="A1:B106" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B128" totalsRowShown="0">
+  <autoFilter ref="A1:B128" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
     <sortCondition ref="A1:A97"/>
   </sortState>
@@ -5936,7 +6011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E440C-1904-894B-9323-83431D3F77DA}">
   <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
@@ -16074,10 +16149,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99003BE-679F-9248-8C84-529C7407F5E3}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16931,6 +17006,182 @@
       </c>
       <c r="B106" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B118" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B120" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B121" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B126" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B128" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AC20A4-B916-DA43-9ACF-1965492D4594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368357BB-11D4-CB4B-8282-C064CBC63063}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13600" windowHeight="16140" firstSheet="1" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Parent 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1787">
   <si>
     <t>Skill</t>
   </si>
@@ -5371,6 +5371,36 @@
   </si>
   <si>
     <t>Bioinformatics Analysis</t>
+  </si>
+  <si>
+    <t>Geometric Algorithm</t>
+  </si>
+  <si>
+    <t>Anonymity Network</t>
+  </si>
+  <si>
+    <t>Discrete Logarithm</t>
+  </si>
+  <si>
+    <t>Cloud Storage</t>
+  </si>
+  <si>
+    <t>SQL Injection</t>
+  </si>
+  <si>
+    <t>Security Management</t>
+  </si>
+  <si>
+    <t>Cryptographic Protocol</t>
+  </si>
+  <si>
+    <t>Web Application Security</t>
+  </si>
+  <si>
+    <t>Web Application</t>
+  </si>
+  <si>
+    <t>Modeling Language</t>
   </si>
 </sst>
 </file>
@@ -5544,8 +5574,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B128" totalsRowShown="0">
-  <autoFilter ref="A1:B128" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B141" totalsRowShown="0">
+  <autoFilter ref="A1:B141" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
     <sortCondition ref="A1:A97"/>
   </sortState>
@@ -16149,10 +16179,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99003BE-679F-9248-8C84-529C7407F5E3}">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17182,6 +17212,110 @@
       </c>
       <c r="B128" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B130" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>432</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B134" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1389</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368357BB-11D4-CB4B-8282-C064CBC63063}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B5821-7F81-6847-9B25-276839B8E8AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="1791">
   <si>
     <t>Skill</t>
   </si>
@@ -5401,6 +5401,18 @@
   </si>
   <si>
     <t>Modeling Language</t>
+  </si>
+  <si>
+    <t>Network Management</t>
+  </si>
+  <si>
+    <t>C Sharp</t>
+  </si>
+  <si>
+    <t>Cloud API</t>
+  </si>
+  <si>
+    <t>Video Game Graphics</t>
   </si>
 </sst>
 </file>
@@ -5574,8 +5586,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B141" totalsRowShown="0">
-  <autoFilter ref="A1:B141" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B145" totalsRowShown="0">
+  <autoFilter ref="A1:B145" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
     <sortCondition ref="A1:A97"/>
   </sortState>
@@ -16179,10 +16191,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99003BE-679F-9248-8C84-529C7407F5E3}">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17316,6 +17328,38 @@
       </c>
       <c r="B141" t="s">
         <v>1389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B143" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B144" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1208</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B5821-7F81-6847-9B25-276839B8E8AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D369AF08-1D57-684C-BC7B-8E5F871ACB14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="13600" windowHeight="16140" activeTab="5" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="1810">
   <si>
     <t>Skill</t>
   </si>
@@ -5178,9 +5178,6 @@
     <t>Business Analysis</t>
   </si>
   <si>
-    <t>Intellectual Property</t>
-  </si>
-  <si>
     <t>Google Chart API</t>
   </si>
   <si>
@@ -5316,9 +5313,6 @@
     <t>Kubernetes</t>
   </si>
   <si>
-    <t>Infrastructure as a Serivce (IaaS)</t>
-  </si>
-  <si>
     <t>Social Media Analytics</t>
   </si>
   <si>
@@ -5413,6 +5407,69 @@
   </si>
   <si>
     <t>Video Game Graphics</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Bond</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Computer-aided Design</t>
+  </si>
+  <si>
+    <t>Data Language</t>
+  </si>
+  <si>
+    <t>Decision Process</t>
+  </si>
+  <si>
+    <t>Differentiation</t>
+  </si>
+  <si>
+    <t>Event Processor</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Mathematical Function</t>
+  </si>
+  <si>
+    <t>Mechanics</t>
+  </si>
+  <si>
+    <t>Open Access Network (OAN)</t>
+  </si>
+  <si>
+    <t>Securities</t>
+  </si>
+  <si>
+    <t>Scripting</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Security Exploit</t>
+  </si>
+  <si>
+    <t>Production Process</t>
+  </si>
+  <si>
+    <t>Systems Development</t>
+  </si>
+  <si>
+    <t>Web Server Software</t>
+  </si>
+  <si>
+    <t>Web Server</t>
   </si>
 </sst>
 </file>
@@ -5530,8 +5587,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EC86AD1-B64A-EF4A-9E30-4E59C5D34B29}" name="Table3" displayName="Table3" ref="A1:B168" totalsRowShown="0">
-  <autoFilter ref="A1:B168" xr:uid="{2DF645BF-484A-D846-BB3C-AFD56E1950FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EC86AD1-B64A-EF4A-9E30-4E59C5D34B29}" name="Table3" displayName="Table3" ref="A1:B170" totalsRowShown="0">
+  <autoFilter ref="A1:B170" xr:uid="{2DF645BF-484A-D846-BB3C-AFD56E1950FF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B168">
     <sortCondition ref="A1:A168"/>
   </sortState>
@@ -5586,10 +5643,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B145" totalsRowShown="0">
-  <autoFilter ref="A1:B145" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
-    <sortCondition ref="A1:A97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BD7CD51A-AB5A-EF4F-92CB-40C5D2E89560}" name="Table4678" displayName="Table4678" ref="A1:B166" totalsRowShown="0">
+  <autoFilter ref="A1:B166" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B159">
+    <sortCondition ref="B1:B159"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C60D6BEC-005F-9346-9865-1C2241A1B490}" name="Skill"/>
@@ -6051,10 +6108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E440C-1904-894B-9323-83431D3F77DA}">
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7404,6 +7461,22 @@
       </c>
       <c r="B168" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7418,8 +7491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F7A090-657A-7848-AF08-37C999ED8681}">
   <dimension ref="A1:B619"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A556" sqref="A556"/>
+    <sheetView topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12391,7 +12464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1E01E-01C2-7844-B628-8E09C0C92859}">
   <dimension ref="A1:B369"/>
   <sheetViews>
-    <sheetView topLeftCell="A350" workbookViewId="0">
+    <sheetView topLeftCell="A346" workbookViewId="0">
       <selection activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
@@ -15364,7 +15437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE85406E-B187-E14D-8DA8-2AAAAED9B666}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
@@ -16191,10 +16264,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99003BE-679F-9248-8C84-529C7407F5E3}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16212,647 +16285,647 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1645</v>
+        <v>1760</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1646</v>
+        <v>1758</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1647</v>
+        <v>1791</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1648</v>
+        <v>1775</v>
       </c>
       <c r="B5" t="s">
-        <v>1652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1652</v>
+        <v>1764</v>
       </c>
       <c r="B6" t="s">
-        <v>1197</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1422</v>
+        <v>1789</v>
       </c>
       <c r="B7" t="s">
-        <v>1516</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1369</v>
+        <v>1711</v>
       </c>
       <c r="B8" t="s">
-        <v>1652</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>695</v>
+        <v>1739</v>
       </c>
       <c r="B9" t="s">
-        <v>697</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1653</v>
+        <v>1002</v>
       </c>
       <c r="B10" t="s">
-        <v>1654</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>1742</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1656</v>
+        <v>1753</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1657</v>
+        <v>1799</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1658</v>
+        <v>1770</v>
       </c>
       <c r="B14" t="s">
-        <v>1660</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1659</v>
+        <v>1670</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1661</v>
+        <v>1696</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1662</v>
+        <v>1700</v>
       </c>
       <c r="B17" t="s">
-        <v>1673</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1369</v>
+        <v>1662</v>
       </c>
       <c r="B18" t="s">
-        <v>1651</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1651</v>
+        <v>1718</v>
       </c>
       <c r="B19" t="s">
-        <v>517</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1663</v>
+        <v>1762</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1664</v>
+        <v>1774</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>370</v>
+        <v>1661</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1655</v>
+        <v>1744</v>
       </c>
       <c r="B23" t="s">
-        <v>1665</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1666</v>
+        <v>1725</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1667</v>
+        <v>1682</v>
       </c>
       <c r="B25" t="s">
-        <v>697</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
       <c r="B26" t="s">
-        <v>1669</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1669</v>
+        <v>1706</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1670</v>
+        <v>1794</v>
       </c>
       <c r="B28" t="s">
-        <v>1650</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1671</v>
+        <v>1786</v>
       </c>
       <c r="B29" t="s">
-        <v>1670</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1673</v>
+        <v>1795</v>
       </c>
       <c r="B30" t="s">
-        <v>1672</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1674</v>
+        <v>1732</v>
       </c>
       <c r="B31" t="s">
-        <v>1669</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1675</v>
+        <v>1787</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1676</v>
+        <v>1727</v>
       </c>
       <c r="B33" t="s">
-        <v>1677</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1678</v>
+        <v>1778</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1679</v>
+        <v>1651</v>
       </c>
       <c r="B35" t="s">
-        <v>284</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1558</v>
+        <v>1645</v>
       </c>
       <c r="B36" t="s">
-        <v>1651</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B37" t="s">
-        <v>1651</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="B38" t="s">
-        <v>1369</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1682</v>
+        <v>1768</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1683</v>
+        <v>1747</v>
       </c>
       <c r="B40" t="s">
-        <v>1383</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1684</v>
+        <v>1740</v>
       </c>
       <c r="B41" t="s">
-        <v>1686</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1685</v>
+        <v>1781</v>
       </c>
       <c r="B42" t="s">
-        <v>1686</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1687</v>
+        <v>1777</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1688</v>
+        <v>1720</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1689</v>
+        <v>1793</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1649</v>
+        <v>1687</v>
       </c>
       <c r="B47" t="s">
-        <v>1369</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1690</v>
+        <v>1334</v>
       </c>
       <c r="B48" t="s">
-        <v>528</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1690</v>
+        <v>1647</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1691</v>
+        <v>1666</v>
       </c>
       <c r="B50" t="s">
-        <v>346</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1692</v>
+        <v>1792</v>
       </c>
       <c r="B51" t="s">
-        <v>1385</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1693</v>
+        <v>1735</v>
       </c>
       <c r="B52" t="s">
-        <v>1658</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1694</v>
+        <v>1734</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1695</v>
+        <v>1671</v>
       </c>
       <c r="B54" t="s">
-        <v>809</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1696</v>
+        <v>1681</v>
       </c>
       <c r="B55" t="s">
-        <v>1650</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1697</v>
+        <v>1649</v>
       </c>
       <c r="B56" t="s">
-        <v>1698</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1697</v>
+        <v>1709</v>
       </c>
       <c r="B57" t="s">
-        <v>1699</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1699</v>
+        <v>1710</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1700</v>
+        <v>1768</v>
       </c>
       <c r="B59" t="s">
-        <v>443</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1701</v>
+        <v>1790</v>
       </c>
       <c r="B60" t="s">
-        <v>1702</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1703</v>
+        <v>1801</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1705</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s">
-        <v>1715</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1706</v>
+        <v>1737</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="B66" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1709</v>
+        <v>1749</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1710</v>
+        <v>1729</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1406</v>
+        <v>1716</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1394</v>
+        <v>1689</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1711</v>
+        <v>1743</v>
       </c>
       <c r="B71" t="s">
-        <v>1468</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1002</v>
+        <v>1697</v>
       </c>
       <c r="B72" t="s">
-        <v>1468</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1628</v>
+        <v>1674</v>
       </c>
       <c r="B73" t="s">
-        <v>1712</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1713</v>
+        <v>1668</v>
       </c>
       <c r="B74" t="s">
-        <v>1714</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1716</v>
+        <v>1765</v>
       </c>
       <c r="B75" t="s">
-        <v>1242</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1718</v>
+        <v>1788</v>
       </c>
       <c r="B77" t="s">
-        <v>850</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1719</v>
+        <v>1646</v>
       </c>
       <c r="B78" t="s">
-        <v>1720</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1721</v>
+        <v>1679</v>
       </c>
       <c r="B79" t="s">
-        <v>1687</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1722</v>
+        <v>1659</v>
       </c>
       <c r="B80" t="s">
-        <v>1723</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1724</v>
+        <v>1754</v>
       </c>
       <c r="B81" t="s">
-        <v>1546</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1725</v>
+        <v>1688</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -16860,135 +16933,135 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1633</v>
+        <v>1687</v>
       </c>
       <c r="B83" t="s">
-        <v>1689</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1632</v>
+        <v>1802</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1727</v>
+        <v>1756</v>
       </c>
       <c r="B86" t="s">
-        <v>1689</v>
+        <v>910</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1728</v>
+        <v>1684</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1729</v>
+        <v>1685</v>
       </c>
       <c r="B88" t="s">
-        <v>1385</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1730</v>
+        <v>1628</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1731</v>
+        <v>1745</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1732</v>
+        <v>1699</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1733</v>
+        <v>1664</v>
       </c>
       <c r="B92" t="s">
-        <v>1734</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1735</v>
+        <v>1663</v>
       </c>
       <c r="B93" t="s">
-        <v>1737</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1736</v>
+        <v>1750</v>
       </c>
       <c r="B94" t="s">
-        <v>1737</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1739</v>
+        <v>1785</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1740</v>
+        <v>1707</v>
       </c>
       <c r="B97" t="s">
-        <v>1468</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1741</v>
+        <v>1406</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1742</v>
+        <v>1780</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
@@ -16996,370 +17069,538 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1743</v>
+        <v>1726</v>
       </c>
       <c r="B100" t="s">
-        <v>1468</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1744</v>
+        <v>1633</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1745</v>
+        <v>1694</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1746</v>
+        <v>1761</v>
       </c>
       <c r="B103" t="s">
-        <v>1747</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1748</v>
+        <v>1730</v>
       </c>
       <c r="B104" t="s">
-        <v>1749</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1751</v>
+        <v>1731</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1752</v>
+        <v>1632</v>
       </c>
       <c r="B107" t="s">
-        <v>1558</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1753</v>
+        <v>1369</v>
       </c>
       <c r="B108" t="s">
-        <v>1405</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1754</v>
+        <v>1648</v>
       </c>
       <c r="B109" t="s">
-        <v>1468</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1755</v>
+        <v>1769</v>
       </c>
       <c r="B110" t="s">
-        <v>1756</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1757</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
-        <v>1758</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1759</v>
+        <v>1317</v>
       </c>
       <c r="B112" t="s">
-        <v>1558</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
       <c r="B113" t="s">
-        <v>1761</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1762</v>
+        <v>1369</v>
       </c>
       <c r="B114" t="s">
-        <v>1761</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1334</v>
+        <v>1680</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1763</v>
+        <v>1558</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1764</v>
+        <v>1667</v>
       </c>
       <c r="B117" t="s">
-        <v>1765</v>
+        <v>697</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1766</v>
+        <v>695</v>
       </c>
       <c r="B118" t="s">
-        <v>656</v>
+        <v>697</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1767</v>
+        <v>1658</v>
       </c>
       <c r="B119" t="s">
-        <v>1768</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1769</v>
+        <v>1784</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1770</v>
+        <v>1776</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1770</v>
+        <v>1652</v>
       </c>
       <c r="B122" t="s">
-        <v>3</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>1228</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1771</v>
+        <v>1800</v>
       </c>
       <c r="B124" t="s">
-        <v>1773</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1772</v>
+        <v>517</v>
       </c>
       <c r="B125" t="s">
-        <v>1774</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1775</v>
+        <v>1690</v>
       </c>
       <c r="B126" t="s">
-        <v>324</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1687</v>
+        <v>1701</v>
       </c>
       <c r="B127" t="s">
-        <v>3</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1776</v>
+        <v>1656</v>
       </c>
       <c r="B128" t="s">
-        <v>470</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1317</v>
+        <v>1799</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1777</v>
+        <v>1705</v>
       </c>
       <c r="B130" t="s">
-        <v>656</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>432</v>
+        <v>1691</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1778</v>
+        <v>1676</v>
       </c>
       <c r="B132" t="s">
-        <v>1197</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1779</v>
+        <v>1721</v>
       </c>
       <c r="B133" t="s">
-        <v>130</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1780</v>
+        <v>1693</v>
       </c>
       <c r="B134" t="s">
-        <v>28</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1781</v>
+        <v>1796</v>
       </c>
       <c r="B135" t="s">
-        <v>1248</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1782</v>
+        <v>1690</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1230</v>
+        <v>370</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1783</v>
+        <v>1717</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>850</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1228</v>
+        <v>1728</v>
       </c>
       <c r="B139" t="s">
-        <v>1197</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1784</v>
+        <v>1692</v>
       </c>
       <c r="B140" t="s">
-        <v>1785</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1786</v>
+        <v>1752</v>
       </c>
       <c r="B141" t="s">
-        <v>1389</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1787</v>
+        <v>1723</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1788</v>
+        <v>1230</v>
       </c>
       <c r="B143" t="s">
-        <v>540</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1789</v>
+        <v>1757</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1790</v>
+        <v>1751</v>
       </c>
       <c r="B145" t="s">
-        <v>1208</v>
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B147" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B148" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B152" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B153" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B155" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B160" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B162" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/skills/Skills.xlsx
+++ b/skills/Skills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongbinxuan/Desktop/skills-onthology-project/skills/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binxuan/Desktop/Projects/Skills Ontology/skills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6D5FF8-AA0D-8C42-9678-F239C1837952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AC93A9-0E17-DC4A-9ADA-A2D905440F23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="6" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="7" xr2:uid="{273D56F0-60F4-7D4D-B74A-F5CA8C152A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Parent 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Parent 5" sheetId="6" r:id="rId5"/>
     <sheet name="Coursera" sheetId="9" r:id="rId6"/>
     <sheet name="Courses" sheetId="7" r:id="rId7"/>
+    <sheet name="MyFutureJobs" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="1810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4974" uniqueCount="2034">
   <si>
     <t>Skill</t>
   </si>
@@ -5470,6 +5471,678 @@
   </si>
   <si>
     <t>Cloud Service</t>
+  </si>
+  <si>
+    <t>Conveyancing</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Office Administration</t>
+  </si>
+  <si>
+    <t>Telemarketing</t>
+  </si>
+  <si>
+    <t>Data Sharing</t>
+  </si>
+  <si>
+    <t>Carpentry</t>
+  </si>
+  <si>
+    <t>First-in First-out (FIFO) Accounting</t>
+  </si>
+  <si>
+    <t>Last-in First-out (LIFO) Accounting</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>Project Supervision</t>
+  </si>
+  <si>
+    <t>Delegation</t>
+  </si>
+  <si>
+    <t>Time Management</t>
+  </si>
+  <si>
+    <t>Team Building</t>
+  </si>
+  <si>
+    <t>Strategic Planning</t>
+  </si>
+  <si>
+    <t>Cash Flow Management</t>
+  </si>
+  <si>
+    <t>Strategic Prospecting</t>
+  </si>
+  <si>
+    <t>Rapport Building</t>
+  </si>
+  <si>
+    <t>Buyer-Seller Agreement</t>
+  </si>
+  <si>
+    <t>Qualification Questioning</t>
+  </si>
+  <si>
+    <t>TIme Management</t>
+  </si>
+  <si>
+    <t>Objection Prevention</t>
+  </si>
+  <si>
+    <t>Objection Handling</t>
+  </si>
+  <si>
+    <t>Demo Skills</t>
+  </si>
+  <si>
+    <t>Closing Technique</t>
+  </si>
+  <si>
+    <t>Post-Sale Relationship Management</t>
+  </si>
+  <si>
+    <t>Business Acumen</t>
+  </si>
+  <si>
+    <t>Social Selling</t>
+  </si>
+  <si>
+    <t>Territory Management</t>
+  </si>
+  <si>
+    <t>Buyer Research</t>
+  </si>
+  <si>
+    <t>Business Storytelling</t>
+  </si>
+  <si>
+    <t>Information and Communications Technology (ICT)</t>
+  </si>
+  <si>
+    <t>Information Technology (IT)</t>
+  </si>
+  <si>
+    <t>Technical Support</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Bookkeeping</t>
+  </si>
+  <si>
+    <t>Business Development</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Market Research Analysis</t>
+  </si>
+  <si>
+    <t>Policy Analysis</t>
+  </si>
+  <si>
+    <t>Underwriting</t>
+  </si>
+  <si>
+    <t>Human Resources (HR)</t>
+  </si>
+  <si>
+    <t>Business Management</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Organizational Skill</t>
+  </si>
+  <si>
+    <t>Coordination</t>
+  </si>
+  <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
+    <t>Teamwork</t>
+  </si>
+  <si>
+    <t>Generally Accepeted Accounting Principles (GAAP)</t>
+  </si>
+  <si>
+    <t>Quickbooks</t>
+  </si>
+  <si>
+    <t>User Experience (UX)</t>
+  </si>
+  <si>
+    <t>UX Design</t>
+  </si>
+  <si>
+    <t>Affliate Marketing</t>
+  </si>
+  <si>
+    <t>Video Production</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Music Production</t>
+  </si>
+  <si>
+    <t>Parallel Programming</t>
+  </si>
+  <si>
+    <t>Concurrent Programming</t>
+  </si>
+  <si>
+    <t>Adaptability</t>
+  </si>
+  <si>
+    <t>Analytical Reasoning</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>Mobile Application Development</t>
+  </si>
+  <si>
+    <t>Sales Leadership</t>
+  </si>
+  <si>
+    <t>Audio Production</t>
+  </si>
+  <si>
+    <t>Industrial Design</t>
+  </si>
+  <si>
+    <t>Customer Service System</t>
+  </si>
+  <si>
+    <t>Corporate Communication</t>
+  </si>
+  <si>
+    <t>Analytical</t>
+  </si>
+  <si>
+    <t>Critical Thinking</t>
+  </si>
+  <si>
+    <t>Newsletters</t>
+  </si>
+  <si>
+    <t>Nonverbal Communication</t>
+  </si>
+  <si>
+    <t>Content Management</t>
+  </si>
+  <si>
+    <t>Data Presentation</t>
+  </si>
+  <si>
+    <t>Database Administration</t>
+  </si>
+  <si>
+    <t>Middleware and Integration Software</t>
+  </si>
+  <si>
+    <t>Mobile Development</t>
+  </si>
+  <si>
+    <t>Software Management</t>
+  </si>
+  <si>
+    <t>Storage Systems</t>
+  </si>
+  <si>
+    <t>Storage Management</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Web Architecture</t>
+  </si>
+  <si>
+    <t>Web Development Framework</t>
+  </si>
+  <si>
+    <t>Channel Marketing</t>
+  </si>
+  <si>
+    <t>Content Marketing</t>
+  </si>
+  <si>
+    <t>Content Strategy</t>
+  </si>
+  <si>
+    <t>Media Planning</t>
+  </si>
+  <si>
+    <t>Online Marketing</t>
+  </si>
+  <si>
+    <t>Public Relations (PR)</t>
+  </si>
+  <si>
+    <t>Emotional Intelligence (EQ)</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Manufacturing Operations</t>
+  </si>
+  <si>
+    <t>Procurement</t>
+  </si>
+  <si>
+    <t>Product Marketing</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Adminitrative Assistance</t>
+  </si>
+  <si>
+    <t>Motion Pictures</t>
+  </si>
+  <si>
+    <t>Motion Film</t>
+  </si>
+  <si>
+    <t>Broadcast Media</t>
+  </si>
+  <si>
+    <t>Newspapers</t>
+  </si>
+  <si>
+    <t>Publishing</t>
+  </si>
+  <si>
+    <t>Online Media</t>
+  </si>
+  <si>
+    <t>Media Production</t>
+  </si>
+  <si>
+    <t>Public Relations and Communications</t>
+  </si>
+  <si>
+    <t>Events Services</t>
+  </si>
+  <si>
+    <t>Photography</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>Aerospace</t>
+  </si>
+  <si>
+    <t>Veterinary</t>
+  </si>
+  <si>
+    <t>Agricultural Production</t>
+  </si>
+  <si>
+    <t>Airforce</t>
+  </si>
+  <si>
+    <t>Aircraft Management</t>
+  </si>
+  <si>
+    <t>Airlines</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Anesthesiology</t>
+  </si>
+  <si>
+    <t>Apparel</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Textiles</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Industrial Automation</t>
+  </si>
+  <si>
+    <t>Fine Art</t>
+  </si>
+  <si>
+    <t>Arts and Crafts</t>
+  </si>
+  <si>
+    <t>Management Consulting</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Plastics</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Oil and Energy</t>
+  </si>
+  <si>
+    <t>Oil and Gas</t>
+  </si>
+  <si>
+    <t>Mining and Quarrying</t>
+  </si>
+  <si>
+    <t>Telecommunication</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Investment Banking</t>
+  </si>
+  <si>
+    <t>Venture Capiral</t>
+  </si>
+  <si>
+    <t>Private Equity</t>
+  </si>
+  <si>
+    <t>Professional Training</t>
+  </si>
+  <si>
+    <t>Coaching</t>
+  </si>
+  <si>
+    <t>Outsourcing</t>
+  </si>
+  <si>
+    <t>Offshoring</t>
+  </si>
+  <si>
+    <t>Gambling</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Food Production</t>
+  </si>
+  <si>
+    <t>Aviation and Aerospace</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>Electrical and Electronic Manufacturing</t>
+  </si>
+  <si>
+    <t>Chemical Processing</t>
+  </si>
+  <si>
+    <t>Commercial Banking</t>
+  </si>
+  <si>
+    <t>Commercial Photography</t>
+  </si>
+  <si>
+    <t>Performing Arts</t>
+  </si>
+  <si>
+    <t>Conceptual Art</t>
+  </si>
+  <si>
+    <t>Contract Law</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>Criminal Law</t>
+  </si>
+  <si>
+    <t>Law Practice</t>
+  </si>
+  <si>
+    <t>Legal Service</t>
+  </si>
+  <si>
+    <t>Customer Experience</t>
+  </si>
+  <si>
+    <t>Cybersecurity</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>Development Tools</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Digital Literacy</t>
+  </si>
+  <si>
+    <t>Drilling Engineering</t>
+  </si>
+  <si>
+    <t>Electronic Control Systems</t>
+  </si>
+  <si>
+    <t>Employee Learning</t>
+  </si>
+  <si>
+    <t>Employee Development</t>
+  </si>
+  <si>
+    <t>Enterprise Software</t>
+  </si>
+  <si>
+    <t>Environmental Consulting</t>
+  </si>
+  <si>
+    <t>Event Planning</t>
+  </si>
+  <si>
+    <t>Evolutionary Biology</t>
+  </si>
+  <si>
+    <t>Family Law</t>
+  </si>
+  <si>
+    <t>Family Medicine</t>
+  </si>
+  <si>
+    <t>Financial Accounting</t>
+  </si>
+  <si>
+    <t>Food Service Operations</t>
+  </si>
+  <si>
+    <t>Foreign Language</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Localization</t>
+  </si>
+  <si>
+    <t>Computer Game</t>
+  </si>
+  <si>
+    <t>Mobile Game</t>
+  </si>
+  <si>
+    <t>General Surgery</t>
+  </si>
+  <si>
+    <t>Growth Strategy</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Information Management</t>
+  </si>
+  <si>
+    <t>Inside Sales</t>
+  </si>
+  <si>
+    <t>Instrumentation</t>
+  </si>
+  <si>
+    <t>Interior Design</t>
+  </si>
+  <si>
+    <t>International Law</t>
+  </si>
+  <si>
+    <t>Investor Relations</t>
+  </si>
+  <si>
+    <t>Venture Capital</t>
+  </si>
+  <si>
+    <t>Public Equity</t>
+  </si>
+  <si>
+    <t>Labour and Employment Law</t>
+  </si>
+  <si>
+    <t>Landscape Architecture</t>
+  </si>
+  <si>
+    <t>Machining</t>
+  </si>
+  <si>
+    <t>Maintanence</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Management Accounting</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>Organic Chemistry</t>
+  </si>
+  <si>
+    <t>Payroll Services</t>
+  </si>
+  <si>
+    <t>Personal Coaching</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Manufacturing</t>
+  </si>
+  <si>
+    <t>Pharmaceutics</t>
+  </si>
+  <si>
+    <t>Physical Medicine</t>
+  </si>
+  <si>
+    <t>Rehabilitation</t>
+  </si>
+  <si>
+    <t>Product Development</t>
+  </si>
+  <si>
+    <t>Product Testing</t>
+  </si>
+  <si>
+    <t>Professional Sports</t>
+  </si>
+  <si>
+    <t>Property Law</t>
+  </si>
+  <si>
+    <t>Radio Production</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Recruiting</t>
+  </si>
+  <si>
+    <t>Retail Packaging</t>
+  </si>
+  <si>
+    <t>Sales Operations</t>
+  </si>
+  <si>
+    <t>Software Development Life Cycle (SDLC)</t>
+  </si>
+  <si>
+    <t>Sports Coaching</t>
+  </si>
+  <si>
+    <t>System Administration</t>
+  </si>
+  <si>
+    <t>Tax Accounting</t>
+  </si>
+  <si>
+    <t>Tax Law</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Theatre</t>
+  </si>
+  <si>
+    <t>Veterinary Medicine</t>
+  </si>
+  <si>
+    <t>Water Engineering</t>
   </si>
 </sst>
 </file>
@@ -5547,7 +6220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5555,6 +6228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5631,8 +6305,8 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56BC67FE-C62B-284D-8BD9-10F23DC21D08}" name="Table467" displayName="Table467" ref="A1:B101" totalsRowShown="0">
   <autoFilter ref="A1:B101" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B99">
-    <sortCondition ref="A1:A99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
+    <sortCondition ref="B1:B101"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{384FC172-2003-9A49-A229-7F98A05AFA92}" name="Skill"/>
@@ -5665,6 +6339,20 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{687768A8-8DBB-9F45-92E7-9BBC4D09CCE4}" name="Skill"/>
     <tableColumn id="2" xr3:uid="{3B21D5F2-32A1-EA46-BBD5-DC9CCE7B177C}" name="Parent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3799CAFA-028E-A846-BEC2-85FEAD22EBA9}" name="Table46789" displayName="Table46789" ref="A1:B336" totalsRowShown="0">
+  <autoFilter ref="A1:B336" xr:uid="{87A65D69-75EC-4A48-9B55-77C093F67BDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B211">
+    <sortCondition ref="A1:A211"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0D2D67AB-B0F1-8B4C-9C7F-D320CFBF19C2}" name="Skill"/>
+    <tableColumn id="2" xr3:uid="{85EB3EAE-19C5-EC4A-8A12-E352F2A7A2DF}" name="Parent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5970,7 +6658,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6110,8 +6798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E440C-1904-894B-9323-83431D3F77DA}">
   <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7491,7 +8179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F7A090-657A-7848-AF08-37C999ED8681}">
   <dimension ref="A1:B619"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
@@ -12464,7 +13152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF1E01E-01C2-7844-B628-8E09C0C92859}">
   <dimension ref="A1:B369"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A173" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -15437,8 +16125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE85406E-B187-E14D-8DA8-2AAAAED9B666}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15456,23 +16144,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>621</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1463</v>
+        <v>622</v>
       </c>
       <c r="B3" t="s">
-        <v>1381</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B4" t="s">
         <v>617</v>
@@ -15480,167 +16168,167 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="B5" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>625</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="B7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>598</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>609</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>600</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>609</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>696</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>627</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>618</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1378</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1378</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>1376</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>631</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>619</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>632</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>619</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>585</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>586</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>599</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>598</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>600</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1379</v>
+        <v>603</v>
       </c>
       <c r="B22" t="s">
-        <v>1376</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="B23" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1371</v>
+        <v>596</v>
       </c>
       <c r="B24" t="s">
-        <v>1367</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B25" t="s">
         <v>609</v>
@@ -15648,39 +16336,39 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>601</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1441</v>
+        <v>597</v>
       </c>
       <c r="B27" t="s">
-        <v>1377</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B28" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="B29" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B30" t="s">
         <v>609</v>
@@ -15688,223 +16376,223 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>488</v>
+        <v>585</v>
       </c>
       <c r="B31" t="s">
-        <v>486</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>696</v>
+        <v>589</v>
       </c>
       <c r="B32" t="s">
-        <v>694</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>419</v>
+        <v>592</v>
       </c>
       <c r="B33" t="s">
-        <v>418</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1372</v>
+        <v>593</v>
       </c>
       <c r="B34" t="s">
-        <v>1367</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>590</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="B36" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1461</v>
+        <v>588</v>
       </c>
       <c r="B37" t="s">
-        <v>1381</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>353</v>
+        <v>594</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="B39" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>629</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>618</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>630</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>618</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>628</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>618</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>634</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>620</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1440</v>
+        <v>241</v>
       </c>
       <c r="B44" t="s">
-        <v>1377</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>623</v>
+        <v>240</v>
       </c>
       <c r="B45" t="s">
-        <v>617</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="B46" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1373</v>
+        <v>612</v>
       </c>
       <c r="B47" t="s">
-        <v>1367</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="B48" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>627</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>618</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="B50" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1375</v>
+        <v>630</v>
       </c>
       <c r="B51" t="s">
-        <v>1367</v>
+        <v>618</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="B52" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1435</v>
+        <v>419</v>
       </c>
       <c r="B53" t="s">
-        <v>804</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>806</v>
+        <v>1625</v>
       </c>
       <c r="B54" t="s">
-        <v>804</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1436</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s">
-        <v>804</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1434</v>
+        <v>634</v>
       </c>
       <c r="B56" t="s">
-        <v>804</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1433</v>
+        <v>635</v>
       </c>
       <c r="B57" t="s">
-        <v>804</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>810</v>
+        <v>1435</v>
       </c>
       <c r="B58" t="s">
         <v>804</v>
@@ -15912,55 +16600,55 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>806</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>804</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>601</v>
+        <v>1436</v>
       </c>
       <c r="B60" t="s">
-        <v>609</v>
+        <v>804</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>1434</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>804</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>1433</v>
       </c>
       <c r="B62" t="s">
-        <v>1381</v>
+        <v>804</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>810</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>804</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>1378</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
         <v>133</v>
@@ -15968,119 +16656,119 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>489</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>486</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1462</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s">
-        <v>1381</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>597</v>
+        <v>488</v>
       </c>
       <c r="B70" t="s">
-        <v>609</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>624</v>
+        <v>489</v>
       </c>
       <c r="B71" t="s">
-        <v>617</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="B72" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="B73" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1380</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>1376</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1381</v>
+        <v>631</v>
       </c>
       <c r="B75" t="s">
-        <v>1376</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>632</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>633</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>619</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>626</v>
+        <v>1626</v>
       </c>
       <c r="B78" t="s">
-        <v>617</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1438</v>
+        <v>1463</v>
       </c>
       <c r="B79" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B80" t="s">
         <v>1381</v>
@@ -16088,170 +16776,170 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>635</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>620</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>1462</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1382</v>
+        <v>1460</v>
       </c>
       <c r="B83" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>1371</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>588</v>
+        <v>1372</v>
       </c>
       <c r="B85" t="s">
-        <v>586</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>594</v>
+        <v>1373</v>
       </c>
       <c r="B86" t="s">
-        <v>609</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>594</v>
+        <v>1375</v>
       </c>
       <c r="B87" t="s">
-        <v>586</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="B88" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="B89" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>612</v>
+        <v>1441</v>
       </c>
       <c r="B90" t="s">
-        <v>610</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1374</v>
+        <v>1440</v>
       </c>
       <c r="B91" t="s">
-        <v>1367</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1370</v>
+        <v>1438</v>
       </c>
       <c r="B92" t="s">
-        <v>1367</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>605</v>
+        <v>1377</v>
       </c>
       <c r="B93" t="s">
-        <v>609</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>595</v>
+        <v>1437</v>
       </c>
       <c r="B94" t="s">
-        <v>609</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>595</v>
+        <v>1439</v>
       </c>
       <c r="B95" t="s">
-        <v>586</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>613</v>
+        <v>1378</v>
       </c>
       <c r="B96" t="s">
-        <v>610</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1437</v>
+        <v>1379</v>
       </c>
       <c r="B97" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>606</v>
+        <v>1380</v>
       </c>
       <c r="B98" t="s">
-        <v>608</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1439</v>
+        <v>1381</v>
       </c>
       <c r="B99" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1625</v>
+        <v>1382</v>
       </c>
       <c r="B100" t="s">
-        <v>1624</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1626</v>
+        <v>1383</v>
       </c>
       <c r="B101" t="s">
-        <v>1623</v>
+        <v>1376</v>
       </c>
     </row>
   </sheetData>
@@ -17751,7 +18439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0B0656-AA58-F348-86C4-3D0196DCA86E}">
   <dimension ref="A1:B696"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
@@ -23334,4 +24022,2713 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31A5749-02AB-E245-8471-8F7497591BBC}">
+  <dimension ref="A1:B336"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="48.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B16" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>519</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B26" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B28" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B31" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>513</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>513</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B54" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B61" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B69" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>521</v>
+      </c>
+      <c r="B77" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B85" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B87" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B88" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B94" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B104" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>804</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B118" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B123" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B125" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B130" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B132" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B144" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>337</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B152" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B167" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>138</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B179" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>57</v>
+      </c>
+      <c r="B180" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B181" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B185" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B191" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B203" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B209" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B211" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>519</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>697</v>
+      </c>
+      <c r="B230" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B231" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>746</v>
+      </c>
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B237" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B239" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B240" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B241" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B243" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B246" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B248" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="7" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="7" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>150</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B253" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B254" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>745</v>
+      </c>
+      <c r="B261" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B262" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>745</v>
+      </c>
+      <c r="B263" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B264" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B266" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B267" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B268" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B269" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B271" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B272" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B273" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>413</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B277" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>741</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>37</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>37</v>
+      </c>
+      <c r="B281" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B283" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B286" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B287" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B288" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B289" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B291" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B292" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B293" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B297" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B298" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>730</v>
+      </c>
+      <c r="B300" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B301" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B302" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B303" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B306" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B307" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B308" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>709</v>
+      </c>
+      <c r="B309" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B313" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>41</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>351</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B317" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B319" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B320" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B323" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B328" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B329" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>340</v>
+      </c>
+      <c r="B332" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B334" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B336" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>